--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Customer ID</t>
   </si>
@@ -65,12 +65,33 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Histogram Output</t>
+  </si>
+  <si>
+    <t>Bin Ranges</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>General Statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +107,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -95,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -103,11 +148,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -119,8 +214,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -134,6 +262,650 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Queue Service</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time (QZ)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QST &amp; CST Analysis'!$L$4:$L$34</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QST &amp; CST Analysis'!$M$4:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="418074192"/>
+        <c:axId val="418074584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="418074192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418074584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418074584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418074192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cashier Service Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QST &amp; CST Analysis'!$N$4:$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QST &amp; CST Analysis'!$O$4:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="566528616"/>
+        <c:axId val="566527832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="566528616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="566527832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="566527832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="566528616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1787,37 +2559,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="I1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="L1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1827,74 +2614,148 @@
       <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="14">
         <f>AVERAGE(B2:B61)</f>
         <v>97.783333333333331</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="14">
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F4" s="1">
         <f>MIN(B2:B61)</f>
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="1">
         <f>MIN(C2:C61)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6">
+        <v>10</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F4">
+      <c r="F5" s="1">
         <f>MAX(B2:B61)</f>
         <v>497</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="1">
         <f>MAX(C2:C61)</f>
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6">
+        <v>20</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1904,8 +2765,26 @@
       <c r="C6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
+        <v>6</v>
+      </c>
+      <c r="N6" s="6">
+        <v>15</v>
+      </c>
+      <c r="O6" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1915,8 +2794,26 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="L7" s="6">
+        <v>40</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <v>20</v>
+      </c>
+      <c r="O7" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1926,8 +2823,26 @@
       <c r="C8" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1">
+        <v>25</v>
+      </c>
+      <c r="L8" s="6">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>6</v>
+      </c>
+      <c r="N8" s="6">
+        <v>25</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1937,8 +2852,26 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>60</v>
+      </c>
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="L9" s="6">
+        <v>60</v>
+      </c>
+      <c r="M9" s="7">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1948,8 +2881,26 @@
       <c r="C10" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1">
+        <v>35</v>
+      </c>
+      <c r="L10" s="6">
+        <v>70</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>35</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1959,8 +2910,26 @@
       <c r="C11" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1">
+        <v>40</v>
+      </c>
+      <c r="L11" s="6">
+        <v>80</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="6">
+        <v>40</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1970,8 +2939,26 @@
       <c r="C12" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45</v>
+      </c>
+      <c r="L12" s="6">
+        <v>90</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2</v>
+      </c>
+      <c r="N12" s="6">
+        <v>45</v>
+      </c>
+      <c r="O12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1981,8 +2968,26 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>50</v>
+      </c>
+      <c r="L13" s="6">
+        <v>100</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="6">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1992,8 +2997,24 @@
       <c r="C14" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>110</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="6">
+        <v>110</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2003,8 +3024,20 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>120</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="6">
+        <v>120</v>
+      </c>
+      <c r="M15" s="7">
+        <v>6</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2014,8 +3047,20 @@
       <c r="C16" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>130</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="6">
+        <v>130</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2025,8 +3070,20 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>140</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17" s="6">
+        <v>140</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2036,8 +3093,20 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>150</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="6">
+        <v>150</v>
+      </c>
+      <c r="M18" s="7">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2047,8 +3116,20 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="6">
+        <v>160</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2058,8 +3139,18 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>170</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="6">
+        <v>170</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2069,8 +3160,18 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <v>180</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21" s="6">
+        <v>180</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2080,8 +3181,18 @@
       <c r="C22" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <v>190</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="L22" s="6">
+        <v>190</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2091,8 +3202,18 @@
       <c r="C23" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <v>200</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="L23" s="6">
+        <v>200</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2102,8 +3223,18 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <v>210</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="L24" s="6">
+        <v>210</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2113,8 +3244,18 @@
       <c r="C25" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <v>220</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="L25" s="6">
+        <v>220</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2124,8 +3265,18 @@
       <c r="C26" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <v>230</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="L26" s="6">
+        <v>230</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2135,8 +3286,18 @@
       <c r="C27" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>240</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="L27" s="6">
+        <v>240</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2146,8 +3307,18 @@
       <c r="C28" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <v>250</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="L28" s="6">
+        <v>250</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2157,8 +3328,18 @@
       <c r="C29" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <v>260</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="L29" s="6">
+        <v>260</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2168,8 +3349,18 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <v>270</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="L30" s="6">
+        <v>270</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2179,8 +3370,18 @@
       <c r="C31" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <v>280</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="L31" s="6">
+        <v>280</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2190,8 +3391,18 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <v>290</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="L32" s="6">
+        <v>290</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2201,8 +3412,18 @@
       <c r="C33" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <v>300</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="L33" s="6">
+        <v>300</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2212,8 +3433,14 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2223,8 +3450,10 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2234,8 +3463,10 @@
       <c r="C36" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2245,8 +3476,10 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2256,8 +3489,10 @@
       <c r="C38" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2267,8 +3502,10 @@
       <c r="C39" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2278,8 +3515,10 @@
       <c r="C40" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2289,8 +3528,10 @@
       <c r="C41" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2300,8 +3541,10 @@
       <c r="C42" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2311,8 +3554,10 @@
       <c r="C43" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2322,8 +3567,10 @@
       <c r="C44" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L44" s="6"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2333,8 +3580,10 @@
       <c r="C45" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2344,8 +3593,10 @@
       <c r="C46" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2355,8 +3606,10 @@
       <c r="C47" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L47" s="6"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2366,8 +3619,10 @@
       <c r="C48" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2377,8 +3632,10 @@
       <c r="C49" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L49" s="6"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2388,8 +3645,10 @@
       <c r="C50" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2399,8 +3658,10 @@
       <c r="C51" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L51" s="6"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2410,8 +3671,10 @@
       <c r="C52" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2421,8 +3684,10 @@
       <c r="C53" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2433,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2444,7 +3709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2455,7 +3720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2466,7 +3731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2477,7 +3742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2488,7 +3753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2499,7 +3764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2511,7 +3776,21 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="N4:N13">
+    <sortCondition ref="N4"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="D1:D1048576"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="K1:K1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
-    <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Arrival Rate Analysis" sheetId="4" r:id="rId2"/>
+    <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Customer ID</t>
   </si>
@@ -66,9 +67,6 @@
     <t>Max</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -85,6 +83,21 @@
   </si>
   <si>
     <t>General Statistics</t>
+  </si>
+  <si>
+    <t>Customer Observations</t>
+  </si>
+  <si>
+    <t>Arrival Rate 8pm - 9pm</t>
+  </si>
+  <si>
+    <t>Arrival Time</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t># Customers</t>
   </si>
 </sst>
 </file>
@@ -202,7 +215,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,19 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
@@ -241,8 +245,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -529,11 +551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="418074192"/>
-        <c:axId val="418074584"/>
+        <c:axId val="347204736"/>
+        <c:axId val="347208656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="418074192"/>
+        <c:axId val="347204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -562,7 +584,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418074584"/>
+        <c:crossAx val="347208656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -570,7 +592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418074584"/>
+        <c:axId val="347208656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418074192"/>
+        <c:crossAx val="347204736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -756,11 +778,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="566528616"/>
-        <c:axId val="566527832"/>
+        <c:axId val="349762680"/>
+        <c:axId val="349763072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="566528616"/>
+        <c:axId val="349762680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -789,7 +811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566527832"/>
+        <c:crossAx val="349763072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -797,7 +819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566527832"/>
+        <c:axId val="349763072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="566528616"/>
+        <c:crossAx val="349762680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1230,1326 +1252,3435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K28"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:R141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="L2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="Q2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>497</v>
-      </c>
-      <c r="D3">
-        <v>506</v>
-      </c>
-      <c r="E3">
-        <f>C3-B3</f>
-        <v>497</v>
-      </c>
-      <c r="F3">
-        <f>D3-C3</f>
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>48</v>
-      </c>
-      <c r="K3">
-        <f>J3-I3</f>
+      <c r="Q3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
+        <v>497</v>
+      </c>
+      <c r="D4">
+        <v>506</v>
+      </c>
+      <c r="E4">
+        <f>C4-B4</f>
+        <v>497</v>
+      </c>
+      <c r="F4">
+        <f>D4-C4</f>
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>48</v>
+      </c>
+      <c r="O4">
+        <f>N4-M4</f>
+        <v>21</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>63</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>68</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E36" si="0">C4-B4</f>
+      <c r="E5">
+        <f t="shared" ref="E5:E37" si="0">C5-B5</f>
         <v>63</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F36" si="1">D4-C4</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F37" si="1">D5-C5</f>
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="M5">
         <v>57</v>
       </c>
-      <c r="J4">
+      <c r="N5">
         <v>66</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K28" si="2">J4-I4</f>
+      <c r="O5">
+        <f t="shared" ref="O5:O29" si="2">N5-M5</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>144</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>225</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>238</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="M6">
         <v>49</v>
       </c>
-      <c r="J5">
+      <c r="N6">
         <v>68</v>
       </c>
-      <c r="K5">
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>252</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>351</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>358</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="M7">
         <v>179</v>
       </c>
-      <c r="J6">
+      <c r="N7">
         <v>255</v>
       </c>
-      <c r="K6">
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>390</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>437</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>447</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="M8">
         <v>75</v>
       </c>
-      <c r="J7">
+      <c r="N8">
         <v>86</v>
       </c>
-      <c r="K7">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>494</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>641</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>650</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="I8">
+      <c r="M9">
         <v>43</v>
       </c>
-      <c r="J8">
+      <c r="N9">
         <v>50</v>
       </c>
-      <c r="K8">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>672</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>727</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>742</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>7</v>
       </c>
-      <c r="I9">
+      <c r="M10">
         <v>152</v>
       </c>
-      <c r="J9">
+      <c r="N10">
         <v>168</v>
       </c>
-      <c r="K9">
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>783</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>894</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>899</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>8</v>
       </c>
-      <c r="I10">
+      <c r="M11">
         <v>54</v>
       </c>
-      <c r="J10">
+      <c r="N11">
         <v>70</v>
       </c>
-      <c r="K10">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>940</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>1058</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1077</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="M12">
         <v>20</v>
       </c>
-      <c r="J11">
+      <c r="N12">
         <v>30</v>
       </c>
-      <c r="K11">
+      <c r="O12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="Q12">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1110</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1161</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1174</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H12">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="M13">
         <v>50</v>
       </c>
-      <c r="J12">
+      <c r="N13">
         <v>70</v>
       </c>
-      <c r="K12">
+      <c r="O13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1203</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1392</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1447</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H13">
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14">
         <v>11</v>
       </c>
-      <c r="I13">
+      <c r="M14">
         <v>26</v>
       </c>
-      <c r="J13">
+      <c r="N14">
         <v>32</v>
       </c>
-      <c r="K13">
+      <c r="O14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="Q14">
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>150</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>155</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="L15">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="M15">
         <v>33</v>
       </c>
-      <c r="J14">
+      <c r="N15">
         <v>60</v>
       </c>
-      <c r="K14">
+      <c r="O15">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>206</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>336</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>347</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H15">
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16">
         <v>13</v>
       </c>
-      <c r="I15">
+      <c r="M16">
         <v>118</v>
       </c>
-      <c r="J15">
+      <c r="N16">
         <v>136</v>
       </c>
-      <c r="K15">
+      <c r="O16">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>411</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>437</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>438</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="L17">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="M17">
         <v>8</v>
       </c>
-      <c r="J16">
+      <c r="N17">
         <v>23</v>
       </c>
-      <c r="K16">
+      <c r="O17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>455</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>505</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>513</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="M18">
         <v>105</v>
       </c>
-      <c r="J17">
+      <c r="N18">
         <v>142</v>
       </c>
-      <c r="K17">
+      <c r="O18">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>551</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>652</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>659</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>16</v>
       </c>
-      <c r="I18">
+      <c r="M19">
         <v>133</v>
       </c>
-      <c r="J18">
+      <c r="N19">
         <v>174</v>
       </c>
-      <c r="K18">
+      <c r="O19">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>683</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>780</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>785</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>97</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H19">
-        <v>17</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-      <c r="J19">
-        <v>68</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>833</v>
-      </c>
-      <c r="C20">
-        <v>885</v>
-      </c>
-      <c r="D20">
-        <v>890</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>52</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>68</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="I20">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="J20">
+      <c r="B21">
+        <v>833</v>
+      </c>
+      <c r="C21">
+        <v>885</v>
+      </c>
+      <c r="D21">
+        <v>890</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>18</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+      <c r="N21">
         <v>28</v>
       </c>
-      <c r="K20">
+      <c r="O21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>1030</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>1245</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1253</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <f t="shared" si="0"/>
         <v>215</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
-      </c>
-      <c r="I21">
-        <v>143</v>
-      </c>
-      <c r="J21">
-        <v>160</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1426</v>
-      </c>
-      <c r="C22">
-        <v>1502</v>
-      </c>
-      <c r="D22">
-        <v>1510</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>76</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>143</v>
+      </c>
+      <c r="N22">
+        <v>160</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
+      <c r="B23">
+        <v>1426</v>
+      </c>
+      <c r="C23">
+        <v>1502</v>
+      </c>
+      <c r="D23">
+        <v>1510</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
         <v>87</v>
       </c>
-      <c r="J22">
+      <c r="N23">
         <v>103</v>
       </c>
-      <c r="K22">
+      <c r="O23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>95</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>110</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <f t="shared" si="0"/>
         <v>95</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H23">
-        <v>21</v>
-      </c>
-      <c r="I23">
-        <v>10</v>
-      </c>
-      <c r="J23">
-        <v>19</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>196</v>
-      </c>
-      <c r="C24">
-        <v>267</v>
-      </c>
-      <c r="D24">
-        <v>282</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>71</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>19</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="I24">
+      <c r="B25">
+        <v>196</v>
+      </c>
+      <c r="C25">
+        <v>267</v>
+      </c>
+      <c r="D25">
+        <v>282</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
         <v>245</v>
       </c>
-      <c r="J24">
+      <c r="N25">
         <v>290</v>
       </c>
-      <c r="K24">
+      <c r="O25">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>357</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>463</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>466</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H25">
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+      <c r="L26">
         <v>23</v>
       </c>
-      <c r="I25">
+      <c r="M26">
         <v>112</v>
       </c>
-      <c r="J25">
+      <c r="N26">
         <v>139</v>
       </c>
-      <c r="K25">
+      <c r="O26">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>487</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>600</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>611</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H26">
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>24</v>
       </c>
-      <c r="I26">
+      <c r="M27">
         <v>60</v>
       </c>
-      <c r="J26">
+      <c r="N27">
         <v>89</v>
       </c>
-      <c r="K26">
+      <c r="O27">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>910</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>1016</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>1026</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H27">
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>25</v>
       </c>
-      <c r="I27">
+      <c r="M28">
         <v>116</v>
       </c>
-      <c r="J27">
+      <c r="N28">
         <v>135</v>
       </c>
-      <c r="K27">
+      <c r="O28">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>1096</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>1255</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1268</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H28">
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29">
         <v>26</v>
       </c>
-      <c r="I28">
+      <c r="M29">
         <v>68</v>
       </c>
-      <c r="J28">
+      <c r="N29">
         <v>83</v>
       </c>
-      <c r="K28">
+      <c r="O29">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>1349</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>1500</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>1511</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>22</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>32</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="H31" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>137</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>270</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>276</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>296</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>391</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>399</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>422</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>450</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>459</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>523</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>840</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>862</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <f t="shared" si="0"/>
         <v>317</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="H35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>918</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>943</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>949</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>977</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>1030</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>1040</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="H37" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="Q53">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="Q72">
+        <v>7</v>
+      </c>
+      <c r="R72">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="84" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="85" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="86" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="87" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="88" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="89" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>1</v>
+      </c>
+      <c r="R89">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="90" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="91" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="92" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+      <c r="R92">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="93" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="94" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>2</v>
+      </c>
+      <c r="R94">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="95" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>2</v>
+      </c>
+      <c r="R95">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="96" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="97" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>1</v>
+      </c>
+      <c r="R97">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="98" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>1</v>
+      </c>
+      <c r="R98">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="99" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+      <c r="R99">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="100" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="101" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>2</v>
+      </c>
+      <c r="R101">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="102" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="103" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>2</v>
+      </c>
+      <c r="R103">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="104" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="105" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="107" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>2</v>
+      </c>
+      <c r="R107">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="108" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="109" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>2</v>
+      </c>
+      <c r="R109">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="110" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>1</v>
+      </c>
+      <c r="R110">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="111" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>1</v>
+      </c>
+      <c r="R111">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="112" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>2</v>
+      </c>
+      <c r="R112">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="113" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>1</v>
+      </c>
+      <c r="R113">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="114" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>1</v>
+      </c>
+      <c r="R114">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="115" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>2</v>
+      </c>
+      <c r="R115">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="116" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="117" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="118" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="119" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="120" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>2</v>
+      </c>
+      <c r="R120">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="121" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="122" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="123" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="124" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="125" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="126" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="127" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="128" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="129" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="130" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="131" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="132" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>2</v>
+      </c>
+      <c r="R132">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="133" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="134" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="135" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="R135">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="136" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>2</v>
+      </c>
+      <c r="R136">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="137" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="138" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q138">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="R138">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="139" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>1</v>
+      </c>
+      <c r="R139">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="140" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q140">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>1</v>
+      <c r="R140">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="141" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>3573</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>5</v>
+      <c r="A49">
+        <v>771</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>2</v>
+      <c r="A50">
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>5</v>
+      <c r="A51">
+        <v>815</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>3</v>
+      <c r="A52">
+        <v>816</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>2</v>
+      <c r="A53">
+        <v>980</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>1</v>
+      <c r="A54">
+        <v>994</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>2</v>
+      <c r="A55">
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>1</v>
+      <c r="A56">
+        <v>996</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>1</v>
+      <c r="A57">
+        <v>997</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>3</v>
+      <c r="A58">
+        <v>1010</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>1</v>
+      <c r="A59">
+        <v>1060</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2</v>
+      <c r="A60">
+        <v>1114</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>4</v>
+      <c r="A61">
+        <v>1157</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>1</v>
+      <c r="A62">
+        <v>1185</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1</v>
+      <c r="A63">
+        <v>1186</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2</v>
+      <c r="A64">
+        <v>1259</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>4</v>
+      <c r="A65">
+        <v>1260</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>7</v>
+      <c r="A66">
+        <v>1278</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>2</v>
+      <c r="A67">
+        <v>1279</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>1</v>
+      <c r="A68">
+        <v>1280</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>1</v>
+      <c r="A69">
+        <v>1317</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>2</v>
+      <c r="A70">
+        <v>1326</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>2</v>
+      <c r="A71">
+        <v>1327</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>3</v>
+      <c r="A72">
+        <v>1339</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>1</v>
+      <c r="A73">
+        <v>1340</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1</v>
+      <c r="A74">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3553</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>3573</v>
       </c>
     </row>
   </sheetData>
@@ -2557,12 +4688,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2570,39 +4701,39 @@
     <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
+    <col min="4" max="4" width="9" style="13"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="5"/>
+    <col min="8" max="8" width="9" style="13"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="I1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="L1" s="10" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="J1" s="15"/>
+      <c r="L1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -2614,26 +4745,26 @@
       <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="11"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2645,14 +4776,14 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="11">
         <f>AVERAGE(B2:B61)</f>
         <v>97.783333333333331</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="11">
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
@@ -2662,17 +4793,17 @@
       <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>15</v>
+      <c r="L3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2685,7 +4816,7 @@
       <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -2702,16 +4833,16 @@
       <c r="J4" s="1">
         <v>5</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>10</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <v>5</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2725,7 +4856,7 @@
       <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -2742,16 +4873,16 @@
       <c r="J5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>20</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <v>10</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>20</v>
       </c>
     </row>
@@ -2771,16 +4902,16 @@
       <c r="J6" s="1">
         <v>15</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>30</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <v>15</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="6">
         <v>12</v>
       </c>
     </row>
@@ -2800,16 +4931,16 @@
       <c r="J7" s="1">
         <v>20</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>40</v>
       </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="M7" s="6">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
         <v>20</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>10</v>
       </c>
     </row>
@@ -2829,16 +4960,16 @@
       <c r="J8" s="1">
         <v>25</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>50</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>6</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>25</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2858,16 +4989,16 @@
       <c r="J9" s="1">
         <v>30</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>60</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>7</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>30</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2887,16 +5018,16 @@
       <c r="J10" s="1">
         <v>35</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>70</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>2</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <v>35</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2916,16 +5047,16 @@
       <c r="J11" s="1">
         <v>40</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>80</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>3</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <v>40</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2945,16 +5076,16 @@
       <c r="J12" s="1">
         <v>45</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>90</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>2</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <v>45</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>2</v>
       </c>
     </row>
@@ -2974,16 +5105,16 @@
       <c r="J13" s="1">
         <v>50</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>100</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>4</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <v>50</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3001,16 +5132,16 @@
         <v>110</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>110</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>4</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="N14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="7">
         <v>2</v>
       </c>
     </row>
@@ -3028,14 +5159,14 @@
         <v>120</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>120</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>6</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -3051,14 +5182,14 @@
         <v>130</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <v>130</v>
       </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3074,14 +5205,14 @@
         <v>140</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>140</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>2</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -3097,14 +5228,14 @@
         <v>150</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <v>150</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>3</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3120,14 +5251,14 @@
         <v>160</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <v>160</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>3</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -3143,10 +5274,10 @@
         <v>170</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>170</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3164,10 +5295,10 @@
         <v>180</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <v>180</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3185,10 +5316,10 @@
         <v>190</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <v>190</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3206,10 +5337,10 @@
         <v>200</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>200</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3227,10 +5358,10 @@
         <v>210</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>210</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3248,10 +5379,10 @@
         <v>220</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>220</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3269,10 +5400,10 @@
         <v>230</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <v>230</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3290,10 +5421,10 @@
         <v>240</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="L27" s="6">
+      <c r="L27" s="5">
         <v>240</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3311,10 +5442,10 @@
         <v>250</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="L28" s="6">
+      <c r="L28" s="5">
         <v>250</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -3332,10 +5463,10 @@
         <v>260</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="L29" s="6">
+      <c r="L29" s="5">
         <v>260</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3353,10 +5484,10 @@
         <v>270</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="L30" s="6">
+      <c r="L30" s="5">
         <v>270</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3374,10 +5505,10 @@
         <v>280</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="L31" s="6">
+      <c r="L31" s="5">
         <v>280</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3395,10 +5526,10 @@
         <v>290</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="L32" s="6">
+      <c r="L32" s="5">
         <v>290</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3416,10 +5547,10 @@
         <v>300</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="L33" s="6">
+      <c r="L33" s="5">
         <v>300</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3433,10 +5564,10 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="8">
+      <c r="L34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3450,8 +5581,8 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -3463,8 +5594,8 @@
       <c r="C36" s="1">
         <v>21</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="7"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3476,8 +5607,8 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="7"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -3489,8 +5620,8 @@
       <c r="C38" s="1">
         <v>19</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="7"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3502,8 +5633,8 @@
       <c r="C39" s="1">
         <v>76</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="7"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="6"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3515,8 +5646,8 @@
       <c r="C40" s="1">
         <v>11</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="7"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="6"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3528,8 +5659,8 @@
       <c r="C41" s="1">
         <v>7</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -3541,8 +5672,8 @@
       <c r="C42" s="1">
         <v>16</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="7"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -3554,8 +5685,8 @@
       <c r="C43" s="1">
         <v>16</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="7"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -3567,8 +5698,8 @@
       <c r="C44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="7"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -3580,8 +5711,8 @@
       <c r="C45" s="1">
         <v>20</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="7"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -3593,8 +5724,8 @@
       <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="7"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="6"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -3606,8 +5737,8 @@
       <c r="C47" s="1">
         <v>27</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="7"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -3619,8 +5750,8 @@
       <c r="C48" s="1">
         <v>18</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="7"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="6"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -3632,8 +5763,8 @@
       <c r="C49" s="1">
         <v>15</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="7"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="6"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -3645,8 +5776,8 @@
       <c r="C50" s="1">
         <v>37</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="7"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="6"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -3658,8 +5789,8 @@
       <c r="C51" s="1">
         <v>41</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="7"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="6"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -3671,8 +5802,8 @@
       <c r="C52" s="1">
         <v>18</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="7"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="6"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -3684,8 +5815,8 @@
       <c r="C53" s="1">
         <v>10</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="7"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="6"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -3780,14 +5911,14 @@
     <sortCondition ref="N4"/>
   </sortState>
   <mergeCells count="8">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="K1:K1048576"/>
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="D1:D1048576"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="K1:K1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Customer ID</t>
   </si>
@@ -99,6 +99,33 @@
   <si>
     <t># Customers</t>
   </si>
+  <si>
+    <t>1 Min</t>
+  </si>
+  <si>
+    <t>5 min</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>Avg rate / 10min</t>
+  </si>
+  <si>
+    <t>Avg rate / 5 min</t>
+  </si>
+  <si>
+    <t>Avg rate / 1 min</t>
+  </si>
+  <si>
+    <t>1 min Interval</t>
+  </si>
+  <si>
+    <t>5 min Interval</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -208,6 +235,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -215,7 +253,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,6 +295,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,6 +306,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -287,6 +337,975 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1 Minute Interval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Arrival Rate Analysis'!$J$4:$J$64</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1740</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2280</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2460</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2580</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2640</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2760</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2940</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3060</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3180</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3240</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3480</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arrival Rate Analysis'!$K$4:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="344619600"/>
+        <c:axId val="344620776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344619600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344620776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344620776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344619600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>5 Minute Interval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Arrival Rate Analysis'!$L$4:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arrival Rate Analysis'!$M$4:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="382856368"/>
+        <c:axId val="388272256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="382856368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="388272256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388272256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="382856368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 Minute Interval</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Arrival Rate Analysis'!$N$4:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arrival Rate Analysis'!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="388270688"/>
+        <c:axId val="386197928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="388270688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="386197928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="386197928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="388270688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -638,7 +1657,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -866,6 +1885,101 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1275,26 +2389,26 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="L2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="L2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="Q2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3620,1071 +4734,1945 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A212"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
+    <col min="6" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="F1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="J1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11">
+        <f>AVERAGE(K4:K63)</f>
+        <v>3.5166666666666666</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="16"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="11">
+        <f>AVERAGE(M4:M15)</f>
+        <v>17.583333333333332</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60</v>
+      </c>
+      <c r="G3" s="1">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>600</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11">
+        <f>AVERAGE(O4:O9)</f>
+        <v>35.166666666666664</v>
+      </c>
+      <c r="F4" s="1">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J4" s="5">
+        <v>60</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>300</v>
+      </c>
+      <c r="M4" s="6">
+        <v>17</v>
+      </c>
+      <c r="N4" s="5">
+        <v>600</v>
+      </c>
+      <c r="O4" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="1">
+        <v>180</v>
+      </c>
+      <c r="G5" s="1">
+        <v>900</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J5" s="5">
+        <v>120</v>
+      </c>
+      <c r="K5" s="6">
+        <v>6</v>
+      </c>
+      <c r="L5" s="5">
+        <v>600</v>
+      </c>
+      <c r="M5" s="6">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1200</v>
+      </c>
+      <c r="O5" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="1">
+        <v>240</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="J6" s="5">
+        <v>180</v>
+      </c>
+      <c r="K6" s="6">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5">
+        <v>900</v>
+      </c>
+      <c r="M6" s="6">
+        <v>11</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1800</v>
+      </c>
+      <c r="O6" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F7" s="1">
+        <v>300</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="5">
+        <v>240</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="6">
+        <v>11</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2400</v>
+      </c>
+      <c r="O7" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="F8" s="1">
+        <v>360</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="5">
+        <v>300</v>
+      </c>
+      <c r="K8" s="6">
+        <v>3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="M8" s="6">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O8" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="F9" s="1">
+        <v>420</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="J9" s="5">
+        <v>360</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1800</v>
+      </c>
+      <c r="M9" s="6">
+        <v>15</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3600</v>
+      </c>
+      <c r="O9" s="6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="F10" s="1">
+        <v>480</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="J10" s="5">
+        <v>420</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>2100</v>
+      </c>
+      <c r="M10" s="6">
+        <v>25</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="F11" s="1">
+        <v>540</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J11" s="5">
+        <v>480</v>
+      </c>
+      <c r="K11" s="6">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2400</v>
+      </c>
+      <c r="M11" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F12" s="1">
+        <v>600</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="5">
+        <v>540</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2700</v>
+      </c>
+      <c r="M12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="F13" s="1">
+        <v>660</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3300</v>
+      </c>
+      <c r="J13" s="5">
+        <v>600</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="M13" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F14" s="1">
+        <v>720</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="J14" s="5">
+        <v>660</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3300</v>
+      </c>
+      <c r="M14" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F15" s="1">
+        <v>780</v>
+      </c>
+      <c r="J15" s="5">
+        <v>720</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3600</v>
+      </c>
+      <c r="M15" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="F16" s="1">
+        <v>840</v>
+      </c>
+      <c r="J16" s="5">
+        <v>780</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F17" s="1">
+        <v>900</v>
+      </c>
+      <c r="J17" s="5">
+        <v>840</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>261</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="F18" s="1">
+        <v>960</v>
+      </c>
+      <c r="J18" s="5">
+        <v>900</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>306</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="F19" s="1">
+        <v>1020</v>
+      </c>
+      <c r="J19" s="5">
+        <v>960</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>307</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F20" s="1">
+        <v>1080</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1020</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="F21" s="1">
+        <v>1140</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1080</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>309</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="F22" s="1">
+        <v>1200</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1140</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="F23" s="1">
+        <v>1260</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K23" s="6">
+        <v>3</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>311</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="F24" s="1">
+        <v>1320</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1260</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="F25" s="1">
+        <v>1380</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1320</v>
+      </c>
+      <c r="K25" s="6">
+        <v>4</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>428</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="F26" s="1">
+        <v>1440</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1380</v>
+      </c>
+      <c r="K26" s="6">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>452</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="F27" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1440</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>453</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="F28" s="1">
+        <v>1560</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1500</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>468</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="F29" s="1">
+        <v>1620</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1560</v>
+      </c>
+      <c r="K29" s="6">
+        <v>2</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="F30" s="1">
+        <v>1680</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1620</v>
+      </c>
+      <c r="K30" s="6">
+        <v>4</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>518</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="F31" s="1">
+        <v>1740</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1680</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>519</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="F32" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1740</v>
+      </c>
+      <c r="K32" s="6">
+        <v>4</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>520</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="F33" s="1">
+        <v>1860</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1800</v>
+      </c>
+      <c r="K33" s="6">
+        <v>2</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>521</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="F34" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1860</v>
+      </c>
+      <c r="K34" s="6">
+        <v>5</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>522</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="F35" s="1">
+        <v>1980</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1920</v>
+      </c>
+      <c r="K35" s="6">
+        <v>5</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>538</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="F36" s="1">
+        <v>2040</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1980</v>
+      </c>
+      <c r="K36" s="6">
+        <v>3</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>539</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="F37" s="1">
+        <v>2100</v>
+      </c>
+      <c r="J37" s="5">
+        <v>2040</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>540</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="F38" s="1">
+        <v>2160</v>
+      </c>
+      <c r="J38" s="5">
+        <v>2100</v>
+      </c>
+      <c r="K38" s="6">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>541</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="F39" s="1">
+        <v>2220</v>
+      </c>
+      <c r="J39" s="5">
+        <v>2160</v>
+      </c>
+      <c r="K39" s="6">
+        <v>3</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>542</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="F40" s="1">
+        <v>2280</v>
+      </c>
+      <c r="J40" s="5">
+        <v>2220</v>
+      </c>
+      <c r="K40" s="6">
+        <v>3</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>543</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F41" s="1">
+        <v>2340</v>
+      </c>
+      <c r="J41" s="5">
+        <v>2280</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>619</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="F42" s="1">
+        <v>2400</v>
+      </c>
+      <c r="J42" s="5">
+        <v>2340</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>620</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F43" s="1">
+        <v>2460</v>
+      </c>
+      <c r="J43" s="5">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="6">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>630</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="F44" s="1">
+        <v>2520</v>
+      </c>
+      <c r="J44" s="5">
+        <v>2460</v>
+      </c>
+      <c r="K44" s="6">
+        <v>2</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>658</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="F45" s="1">
+        <v>2580</v>
+      </c>
+      <c r="J45" s="5">
+        <v>2520</v>
+      </c>
+      <c r="K45" s="6">
+        <v>4</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>736</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="F46" s="1">
+        <v>2640</v>
+      </c>
+      <c r="J46" s="5">
+        <v>2580</v>
+      </c>
+      <c r="K46" s="6">
+        <v>2</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>766</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="F47" s="1">
+        <v>2700</v>
+      </c>
+      <c r="J47" s="5">
+        <v>2640</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>770</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="F48" s="1">
+        <v>2760</v>
+      </c>
+      <c r="J48" s="5">
+        <v>2700</v>
+      </c>
+      <c r="K48" s="6">
+        <v>2</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>771</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="F49" s="1">
+        <v>2820</v>
+      </c>
+      <c r="J49" s="5">
+        <v>2760</v>
+      </c>
+      <c r="K49" s="6">
+        <v>5</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>772</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="F50" s="1">
+        <v>2880</v>
+      </c>
+      <c r="J50" s="5">
+        <v>2820</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>815</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="F51" s="1">
+        <v>2940</v>
+      </c>
+      <c r="J51" s="5">
+        <v>2880</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>816</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="F52" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J52" s="5">
+        <v>2940</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>980</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="F53" s="1">
+        <v>3060</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3000</v>
+      </c>
+      <c r="K53" s="6">
+        <v>8</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>994</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="F54" s="1">
+        <v>3120</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3060</v>
+      </c>
+      <c r="K54" s="6">
+        <v>6</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>995</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="F55" s="1">
+        <v>3180</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3120</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>996</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="F56" s="1">
+        <v>3240</v>
+      </c>
+      <c r="J56" s="5">
+        <v>3180</v>
+      </c>
+      <c r="K56" s="6">
+        <v>4</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>997</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="F57" s="1">
+        <v>3300</v>
+      </c>
+      <c r="J57" s="5">
+        <v>3240</v>
+      </c>
+      <c r="K57" s="6">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="F58" s="1">
+        <v>3360</v>
+      </c>
+      <c r="J58" s="5">
+        <v>3300</v>
+      </c>
+      <c r="K58" s="6">
+        <v>4</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>1060</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="F59" s="1">
+        <v>3420</v>
+      </c>
+      <c r="J59" s="5">
+        <v>3360</v>
+      </c>
+      <c r="K59" s="6">
+        <v>9</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>1114</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="F60" s="1">
+        <v>3480</v>
+      </c>
+      <c r="J60" s="5">
+        <v>3420</v>
+      </c>
+      <c r="K60" s="6">
+        <v>3</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>1157</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="F61" s="1">
+        <v>3540</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3480</v>
+      </c>
+      <c r="K61" s="6">
+        <v>3</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>1185</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="F62" s="1">
+        <v>3600</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3540</v>
+      </c>
+      <c r="K62" s="6">
+        <v>6</v>
+      </c>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>1186</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="J63" s="5">
+        <v>3600</v>
+      </c>
+      <c r="K63" s="6">
+        <v>8</v>
+      </c>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>1259</v>
       </c>
+      <c r="J64" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>1260</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>1278</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>1279</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>1280</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>1317</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>1326</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>1327</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>1339</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>1340</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>1373</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>1388</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>1472</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>1473</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>1474</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>1512</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>1524</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>1574</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>1582</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>1584</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>1585</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>1658</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>1659</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>1660</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>1700</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>1711</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>1712</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>1726</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>1754</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>1795</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>1820</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>1830</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>1831</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>1840</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>1860</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>1894</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>1900</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>1904</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>1905</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>1911</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>1948</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>1949</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>1950</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>3036</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>2038</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>2039</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>2067</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>2068</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>2085</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>2086</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>2087</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>2088</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>2089</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>2090</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>2091</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>2090</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>2107</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>2109</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>2125</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>2203</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>2204</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>2205</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>2292</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>2311</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>2312</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>2338</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>2339</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>2378</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>2408</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>2413</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>2471</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>2488</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>2489</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>2510</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>2552</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>2578</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>2675</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>2698</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>2705</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>2706</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>2716</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>2717</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>2760</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>2761</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>2818</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>2866</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>2867</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>2910</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>2941</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>2948</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>2949</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>2952</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>2966</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>2967</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>2972</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>3013</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>3014</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>3015</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>3032</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>3033</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>3087</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>3138</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>3139</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>3177</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>3179</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>3181</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>3182</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>3197</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>3198</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>3208</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>3209</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>3214</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>3215</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>3222</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>3233</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>3251</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>3252</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>3270</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>3311</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>3270</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>3311</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>3340</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>3342</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>3343</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>3352</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>3353</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>3358</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>3359</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>3361</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>3380</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>3420</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>3465</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>3466</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>3480</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>3483</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>3495</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>3510</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>3511</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>3515</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>3516</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>3550</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>3551</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>3552</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>3553</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>3556</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>3560</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>3561</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>3573</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="N4:N9">
+    <sortCondition ref="N4"/>
+  </sortState>
+  <mergeCells count="9">
+    <mergeCell ref="B1:B1048576"/>
+    <mergeCell ref="E1:E1048576"/>
+    <mergeCell ref="I1:I1048576"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="F1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4693,7 +6681,7 @@
   <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4788,10 +6776,10 @@
         <v>15.35</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>22</v>
@@ -4828,10 +6816,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
         <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5</v>
       </c>
       <c r="L4" s="5">
         <v>10</v>
@@ -4868,10 +6856,10 @@
         <v>76</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5" s="5">
         <v>20</v>
@@ -4897,10 +6885,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L6" s="5">
         <v>30</v>
@@ -4926,10 +6914,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L7" s="5">
         <v>40</v>
@@ -4955,10 +6943,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="5">
         <v>50</v>
@@ -4984,10 +6972,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L9" s="5">
         <v>60</v>
@@ -5013,10 +7001,10 @@
         <v>19</v>
       </c>
       <c r="I10" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J10" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L10" s="5">
         <v>70</v>
@@ -5042,10 +7030,10 @@
         <v>13</v>
       </c>
       <c r="I11" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L11" s="5">
         <v>80</v>
@@ -5071,10 +7059,10 @@
         <v>55</v>
       </c>
       <c r="I12" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5">
         <v>90</v>
@@ -5100,11 +7088,9 @@
         <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>100</v>
-      </c>
-      <c r="J13" s="1">
-        <v>50</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="L13" s="5">
         <v>100</v>
       </c>
@@ -5129,7 +7115,7 @@
         <v>11</v>
       </c>
       <c r="I14" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1"/>
       <c r="L14" s="5">
@@ -5156,7 +7142,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J15" s="1"/>
       <c r="L15" s="5">
@@ -5179,7 +7165,7 @@
         <v>8</v>
       </c>
       <c r="I16" s="1">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J16" s="1"/>
       <c r="L16" s="5">
@@ -5202,7 +7188,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="1">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="J17" s="1"/>
       <c r="L17" s="5">
@@ -5225,7 +7211,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" s="5">
@@ -5248,7 +7234,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" s="5">
@@ -5271,7 +7257,7 @@
         <v>8</v>
       </c>
       <c r="I20" s="1">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="J20" s="1"/>
       <c r="L20" s="5">
@@ -5292,7 +7278,7 @@
         <v>8</v>
       </c>
       <c r="I21" s="1">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="5">
@@ -5313,7 +7299,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J22" s="1"/>
       <c r="L22" s="5">
@@ -5334,7 +7320,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="1">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J23" s="1"/>
       <c r="L23" s="5">
@@ -5355,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="J24" s="1"/>
       <c r="L24" s="5">
@@ -5376,7 +7362,7 @@
         <v>11</v>
       </c>
       <c r="I25" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="J25" s="1"/>
       <c r="L25" s="5">
@@ -5397,7 +7383,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J26" s="1"/>
       <c r="L26" s="5">
@@ -5418,7 +7404,7 @@
         <v>13</v>
       </c>
       <c r="I27" s="1">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J27" s="1"/>
       <c r="L27" s="5">
@@ -5439,7 +7425,7 @@
         <v>11</v>
       </c>
       <c r="I28" s="1">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="J28" s="1"/>
       <c r="L28" s="5">
@@ -5460,7 +7446,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="J29" s="1"/>
       <c r="L29" s="5">
@@ -5481,7 +7467,7 @@
         <v>6</v>
       </c>
       <c r="I30" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="J30" s="1"/>
       <c r="L30" s="5">
@@ -5502,7 +7488,7 @@
         <v>8</v>
       </c>
       <c r="I31" s="1">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="J31" s="1"/>
       <c r="L31" s="5">
@@ -5523,7 +7509,7 @@
         <v>9</v>
       </c>
       <c r="I32" s="1">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="J32" s="1"/>
       <c r="L32" s="5">
@@ -5543,10 +7529,6 @@
       <c r="C33" s="1">
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <v>300</v>
-      </c>
-      <c r="J33" s="1"/>
       <c r="L33" s="5">
         <v>300</v>
       </c>

--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Customer ID</t>
   </si>
@@ -126,12 +126,27 @@
   <si>
     <t>5 min Interval</t>
   </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>QZ</t>
+  </si>
+  <si>
+    <t>MTG</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Types 5:25pm - 6:25pm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +185,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,18 +269,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -284,44 +304,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="4" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -776,11 +809,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344619600"/>
-        <c:axId val="344620776"/>
+        <c:axId val="346040480"/>
+        <c:axId val="346040872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344619600"/>
+        <c:axId val="346040480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344620776"/>
+        <c:crossAx val="346040872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -817,7 +850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344620776"/>
+        <c:axId val="346040872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +879,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344619600"/>
+        <c:crossAx val="346040480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1015,11 +1048,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="382856368"/>
-        <c:axId val="388272256"/>
+        <c:axId val="346041656"/>
+        <c:axId val="346042048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="382856368"/>
+        <c:axId val="346041656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388272256"/>
+        <c:crossAx val="346042048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1056,7 +1089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="388272256"/>
+        <c:axId val="346042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="382856368"/>
+        <c:crossAx val="346041656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1218,11 +1251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="388270688"/>
-        <c:axId val="386197928"/>
+        <c:axId val="346042832"/>
+        <c:axId val="346043224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="388270688"/>
+        <c:axId val="346042832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="386197928"/>
+        <c:crossAx val="346043224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386197928"/>
+        <c:axId val="346043224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,7 +1321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="388270688"/>
+        <c:crossAx val="346042832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,11 +1603,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="347204736"/>
-        <c:axId val="347208656"/>
+        <c:axId val="346814632"/>
+        <c:axId val="346815024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="347204736"/>
+        <c:axId val="346814632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1603,7 +1636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347208656"/>
+        <c:crossAx val="346815024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1611,7 +1644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="347208656"/>
+        <c:axId val="346815024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347204736"/>
+        <c:crossAx val="346814632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,11 +1830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="349762680"/>
-        <c:axId val="349763072"/>
+        <c:axId val="346815808"/>
+        <c:axId val="346816200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349762680"/>
+        <c:axId val="346815808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349763072"/>
+        <c:crossAx val="346816200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1838,7 +1871,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349763072"/>
+        <c:axId val="346816200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1867,7 +1900,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349762680"/>
+        <c:crossAx val="346815808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2366,96 +2399,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:R141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
-    <col min="18" max="18" width="11.25" customWidth="1"/>
+    <col min="9" max="10" width="9" style="19"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="11.25" customWidth="1"/>
+    <col min="18" max="18" width="11.25" style="19" customWidth="1"/>
+    <col min="19" max="19" width="9" style="19"/>
+    <col min="20" max="20" width="10.375" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="T1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="25"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="L2" s="19" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="14"/>
+      <c r="K2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
       <c r="O2" s="19"/>
-      <c r="Q2" s="19" t="s">
+      <c r="P2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="19"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="Q2" s="16"/>
+      <c r="T2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="16"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="T3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2475,31 +2540,39 @@
         <f>D4-C4</f>
         <v>9</v>
       </c>
-      <c r="H4" s="1">
+      <c r="G4" s="17"/>
+      <c r="H4" s="12">
         <v>2</v>
       </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
       <c r="L4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N4">
-        <v>48</v>
-      </c>
-      <c r="O4">
-        <f>N4-M4</f>
+        <f>M4-L4</f>
         <v>21</v>
       </c>
+      <c r="O4" s="19"/>
+      <c r="P4">
+        <v>1</v>
+      </c>
       <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="T4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2519,31 +2592,40 @@
         <f t="shared" ref="F5:F37" si="1">D5-C5</f>
         <v>5</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
+      <c r="G5" s="17"/>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="N5">
-        <v>66</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O29" si="2">N5-M5</f>
+        <f t="shared" ref="N5:N29" si="2">M5-L5</f>
         <v>9</v>
       </c>
+      <c r="O5" s="19"/>
+      <c r="P5">
+        <v>1</v>
+      </c>
       <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="T5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5">
+        <f>SUM(U3:U4)</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2563,31 +2645,33 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
+      <c r="G6" s="17"/>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="N6">
-        <v>68</v>
-      </c>
-      <c r="O6">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="O6" s="19"/>
+      <c r="P6">
+        <v>1</v>
+      </c>
       <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2607,31 +2691,33 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M7">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="N7">
-        <v>255</v>
-      </c>
-      <c r="O7">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
+      <c r="O7" s="19"/>
+      <c r="P7">
+        <v>1</v>
+      </c>
       <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2651,31 +2737,33 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="G8" s="17"/>
+      <c r="H8" s="12">
         <v>2</v>
       </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
       <c r="L8">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="M8">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N8">
-        <v>86</v>
-      </c>
-      <c r="O8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="O8" s="19"/>
+      <c r="P8">
+        <v>1</v>
+      </c>
       <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2695,31 +2783,33 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="17"/>
+      <c r="H9" s="12">
         <v>3</v>
       </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
       <c r="L9">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="N9">
-        <v>50</v>
-      </c>
-      <c r="O9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="O9" s="19"/>
+      <c r="P9">
+        <v>3</v>
+      </c>
       <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10">
@@ -2739,31 +2829,33 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
+      <c r="G10" s="17"/>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="M10">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="N10">
-        <v>168</v>
-      </c>
-      <c r="O10">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="O10" s="19"/>
+      <c r="P10">
+        <v>2</v>
+      </c>
       <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2783,31 +2875,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="G11" s="17"/>
+      <c r="H11" s="12">
         <v>2</v>
       </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
       <c r="L11">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="N11">
-        <v>70</v>
-      </c>
-      <c r="O11">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="O11" s="19"/>
+      <c r="P11">
+        <v>2</v>
+      </c>
       <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>9</v>
       </c>
       <c r="B12">
@@ -2827,31 +2921,33 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="17"/>
+      <c r="H12" s="12">
         <v>2</v>
       </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
       <c r="L12">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>30</v>
-      </c>
-      <c r="O12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="O12" s="19"/>
+      <c r="P12">
+        <v>2</v>
+      </c>
       <c r="Q12">
-        <v>2</v>
-      </c>
-      <c r="R12">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
         <v>10</v>
       </c>
       <c r="B13">
@@ -2871,31 +2967,33 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H13" s="1">
-        <v>1</v>
+      <c r="G13" s="17"/>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N13">
-        <v>70</v>
-      </c>
-      <c r="O13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="26">
+        <v>1</v>
+      </c>
       <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="R13">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>11</v>
       </c>
       <c r="B14">
@@ -2915,31 +3013,33 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="17"/>
+      <c r="H14" s="12">
         <v>5</v>
       </c>
+      <c r="K14">
+        <v>11</v>
+      </c>
       <c r="L14">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N14">
-        <v>32</v>
-      </c>
-      <c r="O14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="O14" s="19"/>
+      <c r="P14">
+        <v>2</v>
+      </c>
       <c r="Q14">
-        <v>2</v>
-      </c>
-      <c r="R14">
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15">
@@ -2959,31 +3059,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="17"/>
+      <c r="H15" s="12">
         <v>2</v>
       </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
       <c r="L15">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="N15">
-        <v>60</v>
-      </c>
-      <c r="O15">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="O15" s="19"/>
+      <c r="P15">
+        <v>6</v>
+      </c>
       <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15">
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3003,31 +3105,33 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H16" s="1">
+      <c r="G16" s="17"/>
+      <c r="H16" s="12">
         <v>5</v>
       </c>
+      <c r="K16">
+        <v>13</v>
+      </c>
       <c r="L16">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M16">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="N16">
-        <v>136</v>
-      </c>
-      <c r="O16">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="O16" s="19"/>
+      <c r="P16">
+        <v>1</v>
+      </c>
       <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
         <v>14</v>
       </c>
       <c r="B17">
@@ -3047,31 +3151,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H17" s="1">
+      <c r="G17" s="17"/>
+      <c r="H17" s="12">
         <v>3</v>
       </c>
+      <c r="K17">
+        <v>14</v>
+      </c>
       <c r="L17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>23</v>
-      </c>
-      <c r="O17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="O17" s="19"/>
+      <c r="P17">
+        <v>1</v>
+      </c>
       <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>15</v>
       </c>
       <c r="B18">
@@ -3091,31 +3197,33 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="17"/>
+      <c r="H18" s="12">
         <v>2</v>
       </c>
+      <c r="K18">
+        <v>15</v>
+      </c>
       <c r="L18">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="N18">
-        <v>142</v>
-      </c>
-      <c r="O18">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
+      <c r="O18" s="19"/>
+      <c r="P18">
+        <v>2</v>
+      </c>
       <c r="Q18">
-        <v>2</v>
-      </c>
-      <c r="R18">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>16</v>
       </c>
       <c r="B19">
@@ -3135,31 +3243,33 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
+      <c r="G19" s="17"/>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>16</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="M19">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="N19">
-        <v>174</v>
-      </c>
-      <c r="O19">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="O19" s="19"/>
+      <c r="P19">
+        <v>1</v>
+      </c>
       <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
         <v>468</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3179,31 +3289,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="G20" s="17"/>
+      <c r="H20" s="12">
         <v>2</v>
       </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
       <c r="L20">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="N20">
-        <v>68</v>
-      </c>
-      <c r="O20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="O20" s="19"/>
+      <c r="P20">
+        <v>1</v>
+      </c>
       <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>18</v>
       </c>
       <c r="B21">
@@ -3223,31 +3335,33 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
+      <c r="G21" s="17"/>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
       </c>
       <c r="L21">
         <v>18</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="N21">
-        <v>28</v>
-      </c>
-      <c r="O21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="O21" s="19"/>
+      <c r="P21">
+        <v>5</v>
+      </c>
       <c r="Q21">
-        <v>5</v>
-      </c>
-      <c r="R21">
         <v>518</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>19</v>
       </c>
       <c r="B22">
@@ -3267,31 +3381,33 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
+      <c r="G22" s="17"/>
+      <c r="H22" s="12">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M22">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="N22">
-        <v>160</v>
-      </c>
-      <c r="O22">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="O22" s="19"/>
+      <c r="P22">
+        <v>6</v>
+      </c>
       <c r="Q22">
-        <v>6</v>
-      </c>
-      <c r="R22">
         <v>538</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>20</v>
       </c>
       <c r="B23">
@@ -3311,31 +3427,33 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H23" s="1">
+      <c r="G23" s="17"/>
+      <c r="H23" s="12">
         <v>3</v>
       </c>
+      <c r="K23">
+        <v>20</v>
+      </c>
       <c r="L23">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="M23">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="N23">
-        <v>103</v>
-      </c>
-      <c r="O23">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="O23" s="19"/>
+      <c r="P23">
+        <v>2</v>
+      </c>
       <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
         <v>619</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24">
@@ -3355,31 +3473,33 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H24" s="1">
-        <v>1</v>
+      <c r="G24" s="17"/>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>21</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N24">
-        <v>19</v>
-      </c>
-      <c r="O24">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="O24" s="19"/>
+      <c r="P24">
+        <v>1</v>
+      </c>
       <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
         <v>22</v>
       </c>
       <c r="B25">
@@ -3399,31 +3519,33 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H25" s="1">
+      <c r="G25" s="17"/>
+      <c r="H25" s="12">
         <v>2</v>
       </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
       <c r="L25">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="M25">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="N25">
-        <v>290</v>
-      </c>
-      <c r="O25">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
+      <c r="O25" s="19"/>
+      <c r="P25">
+        <v>1</v>
+      </c>
       <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
         <v>23</v>
       </c>
       <c r="B26">
@@ -3443,31 +3565,33 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H26" s="1">
+      <c r="G26" s="17"/>
+      <c r="H26" s="12">
         <v>4</v>
       </c>
+      <c r="K26">
+        <v>23</v>
+      </c>
       <c r="L26">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="M26">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="N26">
-        <v>139</v>
-      </c>
-      <c r="O26">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="O26" s="19"/>
+      <c r="P26">
+        <v>1</v>
+      </c>
       <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
         <v>736</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
         <v>24</v>
       </c>
       <c r="B27">
@@ -3487,31 +3611,33 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
+      <c r="G27" s="17"/>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>24</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="N27">
-        <v>89</v>
-      </c>
-      <c r="O27">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
+      <c r="O27" s="19"/>
+      <c r="P27">
+        <v>1</v>
+      </c>
       <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
         <v>766</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>25</v>
       </c>
       <c r="B28">
@@ -3531,31 +3657,33 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
+      <c r="G28" s="17"/>
+      <c r="H28" s="12">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="M28">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="N28">
-        <v>135</v>
-      </c>
-      <c r="O28">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="O28" s="19"/>
+      <c r="P28">
+        <v>3</v>
+      </c>
       <c r="Q28">
-        <v>3</v>
-      </c>
-      <c r="R28">
         <v>770</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>26</v>
       </c>
       <c r="B29">
@@ -3575,31 +3703,33 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H29" s="1">
+      <c r="G29" s="17"/>
+      <c r="H29" s="12">
         <v>2</v>
       </c>
+      <c r="K29">
+        <v>26</v>
+      </c>
       <c r="L29">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="M29">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N29">
-        <v>83</v>
-      </c>
-      <c r="O29">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="O29" s="19"/>
+      <c r="P29">
+        <v>2</v>
+      </c>
       <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29">
         <v>815</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
         <v>27</v>
       </c>
       <c r="B30">
@@ -3619,18 +3749,20 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H30" s="1">
+      <c r="G30" s="17"/>
+      <c r="H30" s="12">
         <v>4</v>
       </c>
+      <c r="O30" s="19"/>
+      <c r="P30">
+        <v>1</v>
+      </c>
       <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
         <v>980</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
         <v>28</v>
       </c>
       <c r="B31">
@@ -3650,18 +3782,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H31" s="1">
+      <c r="G31" s="17"/>
+      <c r="H31" s="12">
         <v>7</v>
       </c>
+      <c r="O31" s="19"/>
+      <c r="P31">
+        <v>3</v>
+      </c>
       <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
         <v>994</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
         <v>29</v>
       </c>
       <c r="B32">
@@ -3681,18 +3815,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H32" s="1">
+      <c r="G32" s="17"/>
+      <c r="H32" s="12">
         <v>2</v>
       </c>
+      <c r="O32" s="19"/>
+      <c r="P32">
+        <v>1</v>
+      </c>
       <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="R32">
         <v>997</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>30</v>
       </c>
       <c r="B33">
@@ -3712,18 +3848,20 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H33" s="1">
+      <c r="G33" s="17"/>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
         <v>1010</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
         <v>31</v>
       </c>
       <c r="B34">
@@ -3743,18 +3881,20 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H34" s="1">
+      <c r="G34" s="17"/>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
         <v>1060</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
         <v>32</v>
       </c>
       <c r="B35">
@@ -3774,18 +3914,20 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H35" s="1">
+      <c r="G35" s="17"/>
+      <c r="H35" s="12">
         <v>2</v>
       </c>
+      <c r="O35" s="19"/>
+      <c r="P35">
+        <v>1</v>
+      </c>
       <c r="Q35">
-        <v>1</v>
-      </c>
-      <c r="R35">
         <v>1114</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>33</v>
       </c>
       <c r="B36">
@@ -3805,18 +3947,20 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H36" s="1">
+      <c r="G36" s="17"/>
+      <c r="H36" s="12">
         <v>2</v>
       </c>
+      <c r="O36" s="19"/>
+      <c r="P36">
+        <v>1</v>
+      </c>
       <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
         <v>1157</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>34</v>
       </c>
       <c r="B37">
@@ -3836,896 +3980,1124 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H37" s="1">
+      <c r="G37" s="17"/>
+      <c r="H37" s="12">
         <v>3</v>
       </c>
+      <c r="O37" s="19"/>
+      <c r="P37">
+        <v>2</v>
+      </c>
       <c r="Q37">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G38" s="17"/>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
+      <c r="O38" s="19"/>
+      <c r="P38">
         <v>2</v>
       </c>
-      <c r="R37">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
       <c r="Q38">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="12">
+        <v>1</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39">
+        <v>3</v>
+      </c>
+      <c r="Q39">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="G40" s="17"/>
+      <c r="O40" s="19"/>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="G41" s="17"/>
+      <c r="O41" s="19"/>
+      <c r="P41">
         <v>2</v>
       </c>
-      <c r="R38">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q39">
+      <c r="Q41">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="G42" s="17"/>
+      <c r="O42" s="19"/>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="G43" s="17"/>
+      <c r="O43" s="19"/>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="G44" s="17"/>
+      <c r="O44" s="19"/>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="G45" s="17"/>
+      <c r="O45" s="19"/>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="G46" s="17"/>
+      <c r="O46" s="19"/>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="G47" s="17"/>
+      <c r="O47" s="19"/>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="G48" s="17"/>
+      <c r="O48" s="19"/>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="G49" s="17"/>
+      <c r="O49" s="19"/>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="G50" s="17"/>
+      <c r="O50" s="19"/>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="G51" s="17"/>
+      <c r="O51" s="19"/>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="G52" s="17"/>
+      <c r="O52" s="19"/>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="G53" s="17"/>
+      <c r="O53" s="19"/>
+      <c r="P53">
         <v>3</v>
       </c>
-      <c r="R39">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="Q41">
+      <c r="Q53">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="G54" s="17"/>
+      <c r="O54" s="19"/>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="G55" s="17"/>
+      <c r="O55" s="19"/>
+      <c r="P55">
         <v>2</v>
       </c>
-      <c r="R41">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="Q42">
+      <c r="Q55">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="G56" s="17"/>
+      <c r="O56" s="19"/>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="12"/>
+      <c r="G57" s="17"/>
+      <c r="O57" s="19"/>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="G58" s="17"/>
+      <c r="O58" s="19"/>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
+      <c r="G59" s="17"/>
+      <c r="O59" s="19"/>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
+      <c r="G60" s="17"/>
+      <c r="O60" s="19"/>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
+      <c r="G61" s="17"/>
+      <c r="O61" s="19"/>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="G62" s="17"/>
+      <c r="O62" s="19"/>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
+      <c r="G63" s="17"/>
+      <c r="O63" s="19"/>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
+      <c r="G64" s="17"/>
+      <c r="O64" s="19"/>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="G65" s="17"/>
+      <c r="O65" s="19"/>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="12"/>
+      <c r="G66" s="17"/>
+      <c r="O66" s="19"/>
+      <c r="P66">
         <v>2</v>
       </c>
-      <c r="R42">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="Q45">
+      <c r="Q66">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
+      <c r="G67" s="17"/>
+      <c r="O67" s="19"/>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
+      <c r="G68" s="17"/>
+      <c r="O68" s="19"/>
+      <c r="P68">
+        <v>3</v>
+      </c>
+      <c r="Q68">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="G69" s="17"/>
+      <c r="O69" s="19"/>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="G70" s="17"/>
+      <c r="O70" s="19"/>
+      <c r="P70">
         <v>2</v>
       </c>
-      <c r="R45">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="Q47">
-        <v>1</v>
-      </c>
-      <c r="R47">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="Q48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="Q49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="R50">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="R51">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="R52">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="Q53">
+      <c r="Q70">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="12"/>
+      <c r="G71" s="17"/>
+      <c r="O71" s="19"/>
+      <c r="P71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
+      <c r="G72" s="17"/>
+      <c r="O72" s="19"/>
+      <c r="P72">
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
+      <c r="G73" s="17"/>
+      <c r="O73" s="19"/>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
+      <c r="G74" s="17"/>
+      <c r="O74" s="19"/>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="12"/>
+      <c r="G75" s="17"/>
+      <c r="O75" s="19"/>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G76" s="17"/>
+      <c r="O76" s="19"/>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G77" s="17"/>
+      <c r="O77" s="19"/>
+      <c r="P77">
         <v>3</v>
       </c>
-      <c r="R53">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="R54">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="Q55">
+      <c r="Q77">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G78" s="17"/>
+      <c r="O78" s="19"/>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G79" s="17"/>
+      <c r="O79" s="19"/>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G80" s="17"/>
+      <c r="O80" s="19"/>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="81" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G81" s="17"/>
+      <c r="O81" s="19"/>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="82" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G82" s="17"/>
+      <c r="O82" s="19"/>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="83" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G83" s="17"/>
+      <c r="O83" s="19"/>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="84" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G84" s="17"/>
+      <c r="O84" s="19"/>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="85" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G85" s="17"/>
+      <c r="O85" s="19"/>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="86" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G86" s="17"/>
+      <c r="O86" s="19"/>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="87" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G87" s="17"/>
+      <c r="O87" s="19"/>
+      <c r="P87">
         <v>2</v>
       </c>
-      <c r="R55">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="Q57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="Q58">
-        <v>1</v>
-      </c>
-      <c r="R58">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="Q59">
-        <v>1</v>
-      </c>
-      <c r="R59">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="Q60">
-        <v>1</v>
-      </c>
-      <c r="R60">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-      <c r="R61">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="Q62">
-        <v>1</v>
-      </c>
-      <c r="R62">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="Q63">
-        <v>1</v>
-      </c>
-      <c r="R63">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-      <c r="Q65">
-        <v>1</v>
-      </c>
-      <c r="R65">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="Q66">
+      <c r="Q87">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="88" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G88" s="17"/>
+      <c r="O88" s="19"/>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="89" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G89" s="17"/>
+      <c r="O89" s="19"/>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="90" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G90" s="17"/>
+      <c r="O90" s="19"/>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="91" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G91" s="17"/>
+      <c r="O91" s="19"/>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="92" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G92" s="17"/>
+      <c r="O92" s="19"/>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="93" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G93" s="17"/>
+      <c r="O93" s="19"/>
+      <c r="P93">
         <v>2</v>
       </c>
-      <c r="R66">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-      <c r="R67">
-        <v>1911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="Q68">
+      <c r="Q93">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="94" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G94" s="17"/>
+      <c r="O94" s="19"/>
+      <c r="P94">
+        <v>2</v>
+      </c>
+      <c r="Q94">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="95" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G95" s="17"/>
+      <c r="O95" s="19"/>
+      <c r="P95">
+        <v>2</v>
+      </c>
+      <c r="Q95">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="96" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G96" s="17"/>
+      <c r="O96" s="19"/>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="97" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G97" s="17"/>
+      <c r="O97" s="19"/>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="98" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G98" s="17"/>
+      <c r="O98" s="19"/>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="99" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G99" s="17"/>
+      <c r="O99" s="19"/>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="100" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G100" s="17"/>
+      <c r="O100" s="19"/>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="101" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G101" s="17"/>
+      <c r="O101" s="19"/>
+      <c r="P101">
+        <v>2</v>
+      </c>
+      <c r="Q101">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="102" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G102" s="17"/>
+      <c r="O102" s="19"/>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="103" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G103" s="17"/>
+      <c r="O103" s="19"/>
+      <c r="P103">
+        <v>2</v>
+      </c>
+      <c r="Q103">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="104" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G104" s="17"/>
+      <c r="O104" s="19"/>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="105" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G105" s="17"/>
+      <c r="O105" s="19"/>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="106" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G106" s="17"/>
+      <c r="O106" s="19"/>
+      <c r="P106">
         <v>3</v>
       </c>
-      <c r="R68">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-      <c r="Q69">
-        <v>1</v>
-      </c>
-      <c r="R69">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="Q70">
+      <c r="Q106">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="107" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G107" s="17"/>
+      <c r="O107" s="19"/>
+      <c r="P107">
         <v>2</v>
       </c>
-      <c r="R70">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="Q71">
+      <c r="Q107">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="108" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G108" s="17"/>
+      <c r="O108" s="19"/>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="109" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G109" s="17"/>
+      <c r="O109" s="19"/>
+      <c r="P109">
         <v>2</v>
       </c>
-      <c r="R71">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="Q72">
-        <v>7</v>
-      </c>
-      <c r="R72">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="Q73">
-        <v>1</v>
-      </c>
-      <c r="R73">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="Q74">
-        <v>1</v>
-      </c>
-      <c r="R74">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="Q75">
-        <v>1</v>
-      </c>
-      <c r="R75">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q76">
-        <v>1</v>
-      </c>
-      <c r="R76">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q77">
-        <v>3</v>
-      </c>
-      <c r="R77">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q78">
-        <v>1</v>
-      </c>
-      <c r="R78">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q79">
-        <v>1</v>
-      </c>
-      <c r="R79">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q80">
-        <v>1</v>
-      </c>
-      <c r="R80">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="81" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q81">
-        <v>1</v>
-      </c>
-      <c r="R81">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="82" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q82">
-        <v>1</v>
-      </c>
-      <c r="R82">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="83" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q83">
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="84" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="85" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q85">
-        <v>1</v>
-      </c>
-      <c r="R85">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="86" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q86">
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="87" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q87">
+      <c r="Q109">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="110" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G110" s="17"/>
+      <c r="O110" s="19"/>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="111" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G111" s="17"/>
+      <c r="O111" s="19"/>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="112" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G112" s="17"/>
+      <c r="O112" s="19"/>
+      <c r="P112">
         <v>2</v>
       </c>
-      <c r="R87">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="88" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="89" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q89">
-        <v>1</v>
-      </c>
-      <c r="R89">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="90" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q90">
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>2578</v>
-      </c>
-    </row>
-    <row r="91" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q91">
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="92" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q92">
-        <v>1</v>
-      </c>
-      <c r="R92">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="93" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q93">
+      <c r="Q112">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="113" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G113" s="17"/>
+      <c r="O113" s="19"/>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="114" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G114" s="17"/>
+      <c r="O114" s="19"/>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="115" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G115" s="17"/>
+      <c r="O115" s="19"/>
+      <c r="P115">
         <v>2</v>
       </c>
-      <c r="R93">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="94" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q94">
+      <c r="Q115">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="116" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G116" s="17"/>
+      <c r="O116" s="19"/>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="117" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G117" s="17"/>
+      <c r="O117" s="19"/>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="118" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G118" s="17"/>
+      <c r="O118" s="19"/>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="119" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G119" s="17"/>
+      <c r="O119" s="19"/>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="120" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G120" s="17"/>
+      <c r="O120" s="19"/>
+      <c r="P120">
         <v>2</v>
       </c>
-      <c r="R94">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="95" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q95">
+      <c r="Q120">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="121" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G121" s="17"/>
+      <c r="O121" s="19"/>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="122" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G122" s="17"/>
+      <c r="O122" s="19"/>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="123" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G123" s="17"/>
+      <c r="O123" s="19"/>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="124" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G124" s="17"/>
+      <c r="O124" s="19"/>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="125" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G125" s="17"/>
+      <c r="O125" s="19"/>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="126" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G126" s="17"/>
+      <c r="O126" s="19"/>
+      <c r="P126">
         <v>2</v>
       </c>
-      <c r="R95">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="96" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q96">
-        <v>1</v>
-      </c>
-      <c r="R96">
-        <v>2818</v>
-      </c>
-    </row>
-    <row r="97" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q97">
-        <v>1</v>
-      </c>
-      <c r="R97">
-        <v>2866</v>
-      </c>
-    </row>
-    <row r="98" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q98">
-        <v>1</v>
-      </c>
-      <c r="R98">
-        <v>2867</v>
-      </c>
-    </row>
-    <row r="99" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q99">
-        <v>1</v>
-      </c>
-      <c r="R99">
-        <v>2910</v>
-      </c>
-    </row>
-    <row r="100" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q100">
-        <v>1</v>
-      </c>
-      <c r="R100">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="101" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q101">
+      <c r="Q126">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="127" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G127" s="17"/>
+      <c r="O127" s="19"/>
+      <c r="P127">
         <v>2</v>
       </c>
-      <c r="R101">
-        <v>2948</v>
-      </c>
-    </row>
-    <row r="102" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q102">
-        <v>1</v>
-      </c>
-      <c r="R102">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="103" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q103">
+      <c r="Q127">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="128" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G128" s="17"/>
+      <c r="O128" s="19"/>
+      <c r="P128">
         <v>2</v>
       </c>
-      <c r="R103">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="104" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="105" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q105">
-        <v>1</v>
-      </c>
-      <c r="R105">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="106" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q106">
-        <v>3</v>
-      </c>
-      <c r="R106">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="107" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q107">
+      <c r="Q128">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="129" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G129" s="17"/>
+      <c r="O129" s="19"/>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="130" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G130" s="17"/>
+      <c r="O130" s="19"/>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="131" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G131" s="17"/>
+      <c r="O131" s="19"/>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="132" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G132" s="17"/>
+      <c r="O132" s="19"/>
+      <c r="P132">
         <v>2</v>
       </c>
-      <c r="R107">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="108" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q108">
-        <v>1</v>
-      </c>
-      <c r="R108">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="109" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q109">
+      <c r="Q132">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="133" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G133" s="17"/>
+      <c r="O133" s="19"/>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="134" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G134" s="17"/>
+      <c r="O134" s="19"/>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="135" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G135" s="17"/>
+      <c r="O135" s="19"/>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="136" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G136" s="17"/>
+      <c r="O136" s="19"/>
+      <c r="P136">
         <v>2</v>
       </c>
-      <c r="R109">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="110" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q110">
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <v>3177</v>
-      </c>
-    </row>
-    <row r="111" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q111">
-        <v>1</v>
-      </c>
-      <c r="R111">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="112" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q112">
+      <c r="Q136">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="137" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G137" s="17"/>
+      <c r="O137" s="19"/>
+      <c r="P137">
         <v>2</v>
       </c>
-      <c r="R112">
-        <v>3181</v>
-      </c>
-    </row>
-    <row r="113" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q113">
-        <v>1</v>
-      </c>
-      <c r="R113">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="114" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q114">
-        <v>1</v>
-      </c>
-      <c r="R114">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="115" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q115">
+      <c r="Q137">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="138" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G138" s="17"/>
+      <c r="O138" s="19"/>
+      <c r="P138">
+        <v>4</v>
+      </c>
+      <c r="Q138">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="139" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G139" s="17"/>
+      <c r="O139" s="19"/>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="140" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G140" s="17"/>
+      <c r="O140" s="19"/>
+      <c r="P140">
         <v>2</v>
       </c>
-      <c r="R115">
-        <v>3208</v>
-      </c>
-    </row>
-    <row r="116" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q116">
-        <v>1</v>
-      </c>
-      <c r="R116">
-        <v>3214</v>
-      </c>
-    </row>
-    <row r="117" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q117">
-        <v>1</v>
-      </c>
-      <c r="R117">
-        <v>3215</v>
-      </c>
-    </row>
-    <row r="118" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q118">
-        <v>1</v>
-      </c>
-      <c r="R118">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="119" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q119">
-        <v>1</v>
-      </c>
-      <c r="R119">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="120" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q120">
-        <v>2</v>
-      </c>
-      <c r="R120">
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="121" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q121">
-        <v>1</v>
-      </c>
-      <c r="R121">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="122" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q122">
-        <v>1</v>
-      </c>
-      <c r="R122">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="123" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q123">
-        <v>1</v>
-      </c>
-      <c r="R123">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="124" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q124">
-        <v>1</v>
-      </c>
-      <c r="R124">
-        <v>3311</v>
-      </c>
-    </row>
-    <row r="125" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q125">
-        <v>1</v>
-      </c>
-      <c r="R125">
-        <v>3340</v>
-      </c>
-    </row>
-    <row r="126" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q126">
-        <v>2</v>
-      </c>
-      <c r="R126">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="127" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q127">
-        <v>2</v>
-      </c>
-      <c r="R127">
-        <v>3352</v>
-      </c>
-    </row>
-    <row r="128" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q128">
-        <v>2</v>
-      </c>
-      <c r="R128">
-        <v>3358</v>
-      </c>
-    </row>
-    <row r="129" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q129">
-        <v>1</v>
-      </c>
-      <c r="R129">
-        <v>3361</v>
-      </c>
-    </row>
-    <row r="130" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q130">
-        <v>1</v>
-      </c>
-      <c r="R130">
-        <v>3380</v>
-      </c>
-    </row>
-    <row r="131" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q131">
-        <v>1</v>
-      </c>
-      <c r="R131">
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="132" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q132">
-        <v>2</v>
-      </c>
-      <c r="R132">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="133" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q133">
-        <v>1</v>
-      </c>
-      <c r="R133">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="134" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q134">
-        <v>1</v>
-      </c>
-      <c r="R134">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="135" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q135">
-        <v>1</v>
-      </c>
-      <c r="R135">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="136" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q136">
-        <v>2</v>
-      </c>
-      <c r="R136">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="137" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q137">
-        <v>2</v>
-      </c>
-      <c r="R137">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="138" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q138">
-        <v>4</v>
-      </c>
-      <c r="R138">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="139" spans="17:18" x14ac:dyDescent="0.25">
-      <c r="Q139">
-        <v>1</v>
-      </c>
-      <c r="R139">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="140" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q140">
-        <v>2</v>
-      </c>
-      <c r="R140">
         <v>3560</v>
       </c>
     </row>
-    <row r="141" spans="17:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G141" s="17"/>
+      <c r="O141" s="19"/>
+      <c r="P141">
+        <v>1</v>
+      </c>
       <c r="Q141">
-        <v>1</v>
-      </c>
-      <c r="R141">
         <v>3573</v>
       </c>
     </row>
+    <row r="142" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G142" s="17"/>
+      <c r="O142" s="19"/>
+    </row>
+    <row r="143" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G143" s="17"/>
+      <c r="O143" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="13">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G2:G143"/>
+    <mergeCell ref="I1:I1048576"/>
+    <mergeCell ref="J1:J1048576"/>
+    <mergeCell ref="O2:O143"/>
+    <mergeCell ref="S1:S1048576"/>
+    <mergeCell ref="R1:R1048576"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4736,30 +5108,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="18" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="18" customWidth="1"/>
     <col min="6" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="19" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="20"/>
       <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
@@ -4778,43 +5150,43 @@
       <c r="A2" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <f>AVERAGE(K4:K63)</f>
         <v>3.5166666666666666</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <f>AVERAGE(M4:M15)</f>
         <v>17.583333333333332</v>
       </c>
@@ -4827,22 +5199,22 @@
       <c r="H3" s="1">
         <v>600</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4850,10 +5222,10 @@
       <c r="A4" s="1">
         <v>63</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>AVERAGE(O4:O9)</f>
         <v>35.166666666666664</v>
       </c>
@@ -4866,22 +5238,22 @@
       <c r="H4" s="1">
         <v>1200</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>60</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>300</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>17</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>600</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>40</v>
       </c>
     </row>
@@ -4898,22 +5270,22 @@
       <c r="H5" s="1">
         <v>1800</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>120</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>6</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>600</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>23</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>1200</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>22</v>
       </c>
     </row>
@@ -4930,22 +5302,22 @@
       <c r="H6" s="1">
         <v>2400</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>180</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>900</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>11</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>1800</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>30</v>
       </c>
     </row>
@@ -4962,22 +5334,22 @@
       <c r="H7" s="1">
         <v>3000</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>240</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>1200</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <v>11</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>2400</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>37</v>
       </c>
     </row>
@@ -4994,22 +5366,22 @@
       <c r="H8" s="1">
         <v>3600</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>300</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>1500</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>15</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>3000</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>28</v>
       </c>
     </row>
@@ -5023,22 +5395,22 @@
       <c r="G9" s="1">
         <v>2100</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>360</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>1800</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>15</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>3600</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>54</v>
       </c>
     </row>
@@ -5052,22 +5424,22 @@
       <c r="G10" s="1">
         <v>2400</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>420</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>2100</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>25</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5081,16 +5453,16 @@
       <c r="G11" s="1">
         <v>2700</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>480</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>4</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>2400</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>12</v>
       </c>
     </row>
@@ -5104,16 +5476,16 @@
       <c r="G12" s="1">
         <v>3000</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>540</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>9</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>2700</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>10</v>
       </c>
     </row>
@@ -5127,16 +5499,16 @@
       <c r="G13" s="1">
         <v>3300</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>600</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <v>3</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>3000</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>18</v>
       </c>
     </row>
@@ -5150,16 +5522,16 @@
       <c r="G14" s="1">
         <v>3600</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>660</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>4</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>3300</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>25</v>
       </c>
     </row>
@@ -5170,16 +5542,16 @@
       <c r="F15" s="1">
         <v>780</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>720</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>0</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>3600</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>29</v>
       </c>
     </row>
@@ -5190,16 +5562,16 @@
       <c r="F16" s="1">
         <v>840</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>780</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>5</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>0</v>
       </c>
     </row>
@@ -5210,13 +5582,13 @@
       <c r="F17" s="1">
         <v>900</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>840</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <v>2</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -5225,13 +5597,13 @@
       <c r="F18" s="1">
         <v>960</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>900</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>0</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -5240,13 +5612,13 @@
       <c r="F19" s="1">
         <v>1020</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>960</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <v>0</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -5255,13 +5627,13 @@
       <c r="F20" s="1">
         <v>1080</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>1020</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>6</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5270,13 +5642,13 @@
       <c r="F21" s="1">
         <v>1140</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>1080</v>
       </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6"/>
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -5285,13 +5657,13 @@
       <c r="F22" s="1">
         <v>1200</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>1140</v>
       </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6"/>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -5300,13 +5672,13 @@
       <c r="F23" s="1">
         <v>1260</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>1200</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>3</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -5315,13 +5687,13 @@
       <c r="F24" s="1">
         <v>1320</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>1260</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>2</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -5330,13 +5702,13 @@
       <c r="F25" s="1">
         <v>1380</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>1320</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>4</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5345,13 +5717,13 @@
       <c r="F26" s="1">
         <v>1440</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1380</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <v>5</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -5360,13 +5732,13 @@
       <c r="F27" s="1">
         <v>1500</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>1440</v>
       </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6"/>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -5375,13 +5747,13 @@
       <c r="F28" s="1">
         <v>1560</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>1500</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>3</v>
       </c>
-      <c r="L28" s="6"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -5390,13 +5762,13 @@
       <c r="F29" s="1">
         <v>1620</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>1560</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>2</v>
       </c>
-      <c r="L29" s="6"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -5405,13 +5777,13 @@
       <c r="F30" s="1">
         <v>1680</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>1620</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>4</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -5420,13 +5792,13 @@
       <c r="F31" s="1">
         <v>1740</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>1680</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>3</v>
       </c>
-      <c r="L31" s="6"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -5435,13 +5807,13 @@
       <c r="F32" s="1">
         <v>1800</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>1740</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>4</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="5"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -5450,13 +5822,13 @@
       <c r="F33" s="1">
         <v>1860</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>1800</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>2</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="5"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -5465,13 +5837,13 @@
       <c r="F34" s="1">
         <v>1920</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>1860</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>5</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="5"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -5480,13 +5852,13 @@
       <c r="F35" s="1">
         <v>1980</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>1920</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>5</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="5"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -5495,13 +5867,13 @@
       <c r="F36" s="1">
         <v>2040</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>1980</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <v>3</v>
       </c>
-      <c r="L36" s="6"/>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -5510,13 +5882,13 @@
       <c r="F37" s="1">
         <v>2100</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>2040</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>2</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="5"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -5525,13 +5897,13 @@
       <c r="F38" s="1">
         <v>2160</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>2100</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>10</v>
       </c>
-      <c r="L38" s="6"/>
+      <c r="L38" s="5"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -5540,13 +5912,13 @@
       <c r="F39" s="1">
         <v>2220</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>2160</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>3</v>
       </c>
-      <c r="L39" s="6"/>
+      <c r="L39" s="5"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -5555,13 +5927,13 @@
       <c r="F40" s="1">
         <v>2280</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>2220</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <v>3</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="5"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -5570,13 +5942,13 @@
       <c r="F41" s="1">
         <v>2340</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="4">
         <v>2280</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>0</v>
       </c>
-      <c r="L41" s="6"/>
+      <c r="L41" s="5"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -5585,13 +5957,13 @@
       <c r="F42" s="1">
         <v>2400</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="4">
         <v>2340</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>5</v>
       </c>
-      <c r="L42" s="6"/>
+      <c r="L42" s="5"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -5600,13 +5972,13 @@
       <c r="F43" s="1">
         <v>2460</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="4">
         <v>2400</v>
       </c>
-      <c r="K43" s="6">
-        <v>1</v>
-      </c>
-      <c r="L43" s="6"/>
+      <c r="K43" s="5">
+        <v>1</v>
+      </c>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -5615,13 +5987,13 @@
       <c r="F44" s="1">
         <v>2520</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>2460</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>2</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="5"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -5630,13 +6002,13 @@
       <c r="F45" s="1">
         <v>2580</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>2520</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>4</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -5645,13 +6017,13 @@
       <c r="F46" s="1">
         <v>2640</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="4">
         <v>2580</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>2</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -5660,13 +6032,13 @@
       <c r="F47" s="1">
         <v>2700</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>2640</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>0</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="5"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -5675,13 +6047,13 @@
       <c r="F48" s="1">
         <v>2760</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>2700</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>2</v>
       </c>
-      <c r="L48" s="6"/>
+      <c r="L48" s="5"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -5690,13 +6062,13 @@
       <c r="F49" s="1">
         <v>2820</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>2760</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>5</v>
       </c>
-      <c r="L49" s="6"/>
+      <c r="L49" s="5"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -5705,13 +6077,13 @@
       <c r="F50" s="1">
         <v>2880</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" s="4">
         <v>2820</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>2</v>
       </c>
-      <c r="L50" s="6"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -5720,13 +6092,13 @@
       <c r="F51" s="1">
         <v>2940</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>2880</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>2</v>
       </c>
-      <c r="L51" s="6"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -5735,13 +6107,13 @@
       <c r="F52" s="1">
         <v>3000</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>2940</v>
       </c>
-      <c r="K52" s="6">
-        <v>1</v>
-      </c>
-      <c r="L52" s="6"/>
+      <c r="K52" s="5">
+        <v>1</v>
+      </c>
+      <c r="L52" s="5"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -5750,13 +6122,13 @@
       <c r="F53" s="1">
         <v>3060</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>3000</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>8</v>
       </c>
-      <c r="L53" s="6"/>
+      <c r="L53" s="5"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
@@ -5765,13 +6137,13 @@
       <c r="F54" s="1">
         <v>3120</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>3060</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>6</v>
       </c>
-      <c r="L54" s="6"/>
+      <c r="L54" s="5"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
@@ -5780,13 +6152,13 @@
       <c r="F55" s="1">
         <v>3180</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>3120</v>
       </c>
-      <c r="K55" s="6">
-        <v>1</v>
-      </c>
-      <c r="L55" s="6"/>
+      <c r="K55" s="5">
+        <v>1</v>
+      </c>
+      <c r="L55" s="5"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
@@ -5795,13 +6167,13 @@
       <c r="F56" s="1">
         <v>3240</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>3180</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>4</v>
       </c>
-      <c r="L56" s="6"/>
+      <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
@@ -5810,13 +6182,13 @@
       <c r="F57" s="1">
         <v>3300</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>3240</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>10</v>
       </c>
-      <c r="L57" s="6"/>
+      <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -5825,13 +6197,13 @@
       <c r="F58" s="1">
         <v>3360</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>3300</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>4</v>
       </c>
-      <c r="L58" s="6"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
@@ -5840,13 +6212,13 @@
       <c r="F59" s="1">
         <v>3420</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>3360</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <v>9</v>
       </c>
-      <c r="L59" s="6"/>
+      <c r="L59" s="5"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
@@ -5855,13 +6227,13 @@
       <c r="F60" s="1">
         <v>3480</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" s="4">
         <v>3420</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>3</v>
       </c>
-      <c r="L60" s="6"/>
+      <c r="L60" s="5"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
@@ -5870,13 +6242,13 @@
       <c r="F61" s="1">
         <v>3540</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>3480</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>3</v>
       </c>
-      <c r="L61" s="6"/>
+      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -5885,34 +6257,34 @@
       <c r="F62" s="1">
         <v>3600</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>3540</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>6</v>
       </c>
-      <c r="L62" s="6"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>1186</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>3600</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>8</v>
       </c>
-      <c r="L63" s="7"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1259</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <v>0</v>
       </c>
     </row>
@@ -6686,42 +7058,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13"/>
+    <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="19"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="13"/>
+    <col min="8" max="8" width="9" style="19"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="13"/>
+    <col min="11" max="11" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="15" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="I1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="L1" s="15" t="s">
+      <c r="J1" s="23"/>
+      <c r="L1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -6733,26 +7105,26 @@
       <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16"/>
+      <c r="O2" s="22"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -6764,14 +7136,14 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f>AVERAGE(B2:B61)</f>
         <v>97.783333333333331</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
@@ -6781,16 +7153,16 @@
       <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -6804,7 +7176,7 @@
       <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -6821,16 +7193,16 @@
       <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>10</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <v>5</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>7</v>
       </c>
     </row>
@@ -6844,7 +7216,7 @@
       <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -6861,16 +7233,16 @@
       <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>20</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>10</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>20</v>
       </c>
     </row>
@@ -6890,16 +7262,16 @@
       <c r="J6" s="1">
         <v>20</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>30</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>6</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>15</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>12</v>
       </c>
     </row>
@@ -6919,16 +7291,16 @@
       <c r="J7" s="1">
         <v>25</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>40</v>
       </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <v>20</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>10</v>
       </c>
     </row>
@@ -6948,16 +7320,16 @@
       <c r="J8" s="1">
         <v>30</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>50</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>6</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>25</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>2</v>
       </c>
     </row>
@@ -6977,16 +7349,16 @@
       <c r="J9" s="1">
         <v>35</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>60</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>7</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>30</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>3</v>
       </c>
     </row>
@@ -7006,16 +7378,16 @@
       <c r="J10" s="1">
         <v>40</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>70</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>35</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7035,16 +7407,16 @@
       <c r="J11" s="1">
         <v>45</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>80</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>3</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>40</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7064,16 +7436,16 @@
       <c r="J12" s="1">
         <v>50</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>90</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <v>2</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>45</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>2</v>
       </c>
     </row>
@@ -7091,16 +7463,16 @@
         <v>110</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>100</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="5">
         <v>4</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>50</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7118,16 +7490,16 @@
         <v>120</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>110</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <v>4</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7145,14 +7517,14 @@
         <v>130</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>120</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <v>6</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -7168,14 +7540,14 @@
         <v>140</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>130</v>
       </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -7191,14 +7563,14 @@
         <v>150</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>140</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="5">
         <v>2</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -7214,14 +7586,14 @@
         <v>160</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>150</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>3</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -7237,14 +7609,14 @@
         <v>170</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>160</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>3</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -7260,10 +7632,10 @@
         <v>180</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>170</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7281,10 +7653,10 @@
         <v>190</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>180</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7302,10 +7674,10 @@
         <v>200</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>190</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7323,10 +7695,10 @@
         <v>210</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>200</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7344,10 +7716,10 @@
         <v>220</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>210</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7365,10 +7737,10 @@
         <v>230</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>220</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7386,10 +7758,10 @@
         <v>240</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>230</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7407,10 +7779,10 @@
         <v>250</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <v>240</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7428,10 +7800,10 @@
         <v>260</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="L28" s="5">
+      <c r="L28" s="4">
         <v>250</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7449,10 +7821,10 @@
         <v>270</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="L29" s="5">
+      <c r="L29" s="4">
         <v>260</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7470,10 +7842,10 @@
         <v>280</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="L30" s="5">
+      <c r="L30" s="4">
         <v>270</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7491,10 +7863,10 @@
         <v>290</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="L31" s="5">
+      <c r="L31" s="4">
         <v>280</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7512,10 +7884,10 @@
         <v>300</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="L32" s="5">
+      <c r="L32" s="4">
         <v>290</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7529,10 +7901,10 @@
       <c r="C33" s="1">
         <v>22</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>300</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7546,10 +7918,10 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7563,8 +7935,8 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -7576,8 +7948,8 @@
       <c r="C36" s="1">
         <v>21</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="6"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -7589,8 +7961,8 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="6"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -7602,8 +7974,8 @@
       <c r="C38" s="1">
         <v>19</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="6"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -7615,8 +7987,8 @@
       <c r="C39" s="1">
         <v>76</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -7628,8 +8000,8 @@
       <c r="C40" s="1">
         <v>11</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -7641,8 +8013,8 @@
       <c r="C41" s="1">
         <v>7</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="6"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -7654,8 +8026,8 @@
       <c r="C42" s="1">
         <v>16</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="6"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -7667,8 +8039,8 @@
       <c r="C43" s="1">
         <v>16</v>
       </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="6"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -7680,8 +8052,8 @@
       <c r="C44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -7693,8 +8065,8 @@
       <c r="C45" s="1">
         <v>20</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="6"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
@@ -7706,8 +8078,8 @@
       <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="6"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -7719,8 +8091,8 @@
       <c r="C47" s="1">
         <v>27</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="6"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -7732,8 +8104,8 @@
       <c r="C48" s="1">
         <v>18</v>
       </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="6"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -7745,8 +8117,8 @@
       <c r="C49" s="1">
         <v>15</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="6"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -7758,8 +8130,8 @@
       <c r="C50" s="1">
         <v>37</v>
       </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="6"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
@@ -7771,8 +8143,8 @@
       <c r="C51" s="1">
         <v>41</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="6"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
@@ -7784,8 +8156,8 @@
       <c r="C52" s="1">
         <v>18</v>
       </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="6"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
@@ -7797,8 +8169,8 @@
       <c r="C53" s="1">
         <v>10</v>
       </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="6"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">

--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Arrival Rate Analysis" sheetId="4" r:id="rId2"/>
-    <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId2"/>
+    <sheet name="Arrival Rate Analysis" sheetId="4" r:id="rId3"/>
+    <sheet name="Goodness Fit Tests" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Customer ID</t>
   </si>
@@ -94,9 +95,6 @@
     <t>Arrival Time</t>
   </si>
   <si>
-    <t>Sec</t>
-  </si>
-  <si>
     <t># Customers</t>
   </si>
   <si>
@@ -107,9 +105,6 @@
   </si>
   <si>
     <t>10 min</t>
-  </si>
-  <si>
-    <t>10min</t>
   </si>
   <si>
     <t>Avg rate / 10min</t>
@@ -141,12 +136,94 @@
   <si>
     <t>Types 5:25pm - 6:25pm</t>
   </si>
+  <si>
+    <t>10 min Interval</t>
+  </si>
+  <si>
+    <t>Arrivals</t>
+  </si>
+  <si>
+    <t>Observed Frequency</t>
+  </si>
+  <si>
+    <t>Estimated Frequency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Adjusted O</t>
+  </si>
+  <si>
+    <t>Adjusted E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+  </si>
+  <si>
+    <t>≥ 6</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Binned Arrivals</t>
+  </si>
+  <si>
+    <t>P(X), λ = 3.5</t>
+  </si>
+  <si>
+    <t>(O - E)2 / E</t>
+  </si>
+  <si>
+    <t>Arrival Rate: Chi-Squared Test for a Poisson Distribution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +270,27 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,15 +366,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -318,14 +428,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,19 +467,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="4" builtinId="15"/>
+    <cellStyle name="Total" xfId="5" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -370,6 +511,484 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Queue Service Time (QZ)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QST &amp; CST Analysis'!$L$4:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QST &amp; CST Analysis'!$M$4:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="349274520"/>
+        <c:axId val="349273736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349274520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="349273736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="349273736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="349274520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Casier Service Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QST &amp; CST Analysis'!$N$4:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QST &amp; CST Analysis'!$O$4:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="344877128"/>
+        <c:axId val="344876736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="344877128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344876736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344876736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="344877128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -809,11 +1428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346040480"/>
-        <c:axId val="346040872"/>
+        <c:axId val="344205008"/>
+        <c:axId val="344205400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346040480"/>
+        <c:axId val="344205008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +1461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346040872"/>
+        <c:crossAx val="344205400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +1469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346040872"/>
+        <c:axId val="344205400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,7 +1498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346040480"/>
+        <c:crossAx val="344205008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -896,7 +1515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1048,11 +1667,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346041656"/>
-        <c:axId val="346042048"/>
+        <c:axId val="344206184"/>
+        <c:axId val="344206576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346041656"/>
+        <c:axId val="344206184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346042048"/>
+        <c:crossAx val="344206576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1089,7 +1708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346042048"/>
+        <c:axId val="344206576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1118,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346041656"/>
+        <c:crossAx val="344206184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,7 +1754,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1251,11 +1870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="346042832"/>
-        <c:axId val="346043224"/>
+        <c:axId val="344207360"/>
+        <c:axId val="344207752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="346042832"/>
+        <c:axId val="344207360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346043224"/>
+        <c:crossAx val="344207752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346043224"/>
+        <c:axId val="344207752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,586 +1940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346042832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Queue Service</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time (QZ)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'QST &amp; CST Analysis'!$L$4:$L$34</c:f>
-              <c:strCache>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'QST &amp; CST Analysis'!$M$4:$M$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="346814632"/>
-        <c:axId val="346815024"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="346814632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346815024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="346815024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346814632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cashier Service Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'QST &amp; CST Analysis'!$N$4:$N$14</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'QST &amp; CST Analysis'!$O$4:$O$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="346815808"/>
-        <c:axId val="346816200"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="346815808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346816200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="346816200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="346815808"/>
+        <c:crossAx val="344207360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1918,6 +1958,71 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2004,71 +2109,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2401,74 +2441,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="19"/>
+    <col min="9" max="10" width="9" style="23"/>
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="19" customWidth="1"/>
-    <col min="19" max="19" width="9" style="19"/>
+    <col min="18" max="18" width="11.25" style="23" customWidth="1"/>
+    <col min="19" max="19" width="9" style="23"/>
     <col min="20" max="20" width="10.375" customWidth="1"/>
     <col min="21" max="21" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="K1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="T1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="25"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="T1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="14"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="16" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="T2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="16"/>
+      <c r="Q2" s="21"/>
+      <c r="T2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -2489,7 +2529,7 @@
       <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="13" t="s">
         <v>4</v>
       </c>
@@ -2505,15 +2545,15 @@
       <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="19"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="U3">
         <v>77</v>
@@ -2540,7 +2580,7 @@
         <f>D4-C4</f>
         <v>9</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="12">
         <v>2</v>
       </c>
@@ -2557,7 +2597,7 @@
         <f>M4-L4</f>
         <v>21</v>
       </c>
-      <c r="O4" s="19"/>
+      <c r="O4" s="23"/>
       <c r="P4">
         <v>1</v>
       </c>
@@ -2565,7 +2605,7 @@
         <v>7</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U4">
         <v>34</v>
@@ -2592,7 +2632,7 @@
         <f t="shared" ref="F5:F37" si="1">D5-C5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="12">
         <v>1</v>
       </c>
@@ -2609,7 +2649,7 @@
         <f t="shared" ref="N5:N29" si="2">M5-L5</f>
         <v>9</v>
       </c>
-      <c r="O5" s="19"/>
+      <c r="O5" s="23"/>
       <c r="P5">
         <v>1</v>
       </c>
@@ -2617,7 +2657,7 @@
         <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U5">
         <f>SUM(U3:U4)</f>
@@ -2645,7 +2685,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="12">
         <v>1</v>
       </c>
@@ -2662,7 +2702,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O6" s="19"/>
+      <c r="O6" s="23"/>
       <c r="P6">
         <v>1</v>
       </c>
@@ -2691,7 +2731,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="12">
         <v>1</v>
       </c>
@@ -2708,7 +2748,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="O7" s="19"/>
+      <c r="O7" s="23"/>
       <c r="P7">
         <v>1</v>
       </c>
@@ -2737,7 +2777,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="12">
         <v>2</v>
       </c>
@@ -2754,7 +2794,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O8" s="19"/>
+      <c r="O8" s="23"/>
       <c r="P8">
         <v>1</v>
       </c>
@@ -2783,7 +2823,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="12">
         <v>3</v>
       </c>
@@ -2800,7 +2840,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="23"/>
       <c r="P9">
         <v>3</v>
       </c>
@@ -2829,7 +2869,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="12">
         <v>1</v>
       </c>
@@ -2846,7 +2886,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="23"/>
       <c r="P10">
         <v>2</v>
       </c>
@@ -2875,7 +2915,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="17"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="12">
         <v>2</v>
       </c>
@@ -2892,7 +2932,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="23"/>
       <c r="P11">
         <v>2</v>
       </c>
@@ -2921,7 +2961,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="12">
         <v>2</v>
       </c>
@@ -2938,7 +2978,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="23"/>
       <c r="P12">
         <v>2</v>
       </c>
@@ -2967,7 +3007,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="12">
         <v>1</v>
       </c>
@@ -2984,8 +3024,8 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O13" s="19"/>
-      <c r="P13" s="26">
+      <c r="O13" s="23"/>
+      <c r="P13" s="19">
         <v>1</v>
       </c>
       <c r="Q13">
@@ -3013,7 +3053,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="12">
         <v>5</v>
       </c>
@@ -3030,7 +3070,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O14" s="19"/>
+      <c r="O14" s="23"/>
       <c r="P14">
         <v>2</v>
       </c>
@@ -3059,7 +3099,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="12">
         <v>2</v>
       </c>
@@ -3076,7 +3116,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O15" s="19"/>
+      <c r="O15" s="23"/>
       <c r="P15">
         <v>6</v>
       </c>
@@ -3105,7 +3145,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="12">
         <v>5</v>
       </c>
@@ -3122,7 +3162,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O16" s="19"/>
+      <c r="O16" s="23"/>
       <c r="P16">
         <v>1</v>
       </c>
@@ -3151,7 +3191,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="12">
         <v>3</v>
       </c>
@@ -3168,7 +3208,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O17" s="19"/>
+      <c r="O17" s="23"/>
       <c r="P17">
         <v>1</v>
       </c>
@@ -3197,7 +3237,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="12">
         <v>2</v>
       </c>
@@ -3214,7 +3254,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="O18" s="19"/>
+      <c r="O18" s="23"/>
       <c r="P18">
         <v>2</v>
       </c>
@@ -3243,7 +3283,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="12">
         <v>1</v>
       </c>
@@ -3260,7 +3300,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="O19" s="19"/>
+      <c r="O19" s="23"/>
       <c r="P19">
         <v>1</v>
       </c>
@@ -3289,7 +3329,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="12">
         <v>2</v>
       </c>
@@ -3306,7 +3346,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O20" s="19"/>
+      <c r="O20" s="23"/>
       <c r="P20">
         <v>1</v>
       </c>
@@ -3335,7 +3375,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G21" s="17"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="12">
         <v>1</v>
       </c>
@@ -3352,7 +3392,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O21" s="19"/>
+      <c r="O21" s="23"/>
       <c r="P21">
         <v>5</v>
       </c>
@@ -3381,7 +3421,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="12">
         <v>1</v>
       </c>
@@ -3398,7 +3438,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O22" s="19"/>
+      <c r="O22" s="23"/>
       <c r="P22">
         <v>6</v>
       </c>
@@ -3427,7 +3467,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="12">
         <v>3</v>
       </c>
@@ -3444,7 +3484,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O23" s="19"/>
+      <c r="O23" s="23"/>
       <c r="P23">
         <v>2</v>
       </c>
@@ -3473,7 +3513,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="12">
         <v>1</v>
       </c>
@@ -3490,7 +3530,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O24" s="19"/>
+      <c r="O24" s="23"/>
       <c r="P24">
         <v>1</v>
       </c>
@@ -3519,7 +3559,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="12">
         <v>2</v>
       </c>
@@ -3536,7 +3576,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O25" s="19"/>
+      <c r="O25" s="23"/>
       <c r="P25">
         <v>1</v>
       </c>
@@ -3565,7 +3605,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="12">
         <v>4</v>
       </c>
@@ -3582,7 +3622,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O26" s="19"/>
+      <c r="O26" s="23"/>
       <c r="P26">
         <v>1</v>
       </c>
@@ -3611,7 +3651,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="12">
         <v>1</v>
       </c>
@@ -3628,7 +3668,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O27" s="19"/>
+      <c r="O27" s="23"/>
       <c r="P27">
         <v>1</v>
       </c>
@@ -3657,7 +3697,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="12">
         <v>1</v>
       </c>
@@ -3674,7 +3714,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O28" s="19"/>
+      <c r="O28" s="23"/>
       <c r="P28">
         <v>3</v>
       </c>
@@ -3703,7 +3743,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="12">
         <v>2</v>
       </c>
@@ -3720,7 +3760,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O29" s="19"/>
+      <c r="O29" s="23"/>
       <c r="P29">
         <v>2</v>
       </c>
@@ -3749,11 +3789,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="12">
         <v>4</v>
       </c>
-      <c r="O30" s="19"/>
+      <c r="O30" s="23"/>
       <c r="P30">
         <v>1</v>
       </c>
@@ -3782,11 +3822,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="12">
         <v>7</v>
       </c>
-      <c r="O31" s="19"/>
+      <c r="O31" s="23"/>
       <c r="P31">
         <v>3</v>
       </c>
@@ -3815,11 +3855,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="12">
         <v>2</v>
       </c>
-      <c r="O32" s="19"/>
+      <c r="O32" s="23"/>
       <c r="P32">
         <v>1</v>
       </c>
@@ -3848,11 +3888,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="12">
         <v>1</v>
       </c>
-      <c r="O33" s="19"/>
+      <c r="O33" s="23"/>
       <c r="P33">
         <v>1</v>
       </c>
@@ -3881,11 +3921,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="12">
         <v>1</v>
       </c>
-      <c r="O34" s="19"/>
+      <c r="O34" s="23"/>
       <c r="P34">
         <v>1</v>
       </c>
@@ -3914,11 +3954,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="12">
         <v>2</v>
       </c>
-      <c r="O35" s="19"/>
+      <c r="O35" s="23"/>
       <c r="P35">
         <v>1</v>
       </c>
@@ -3947,11 +3987,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="12">
         <v>2</v>
       </c>
-      <c r="O36" s="19"/>
+      <c r="O36" s="23"/>
       <c r="P36">
         <v>1</v>
       </c>
@@ -3980,11 +4020,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="12">
         <v>3</v>
       </c>
-      <c r="O37" s="19"/>
+      <c r="O37" s="23"/>
       <c r="P37">
         <v>2</v>
       </c>
@@ -3993,11 +4033,11 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G38" s="17"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="12">
         <v>1</v>
       </c>
-      <c r="O38" s="19"/>
+      <c r="O38" s="23"/>
       <c r="P38">
         <v>2</v>
       </c>
@@ -4007,11 +4047,11 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="G39" s="17"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="12">
         <v>1</v>
       </c>
-      <c r="O39" s="19"/>
+      <c r="O39" s="23"/>
       <c r="P39">
         <v>3</v>
       </c>
@@ -4021,8 +4061,8 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="G40" s="17"/>
-      <c r="O40" s="19"/>
+      <c r="G40" s="22"/>
+      <c r="O40" s="23"/>
       <c r="P40">
         <v>1</v>
       </c>
@@ -4032,8 +4072,8 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="G41" s="17"/>
-      <c r="O41" s="19"/>
+      <c r="G41" s="22"/>
+      <c r="O41" s="23"/>
       <c r="P41">
         <v>2</v>
       </c>
@@ -4043,8 +4083,8 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="G42" s="17"/>
-      <c r="O42" s="19"/>
+      <c r="G42" s="22"/>
+      <c r="O42" s="23"/>
       <c r="P42">
         <v>2</v>
       </c>
@@ -4054,8 +4094,8 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="G43" s="17"/>
-      <c r="O43" s="19"/>
+      <c r="G43" s="22"/>
+      <c r="O43" s="23"/>
       <c r="P43">
         <v>1</v>
       </c>
@@ -4065,8 +4105,8 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="G44" s="17"/>
-      <c r="O44" s="19"/>
+      <c r="G44" s="22"/>
+      <c r="O44" s="23"/>
       <c r="P44">
         <v>1</v>
       </c>
@@ -4076,8 +4116,8 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="G45" s="17"/>
-      <c r="O45" s="19"/>
+      <c r="G45" s="22"/>
+      <c r="O45" s="23"/>
       <c r="P45">
         <v>2</v>
       </c>
@@ -4087,8 +4127,8 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="G46" s="17"/>
-      <c r="O46" s="19"/>
+      <c r="G46" s="22"/>
+      <c r="O46" s="23"/>
       <c r="P46">
         <v>1</v>
       </c>
@@ -4098,8 +4138,8 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="G47" s="17"/>
-      <c r="O47" s="19"/>
+      <c r="G47" s="22"/>
+      <c r="O47" s="23"/>
       <c r="P47">
         <v>1</v>
       </c>
@@ -4109,8 +4149,8 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="G48" s="17"/>
-      <c r="O48" s="19"/>
+      <c r="G48" s="22"/>
+      <c r="O48" s="23"/>
       <c r="P48">
         <v>1</v>
       </c>
@@ -4120,8 +4160,8 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="G49" s="17"/>
-      <c r="O49" s="19"/>
+      <c r="G49" s="22"/>
+      <c r="O49" s="23"/>
       <c r="P49">
         <v>1</v>
       </c>
@@ -4131,8 +4171,8 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="G50" s="17"/>
-      <c r="O50" s="19"/>
+      <c r="G50" s="22"/>
+      <c r="O50" s="23"/>
       <c r="P50">
         <v>1</v>
       </c>
@@ -4142,8 +4182,8 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="G51" s="17"/>
-      <c r="O51" s="19"/>
+      <c r="G51" s="22"/>
+      <c r="O51" s="23"/>
       <c r="P51">
         <v>1</v>
       </c>
@@ -4153,8 +4193,8 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="G52" s="17"/>
-      <c r="O52" s="19"/>
+      <c r="G52" s="22"/>
+      <c r="O52" s="23"/>
       <c r="P52">
         <v>1</v>
       </c>
@@ -4164,8 +4204,8 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="G53" s="17"/>
-      <c r="O53" s="19"/>
+      <c r="G53" s="22"/>
+      <c r="O53" s="23"/>
       <c r="P53">
         <v>3</v>
       </c>
@@ -4175,8 +4215,8 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="G54" s="17"/>
-      <c r="O54" s="19"/>
+      <c r="G54" s="22"/>
+      <c r="O54" s="23"/>
       <c r="P54">
         <v>1</v>
       </c>
@@ -4186,8 +4226,8 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="G55" s="17"/>
-      <c r="O55" s="19"/>
+      <c r="G55" s="22"/>
+      <c r="O55" s="23"/>
       <c r="P55">
         <v>2</v>
       </c>
@@ -4197,8 +4237,8 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="G56" s="17"/>
-      <c r="O56" s="19"/>
+      <c r="G56" s="22"/>
+      <c r="O56" s="23"/>
       <c r="P56">
         <v>1</v>
       </c>
@@ -4208,8 +4248,8 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="G57" s="17"/>
-      <c r="O57" s="19"/>
+      <c r="G57" s="22"/>
+      <c r="O57" s="23"/>
       <c r="P57">
         <v>1</v>
       </c>
@@ -4219,8 +4259,8 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="G58" s="17"/>
-      <c r="O58" s="19"/>
+      <c r="G58" s="22"/>
+      <c r="O58" s="23"/>
       <c r="P58">
         <v>1</v>
       </c>
@@ -4230,8 +4270,8 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="G59" s="17"/>
-      <c r="O59" s="19"/>
+      <c r="G59" s="22"/>
+      <c r="O59" s="23"/>
       <c r="P59">
         <v>1</v>
       </c>
@@ -4241,8 +4281,8 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="G60" s="17"/>
-      <c r="O60" s="19"/>
+      <c r="G60" s="22"/>
+      <c r="O60" s="23"/>
       <c r="P60">
         <v>1</v>
       </c>
@@ -4252,8 +4292,8 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="G61" s="17"/>
-      <c r="O61" s="19"/>
+      <c r="G61" s="22"/>
+      <c r="O61" s="23"/>
       <c r="P61">
         <v>1</v>
       </c>
@@ -4263,8 +4303,8 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="G62" s="17"/>
-      <c r="O62" s="19"/>
+      <c r="G62" s="22"/>
+      <c r="O62" s="23"/>
       <c r="P62">
         <v>1</v>
       </c>
@@ -4274,8 +4314,8 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="G63" s="17"/>
-      <c r="O63" s="19"/>
+      <c r="G63" s="22"/>
+      <c r="O63" s="23"/>
       <c r="P63">
         <v>1</v>
       </c>
@@ -4285,8 +4325,8 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="G64" s="17"/>
-      <c r="O64" s="19"/>
+      <c r="G64" s="22"/>
+      <c r="O64" s="23"/>
       <c r="P64">
         <v>1</v>
       </c>
@@ -4296,8 +4336,8 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
-      <c r="G65" s="17"/>
-      <c r="O65" s="19"/>
+      <c r="G65" s="22"/>
+      <c r="O65" s="23"/>
       <c r="P65">
         <v>1</v>
       </c>
@@ -4307,8 +4347,8 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="G66" s="17"/>
-      <c r="O66" s="19"/>
+      <c r="G66" s="22"/>
+      <c r="O66" s="23"/>
       <c r="P66">
         <v>2</v>
       </c>
@@ -4318,8 +4358,8 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
-      <c r="G67" s="17"/>
-      <c r="O67" s="19"/>
+      <c r="G67" s="22"/>
+      <c r="O67" s="23"/>
       <c r="P67">
         <v>1</v>
       </c>
@@ -4329,8 +4369,8 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
-      <c r="G68" s="17"/>
-      <c r="O68" s="19"/>
+      <c r="G68" s="22"/>
+      <c r="O68" s="23"/>
       <c r="P68">
         <v>3</v>
       </c>
@@ -4340,8 +4380,8 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
-      <c r="G69" s="17"/>
-      <c r="O69" s="19"/>
+      <c r="G69" s="22"/>
+      <c r="O69" s="23"/>
       <c r="P69">
         <v>1</v>
       </c>
@@ -4351,8 +4391,8 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
-      <c r="G70" s="17"/>
-      <c r="O70" s="19"/>
+      <c r="G70" s="22"/>
+      <c r="O70" s="23"/>
       <c r="P70">
         <v>2</v>
       </c>
@@ -4362,8 +4402,8 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="G71" s="17"/>
-      <c r="O71" s="19"/>
+      <c r="G71" s="22"/>
+      <c r="O71" s="23"/>
       <c r="P71">
         <v>2</v>
       </c>
@@ -4373,8 +4413,8 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
-      <c r="G72" s="17"/>
-      <c r="O72" s="19"/>
+      <c r="G72" s="22"/>
+      <c r="O72" s="23"/>
       <c r="P72">
         <v>7</v>
       </c>
@@ -4384,8 +4424,8 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
-      <c r="G73" s="17"/>
-      <c r="O73" s="19"/>
+      <c r="G73" s="22"/>
+      <c r="O73" s="23"/>
       <c r="P73">
         <v>1</v>
       </c>
@@ -4395,8 +4435,8 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
-      <c r="G74" s="17"/>
-      <c r="O74" s="19"/>
+      <c r="G74" s="22"/>
+      <c r="O74" s="23"/>
       <c r="P74">
         <v>1</v>
       </c>
@@ -4406,8 +4446,8 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
-      <c r="G75" s="17"/>
-      <c r="O75" s="19"/>
+      <c r="G75" s="22"/>
+      <c r="O75" s="23"/>
       <c r="P75">
         <v>1</v>
       </c>
@@ -4416,8 +4456,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G76" s="17"/>
-      <c r="O76" s="19"/>
+      <c r="G76" s="22"/>
+      <c r="O76" s="23"/>
       <c r="P76">
         <v>1</v>
       </c>
@@ -4426,8 +4466,8 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G77" s="17"/>
-      <c r="O77" s="19"/>
+      <c r="G77" s="22"/>
+      <c r="O77" s="23"/>
       <c r="P77">
         <v>3</v>
       </c>
@@ -4436,8 +4476,8 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G78" s="17"/>
-      <c r="O78" s="19"/>
+      <c r="G78" s="22"/>
+      <c r="O78" s="23"/>
       <c r="P78">
         <v>1</v>
       </c>
@@ -4446,8 +4486,8 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G79" s="17"/>
-      <c r="O79" s="19"/>
+      <c r="G79" s="22"/>
+      <c r="O79" s="23"/>
       <c r="P79">
         <v>1</v>
       </c>
@@ -4456,8 +4496,8 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G80" s="17"/>
-      <c r="O80" s="19"/>
+      <c r="G80" s="22"/>
+      <c r="O80" s="23"/>
       <c r="P80">
         <v>1</v>
       </c>
@@ -4466,8 +4506,8 @@
       </c>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G81" s="17"/>
-      <c r="O81" s="19"/>
+      <c r="G81" s="22"/>
+      <c r="O81" s="23"/>
       <c r="P81">
         <v>1</v>
       </c>
@@ -4476,8 +4516,8 @@
       </c>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G82" s="17"/>
-      <c r="O82" s="19"/>
+      <c r="G82" s="22"/>
+      <c r="O82" s="23"/>
       <c r="P82">
         <v>1</v>
       </c>
@@ -4486,8 +4526,8 @@
       </c>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G83" s="17"/>
-      <c r="O83" s="19"/>
+      <c r="G83" s="22"/>
+      <c r="O83" s="23"/>
       <c r="P83">
         <v>1</v>
       </c>
@@ -4496,8 +4536,8 @@
       </c>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G84" s="17"/>
-      <c r="O84" s="19"/>
+      <c r="G84" s="22"/>
+      <c r="O84" s="23"/>
       <c r="P84">
         <v>1</v>
       </c>
@@ -4506,8 +4546,8 @@
       </c>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G85" s="17"/>
-      <c r="O85" s="19"/>
+      <c r="G85" s="22"/>
+      <c r="O85" s="23"/>
       <c r="P85">
         <v>1</v>
       </c>
@@ -4516,8 +4556,8 @@
       </c>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G86" s="17"/>
-      <c r="O86" s="19"/>
+      <c r="G86" s="22"/>
+      <c r="O86" s="23"/>
       <c r="P86">
         <v>1</v>
       </c>
@@ -4526,8 +4566,8 @@
       </c>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G87" s="17"/>
-      <c r="O87" s="19"/>
+      <c r="G87" s="22"/>
+      <c r="O87" s="23"/>
       <c r="P87">
         <v>2</v>
       </c>
@@ -4536,8 +4576,8 @@
       </c>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G88" s="17"/>
-      <c r="O88" s="19"/>
+      <c r="G88" s="22"/>
+      <c r="O88" s="23"/>
       <c r="P88">
         <v>1</v>
       </c>
@@ -4546,8 +4586,8 @@
       </c>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G89" s="17"/>
-      <c r="O89" s="19"/>
+      <c r="G89" s="22"/>
+      <c r="O89" s="23"/>
       <c r="P89">
         <v>1</v>
       </c>
@@ -4556,8 +4596,8 @@
       </c>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G90" s="17"/>
-      <c r="O90" s="19"/>
+      <c r="G90" s="22"/>
+      <c r="O90" s="23"/>
       <c r="P90">
         <v>1</v>
       </c>
@@ -4566,8 +4606,8 @@
       </c>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G91" s="17"/>
-      <c r="O91" s="19"/>
+      <c r="G91" s="22"/>
+      <c r="O91" s="23"/>
       <c r="P91">
         <v>1</v>
       </c>
@@ -4576,8 +4616,8 @@
       </c>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G92" s="17"/>
-      <c r="O92" s="19"/>
+      <c r="G92" s="22"/>
+      <c r="O92" s="23"/>
       <c r="P92">
         <v>1</v>
       </c>
@@ -4586,8 +4626,8 @@
       </c>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G93" s="17"/>
-      <c r="O93" s="19"/>
+      <c r="G93" s="22"/>
+      <c r="O93" s="23"/>
       <c r="P93">
         <v>2</v>
       </c>
@@ -4596,8 +4636,8 @@
       </c>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G94" s="17"/>
-      <c r="O94" s="19"/>
+      <c r="G94" s="22"/>
+      <c r="O94" s="23"/>
       <c r="P94">
         <v>2</v>
       </c>
@@ -4606,8 +4646,8 @@
       </c>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G95" s="17"/>
-      <c r="O95" s="19"/>
+      <c r="G95" s="22"/>
+      <c r="O95" s="23"/>
       <c r="P95">
         <v>2</v>
       </c>
@@ -4616,8 +4656,8 @@
       </c>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G96" s="17"/>
-      <c r="O96" s="19"/>
+      <c r="G96" s="22"/>
+      <c r="O96" s="23"/>
       <c r="P96">
         <v>1</v>
       </c>
@@ -4626,8 +4666,8 @@
       </c>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G97" s="17"/>
-      <c r="O97" s="19"/>
+      <c r="G97" s="22"/>
+      <c r="O97" s="23"/>
       <c r="P97">
         <v>1</v>
       </c>
@@ -4636,8 +4676,8 @@
       </c>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G98" s="17"/>
-      <c r="O98" s="19"/>
+      <c r="G98" s="22"/>
+      <c r="O98" s="23"/>
       <c r="P98">
         <v>1</v>
       </c>
@@ -4646,8 +4686,8 @@
       </c>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G99" s="17"/>
-      <c r="O99" s="19"/>
+      <c r="G99" s="22"/>
+      <c r="O99" s="23"/>
       <c r="P99">
         <v>1</v>
       </c>
@@ -4656,8 +4696,8 @@
       </c>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G100" s="17"/>
-      <c r="O100" s="19"/>
+      <c r="G100" s="22"/>
+      <c r="O100" s="23"/>
       <c r="P100">
         <v>1</v>
       </c>
@@ -4666,8 +4706,8 @@
       </c>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G101" s="17"/>
-      <c r="O101" s="19"/>
+      <c r="G101" s="22"/>
+      <c r="O101" s="23"/>
       <c r="P101">
         <v>2</v>
       </c>
@@ -4676,8 +4716,8 @@
       </c>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G102" s="17"/>
-      <c r="O102" s="19"/>
+      <c r="G102" s="22"/>
+      <c r="O102" s="23"/>
       <c r="P102">
         <v>1</v>
       </c>
@@ -4686,8 +4726,8 @@
       </c>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G103" s="17"/>
-      <c r="O103" s="19"/>
+      <c r="G103" s="22"/>
+      <c r="O103" s="23"/>
       <c r="P103">
         <v>2</v>
       </c>
@@ -4696,8 +4736,8 @@
       </c>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G104" s="17"/>
-      <c r="O104" s="19"/>
+      <c r="G104" s="22"/>
+      <c r="O104" s="23"/>
       <c r="P104">
         <v>1</v>
       </c>
@@ -4706,8 +4746,8 @@
       </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G105" s="17"/>
-      <c r="O105" s="19"/>
+      <c r="G105" s="22"/>
+      <c r="O105" s="23"/>
       <c r="P105">
         <v>1</v>
       </c>
@@ -4716,8 +4756,8 @@
       </c>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G106" s="17"/>
-      <c r="O106" s="19"/>
+      <c r="G106" s="22"/>
+      <c r="O106" s="23"/>
       <c r="P106">
         <v>3</v>
       </c>
@@ -4726,8 +4766,8 @@
       </c>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G107" s="17"/>
-      <c r="O107" s="19"/>
+      <c r="G107" s="22"/>
+      <c r="O107" s="23"/>
       <c r="P107">
         <v>2</v>
       </c>
@@ -4736,8 +4776,8 @@
       </c>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G108" s="17"/>
-      <c r="O108" s="19"/>
+      <c r="G108" s="22"/>
+      <c r="O108" s="23"/>
       <c r="P108">
         <v>1</v>
       </c>
@@ -4746,8 +4786,8 @@
       </c>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G109" s="17"/>
-      <c r="O109" s="19"/>
+      <c r="G109" s="22"/>
+      <c r="O109" s="23"/>
       <c r="P109">
         <v>2</v>
       </c>
@@ -4756,8 +4796,8 @@
       </c>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G110" s="17"/>
-      <c r="O110" s="19"/>
+      <c r="G110" s="22"/>
+      <c r="O110" s="23"/>
       <c r="P110">
         <v>1</v>
       </c>
@@ -4766,8 +4806,8 @@
       </c>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G111" s="17"/>
-      <c r="O111" s="19"/>
+      <c r="G111" s="22"/>
+      <c r="O111" s="23"/>
       <c r="P111">
         <v>1</v>
       </c>
@@ -4776,8 +4816,8 @@
       </c>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G112" s="17"/>
-      <c r="O112" s="19"/>
+      <c r="G112" s="22"/>
+      <c r="O112" s="23"/>
       <c r="P112">
         <v>2</v>
       </c>
@@ -4786,8 +4826,8 @@
       </c>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G113" s="17"/>
-      <c r="O113" s="19"/>
+      <c r="G113" s="22"/>
+      <c r="O113" s="23"/>
       <c r="P113">
         <v>1</v>
       </c>
@@ -4796,8 +4836,8 @@
       </c>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G114" s="17"/>
-      <c r="O114" s="19"/>
+      <c r="G114" s="22"/>
+      <c r="O114" s="23"/>
       <c r="P114">
         <v>1</v>
       </c>
@@ -4806,8 +4846,8 @@
       </c>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G115" s="17"/>
-      <c r="O115" s="19"/>
+      <c r="G115" s="22"/>
+      <c r="O115" s="23"/>
       <c r="P115">
         <v>2</v>
       </c>
@@ -4816,8 +4856,8 @@
       </c>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G116" s="17"/>
-      <c r="O116" s="19"/>
+      <c r="G116" s="22"/>
+      <c r="O116" s="23"/>
       <c r="P116">
         <v>1</v>
       </c>
@@ -4826,8 +4866,8 @@
       </c>
     </row>
     <row r="117" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G117" s="17"/>
-      <c r="O117" s="19"/>
+      <c r="G117" s="22"/>
+      <c r="O117" s="23"/>
       <c r="P117">
         <v>1</v>
       </c>
@@ -4836,8 +4876,8 @@
       </c>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G118" s="17"/>
-      <c r="O118" s="19"/>
+      <c r="G118" s="22"/>
+      <c r="O118" s="23"/>
       <c r="P118">
         <v>1</v>
       </c>
@@ -4846,8 +4886,8 @@
       </c>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G119" s="17"/>
-      <c r="O119" s="19"/>
+      <c r="G119" s="22"/>
+      <c r="O119" s="23"/>
       <c r="P119">
         <v>1</v>
       </c>
@@ -4856,8 +4896,8 @@
       </c>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G120" s="17"/>
-      <c r="O120" s="19"/>
+      <c r="G120" s="22"/>
+      <c r="O120" s="23"/>
       <c r="P120">
         <v>2</v>
       </c>
@@ -4866,8 +4906,8 @@
       </c>
     </row>
     <row r="121" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G121" s="17"/>
-      <c r="O121" s="19"/>
+      <c r="G121" s="22"/>
+      <c r="O121" s="23"/>
       <c r="P121">
         <v>1</v>
       </c>
@@ -4876,8 +4916,8 @@
       </c>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G122" s="17"/>
-      <c r="O122" s="19"/>
+      <c r="G122" s="22"/>
+      <c r="O122" s="23"/>
       <c r="P122">
         <v>1</v>
       </c>
@@ -4886,8 +4926,8 @@
       </c>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G123" s="17"/>
-      <c r="O123" s="19"/>
+      <c r="G123" s="22"/>
+      <c r="O123" s="23"/>
       <c r="P123">
         <v>1</v>
       </c>
@@ -4896,8 +4936,8 @@
       </c>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G124" s="17"/>
-      <c r="O124" s="19"/>
+      <c r="G124" s="22"/>
+      <c r="O124" s="23"/>
       <c r="P124">
         <v>1</v>
       </c>
@@ -4906,8 +4946,8 @@
       </c>
     </row>
     <row r="125" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G125" s="17"/>
-      <c r="O125" s="19"/>
+      <c r="G125" s="22"/>
+      <c r="O125" s="23"/>
       <c r="P125">
         <v>1</v>
       </c>
@@ -4916,8 +4956,8 @@
       </c>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G126" s="17"/>
-      <c r="O126" s="19"/>
+      <c r="G126" s="22"/>
+      <c r="O126" s="23"/>
       <c r="P126">
         <v>2</v>
       </c>
@@ -4926,8 +4966,8 @@
       </c>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G127" s="17"/>
-      <c r="O127" s="19"/>
+      <c r="G127" s="22"/>
+      <c r="O127" s="23"/>
       <c r="P127">
         <v>2</v>
       </c>
@@ -4936,8 +4976,8 @@
       </c>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G128" s="17"/>
-      <c r="O128" s="19"/>
+      <c r="G128" s="22"/>
+      <c r="O128" s="23"/>
       <c r="P128">
         <v>2</v>
       </c>
@@ -4946,8 +4986,8 @@
       </c>
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G129" s="17"/>
-      <c r="O129" s="19"/>
+      <c r="G129" s="22"/>
+      <c r="O129" s="23"/>
       <c r="P129">
         <v>1</v>
       </c>
@@ -4956,8 +4996,8 @@
       </c>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G130" s="17"/>
-      <c r="O130" s="19"/>
+      <c r="G130" s="22"/>
+      <c r="O130" s="23"/>
       <c r="P130">
         <v>1</v>
       </c>
@@ -4966,8 +5006,8 @@
       </c>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G131" s="17"/>
-      <c r="O131" s="19"/>
+      <c r="G131" s="22"/>
+      <c r="O131" s="23"/>
       <c r="P131">
         <v>1</v>
       </c>
@@ -4976,8 +5016,8 @@
       </c>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G132" s="17"/>
-      <c r="O132" s="19"/>
+      <c r="G132" s="22"/>
+      <c r="O132" s="23"/>
       <c r="P132">
         <v>2</v>
       </c>
@@ -4986,8 +5026,8 @@
       </c>
     </row>
     <row r="133" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G133" s="17"/>
-      <c r="O133" s="19"/>
+      <c r="G133" s="22"/>
+      <c r="O133" s="23"/>
       <c r="P133">
         <v>1</v>
       </c>
@@ -4996,8 +5036,8 @@
       </c>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G134" s="17"/>
-      <c r="O134" s="19"/>
+      <c r="G134" s="22"/>
+      <c r="O134" s="23"/>
       <c r="P134">
         <v>1</v>
       </c>
@@ -5006,8 +5046,8 @@
       </c>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G135" s="17"/>
-      <c r="O135" s="19"/>
+      <c r="G135" s="22"/>
+      <c r="O135" s="23"/>
       <c r="P135">
         <v>1</v>
       </c>
@@ -5016,8 +5056,8 @@
       </c>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G136" s="17"/>
-      <c r="O136" s="19"/>
+      <c r="G136" s="22"/>
+      <c r="O136" s="23"/>
       <c r="P136">
         <v>2</v>
       </c>
@@ -5026,8 +5066,8 @@
       </c>
     </row>
     <row r="137" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G137" s="17"/>
-      <c r="O137" s="19"/>
+      <c r="G137" s="22"/>
+      <c r="O137" s="23"/>
       <c r="P137">
         <v>2</v>
       </c>
@@ -5036,8 +5076,8 @@
       </c>
     </row>
     <row r="138" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G138" s="17"/>
-      <c r="O138" s="19"/>
+      <c r="G138" s="22"/>
+      <c r="O138" s="23"/>
       <c r="P138">
         <v>4</v>
       </c>
@@ -5046,8 +5086,8 @@
       </c>
     </row>
     <row r="139" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G139" s="17"/>
-      <c r="O139" s="19"/>
+      <c r="G139" s="22"/>
+      <c r="O139" s="23"/>
       <c r="P139">
         <v>1</v>
       </c>
@@ -5056,8 +5096,8 @@
       </c>
     </row>
     <row r="140" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G140" s="17"/>
-      <c r="O140" s="19"/>
+      <c r="G140" s="22"/>
+      <c r="O140" s="23"/>
       <c r="P140">
         <v>2</v>
       </c>
@@ -5066,8 +5106,8 @@
       </c>
     </row>
     <row r="141" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G141" s="17"/>
-      <c r="O141" s="19"/>
+      <c r="G141" s="22"/>
+      <c r="O141" s="23"/>
       <c r="P141">
         <v>1</v>
       </c>
@@ -5076,15 +5116,18 @@
       </c>
     </row>
     <row r="142" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G142" s="17"/>
-      <c r="O142" s="19"/>
+      <c r="G142" s="22"/>
+      <c r="O142" s="23"/>
     </row>
     <row r="143" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G143" s="17"/>
-      <c r="O143" s="19"/>
+      <c r="G143" s="22"/>
+      <c r="O143" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="K1:Q1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="G2:G143"/>
@@ -5095,9 +5138,6 @@
     <mergeCell ref="R1:R1048576"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="K1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5106,21 +5146,1115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="23"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9" style="23"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="I1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="L1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>497</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10">
+        <f>AVERAGE(B2:B61)</f>
+        <v>97.783333333333331</v>
+      </c>
+      <c r="G3" s="10">
+        <f>AVERAGE(C2:C61)</f>
+        <v>15.35</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <f>MIN(B2:B61)</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <f>MIN(C2:C61)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1">
+        <f>MAX(B2:B61)</f>
+        <v>497</v>
+      </c>
+      <c r="G5" s="1">
+        <f>MAX(C2:C61)</f>
+        <v>76</v>
+      </c>
+      <c r="I5" s="1">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1">
+        <v>15</v>
+      </c>
+      <c r="L5" s="4">
+        <v>20</v>
+      </c>
+      <c r="M5" s="5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>10</v>
+      </c>
+      <c r="O5" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="J6" s="1">
+        <v>20</v>
+      </c>
+      <c r="L6" s="4">
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15</v>
+      </c>
+      <c r="O6" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>147</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1">
+        <v>25</v>
+      </c>
+      <c r="L7" s="4">
+        <v>40</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
+        <v>20</v>
+      </c>
+      <c r="O7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1">
+        <v>30</v>
+      </c>
+      <c r="L8" s="4">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>70</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9" s="4">
+        <v>60</v>
+      </c>
+      <c r="M9" s="5">
+        <v>7</v>
+      </c>
+      <c r="N9" s="4">
+        <v>30</v>
+      </c>
+      <c r="O9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>80</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10" s="4">
+        <v>70</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11" s="4">
+        <v>80</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>189</v>
+      </c>
+      <c r="C12" s="1">
+        <v>55</v>
+      </c>
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12" s="4">
+        <v>90</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>110</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" s="4">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1">
+        <v>120</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14" s="4">
+        <v>110</v>
+      </c>
+      <c r="M14" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>130</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15" s="4">
+        <v>120</v>
+      </c>
+      <c r="M15" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>140</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16" s="4">
+        <v>130</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <v>150</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17" s="4">
+        <v>140</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>97</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>160</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18" s="4">
+        <v>150</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>170</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="4">
+        <v>160</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>215</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+      <c r="I20" s="1">
+        <v>180</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="4">
+        <v>170</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="L21" s="4">
+        <v>180</v>
+      </c>
+      <c r="M21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>95</v>
+      </c>
+      <c r="C22" s="1">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>106</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>113</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1">
+        <v>13</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>151</v>
+      </c>
+      <c r="C28" s="1">
+        <v>11</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>133</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>317</v>
+      </c>
+      <c r="C33" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>53</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>49</v>
+      </c>
+      <c r="C38" s="1">
+        <v>19</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>179</v>
+      </c>
+      <c r="C39" s="1">
+        <v>76</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>75</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>152</v>
+      </c>
+      <c r="C42" s="1">
+        <v>16</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1">
+        <v>16</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>33</v>
+      </c>
+      <c r="C47" s="1">
+        <v>27</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1">
+        <v>18</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>8</v>
+      </c>
+      <c r="C49" s="1">
+        <v>15</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1">
+        <v>37</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>133</v>
+      </c>
+      <c r="C51" s="1">
+        <v>41</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="1">
+        <v>18</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>18</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>143</v>
+      </c>
+      <c r="C54" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>87</v>
+      </c>
+      <c r="C55" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10</v>
+      </c>
+      <c r="C56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>245</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>116</v>
+      </c>
+      <c r="C60" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="N4:N9">
+    <sortCondition ref="N4"/>
+  </sortState>
+  <mergeCells count="8">
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="K1:K1048576"/>
+    <mergeCell ref="H1:H1048576"/>
+    <mergeCell ref="D1:D1048576"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="L2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="24" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="24" customWidth="1"/>
     <col min="6" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="23" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5128,63 +6262,63 @@
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="25"/>
+      <c r="F1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="10">
         <f>AVERAGE(K4:K63)</f>
         <v>3.5166666666666666</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="22"/>
+      <c r="J2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="10">
         <f>AVERAGE(M4:M15)</f>
@@ -5200,19 +6334,19 @@
         <v>600</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>14</v>
@@ -5223,7 +6357,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="10">
         <f>AVERAGE(O4:O9)</f>
@@ -6248,7 +7382,6 @@
       <c r="K61" s="5">
         <v>3</v>
       </c>
-      <c r="L61" s="5"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
@@ -6263,9 +7396,8 @@
       <c r="K62" s="5">
         <v>6</v>
       </c>
-      <c r="L62" s="5"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1186</v>
       </c>
@@ -6275,7 +7407,6 @@
       <c r="K63" s="5">
         <v>8</v>
       </c>
-      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
@@ -7048,1234 +8179,620 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="19"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="19"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="19"/>
+    <col min="1" max="1" width="6.75" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="9.75" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="D3" s="31">
+        <f>$B$14*C3</f>
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.1057</v>
+      </c>
+      <c r="D4" s="31">
+        <f t="shared" ref="D4:D13" si="0">$B$14*C4</f>
+        <v>6.3420000000000005</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="17">
+        <f>SUM(B3:B4)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="31">
+        <f>SUM(D3:D4)</f>
+        <v>8.1539999999999999</v>
+      </c>
+      <c r="H4" s="31">
+        <f t="shared" ref="H4:H9" si="1">((F4-G4)^2) / G4</f>
+        <v>1.8140441501103755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32">
+        <v>12</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.185</v>
+      </c>
+      <c r="D5" s="31">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2</v>
+      </c>
+      <c r="F5" s="17">
+        <f>B5</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="31">
+        <f>D5</f>
+        <v>11.1</v>
+      </c>
+      <c r="H5" s="31">
+        <f t="shared" si="1"/>
+        <v>7.2972972972973033E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="32">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.21579999999999999</v>
+      </c>
+      <c r="D6" s="31">
+        <f t="shared" si="0"/>
+        <v>12.948</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F8" si="2">B6</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" ref="G6:G8" si="3">D6</f>
+        <v>12.948</v>
+      </c>
+      <c r="H6" s="31">
+        <f t="shared" si="1"/>
+        <v>0.67120049428483175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>4</v>
+      </c>
+      <c r="B7" s="32">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.1888</v>
+      </c>
+      <c r="D7" s="31">
+        <f t="shared" si="0"/>
+        <v>11.327999999999999</v>
+      </c>
+      <c r="E7" s="17">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="3"/>
+        <v>11.327999999999999</v>
+      </c>
+      <c r="H7" s="31">
+        <f t="shared" si="1"/>
+        <v>0.47842372881355905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B8" s="32">
         <v>6</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="I1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="23"/>
-      <c r="L1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>497</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C8" s="17">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="D8" s="31">
+        <f t="shared" si="0"/>
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="3"/>
+        <v>7.9320000000000004</v>
+      </c>
+      <c r="H8" s="31">
+        <f t="shared" si="1"/>
+        <v>0.47057791225416051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>6</v>
+      </c>
+      <c r="B9" s="32">
+        <v>4</v>
+      </c>
+      <c r="C9" s="17">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="D9" s="31">
+        <f t="shared" si="0"/>
+        <v>4.6260000000000003</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUM(B9:B13)</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="31">
+        <f>SUM(D9:D13)</f>
+        <v>8.484</v>
+      </c>
+      <c r="H9" s="31">
+        <f t="shared" si="1"/>
+        <v>0.74614049976426222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>7</v>
+      </c>
+      <c r="B10" s="32">
+        <v>1</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3.85E-2</v>
+      </c>
+      <c r="D10" s="31">
+        <f t="shared" si="0"/>
+        <v>2.31</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>8</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D11" s="31">
+        <f t="shared" si="0"/>
+        <v>1.0139999999999998</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="22"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C12" s="17">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D12" s="31">
+        <f t="shared" si="0"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
-        <f>AVERAGE(B2:B61)</f>
-        <v>97.783333333333331</v>
-      </c>
-      <c r="G3" s="10">
-        <f>AVERAGE(C2:C61)</f>
-        <v>15.35</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>81</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <f>MIN(B2:B61)</f>
-        <v>8</v>
-      </c>
-      <c r="G4" s="1">
-        <f>MIN(C2:C61)</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>10</v>
-      </c>
-      <c r="M4" s="5">
+      <c r="B13" s="32">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
-        <v>5</v>
-      </c>
-      <c r="O4" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>99</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1">
-        <f>MAX(B2:B61)</f>
-        <v>497</v>
-      </c>
-      <c r="G5" s="1">
-        <f>MAX(C2:C61)</f>
-        <v>76</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4">
-        <v>20</v>
-      </c>
-      <c r="M5" s="5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>10</v>
-      </c>
-      <c r="O5" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="C13" s="17">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D13" s="31">
+        <f t="shared" si="0"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="35">
+        <f>SUM(B3:B13)</f>
+        <v>60</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="36">
+        <f>SUM(H4:H13)</f>
+        <v>4.2533597582001628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5">
-        <v>6</v>
-      </c>
-      <c r="N6" s="4">
-        <v>15</v>
-      </c>
-      <c r="O6" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>147</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>50</v>
-      </c>
-      <c r="J7" s="1">
-        <v>25</v>
-      </c>
-      <c r="L7" s="4">
-        <v>40</v>
-      </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
-        <v>20</v>
-      </c>
-      <c r="O7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5">
-        <v>6</v>
-      </c>
-      <c r="N8" s="4">
-        <v>25</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>111</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1">
-        <v>35</v>
-      </c>
-      <c r="L9" s="4">
-        <v>60</v>
-      </c>
-      <c r="M9" s="5">
-        <v>7</v>
-      </c>
-      <c r="N9" s="4">
-        <v>30</v>
-      </c>
-      <c r="O9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1">
-        <v>80</v>
-      </c>
-      <c r="J10" s="1">
-        <v>40</v>
-      </c>
-      <c r="L10" s="4">
-        <v>70</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>35</v>
-      </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1">
-        <v>90</v>
-      </c>
-      <c r="J11" s="1">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4">
-        <v>80</v>
-      </c>
-      <c r="M11" s="5">
-        <v>3</v>
-      </c>
-      <c r="N11" s="4">
-        <v>40</v>
-      </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>189</v>
-      </c>
-      <c r="C12" s="1">
-        <v>55</v>
-      </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4">
-        <v>90</v>
-      </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>45</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>150</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="1">
-        <v>110</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="L13" s="4">
-        <v>100</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4</v>
-      </c>
-      <c r="N13" s="4">
-        <v>50</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>130</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1">
-        <v>120</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="4">
-        <v>110</v>
-      </c>
-      <c r="M14" s="5">
-        <v>4</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>130</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="4">
-        <v>120</v>
-      </c>
-      <c r="M15" s="5">
-        <v>6</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1">
-        <v>140</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="4">
-        <v>130</v>
-      </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>101</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1">
-        <v>150</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="L17" s="4">
-        <v>140</v>
-      </c>
-      <c r="M17" s="5">
-        <v>2</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>97</v>
-      </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-      <c r="I18" s="1">
-        <v>160</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="L18" s="4">
-        <v>150</v>
-      </c>
-      <c r="M18" s="5">
-        <v>3</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>170</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="L19" s="4">
-        <v>160</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>215</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1">
-        <v>180</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="L20" s="4">
-        <v>170</v>
-      </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1">
-        <v>190</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="L21" s="4">
-        <v>180</v>
-      </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>95</v>
-      </c>
-      <c r="C22" s="1">
-        <v>15</v>
-      </c>
-      <c r="I22" s="1">
-        <v>200</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="L22" s="4">
-        <v>190</v>
-      </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1">
-        <v>15</v>
-      </c>
-      <c r="I23" s="1">
-        <v>210</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="L23" s="4">
-        <v>200</v>
-      </c>
-      <c r="M23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>106</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="I24" s="1">
-        <v>220</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="L24" s="4">
-        <v>210</v>
-      </c>
-      <c r="M24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>113</v>
-      </c>
-      <c r="C25" s="1">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1">
-        <v>230</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="L25" s="4">
-        <v>220</v>
-      </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>106</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-      <c r="I26" s="1">
-        <v>240</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="L26" s="4">
-        <v>230</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>159</v>
-      </c>
-      <c r="C27" s="1">
-        <v>13</v>
-      </c>
-      <c r="I27" s="1">
-        <v>250</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="L27" s="4">
-        <v>240</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>151</v>
-      </c>
-      <c r="C28" s="1">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1">
-        <v>260</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="L28" s="4">
-        <v>250</v>
-      </c>
-      <c r="M28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1">
-        <v>270</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="L29" s="4">
-        <v>260</v>
-      </c>
-      <c r="M29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>133</v>
-      </c>
-      <c r="C30" s="1">
-        <v>6</v>
-      </c>
-      <c r="I30" s="1">
-        <v>280</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="L30" s="4">
-        <v>270</v>
-      </c>
-      <c r="M30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1">
-        <v>8</v>
-      </c>
-      <c r="I31" s="1">
-        <v>290</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="L31" s="4">
-        <v>280</v>
-      </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1">
-        <v>9</v>
-      </c>
-      <c r="I32" s="1">
-        <v>300</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="L32" s="4">
-        <v>290</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>317</v>
-      </c>
-      <c r="C33" s="1">
-        <v>22</v>
-      </c>
-      <c r="L33" s="4">
-        <v>300</v>
-      </c>
-      <c r="M33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>25</v>
-      </c>
-      <c r="C34" s="1">
-        <v>6</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1">
-        <v>10</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1">
-        <v>21</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1">
-        <v>9</v>
-      </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>49</v>
-      </c>
-      <c r="C38" s="1">
-        <v>19</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>179</v>
-      </c>
-      <c r="C39" s="1">
-        <v>76</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1">
-        <v>11</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>43</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>152</v>
-      </c>
-      <c r="C42" s="1">
-        <v>16</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>54</v>
-      </c>
-      <c r="C43" s="1">
-        <v>16</v>
-      </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>20</v>
-      </c>
-      <c r="C44" s="1">
-        <v>10</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>50</v>
-      </c>
-      <c r="C45" s="1">
-        <v>20</v>
-      </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>26</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>33</v>
-      </c>
-      <c r="C47" s="1">
-        <v>27</v>
-      </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>118</v>
-      </c>
-      <c r="C48" s="1">
-        <v>18</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
-        <v>15</v>
-      </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>105</v>
-      </c>
-      <c r="C50" s="1">
-        <v>37</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>133</v>
-      </c>
-      <c r="C51" s="1">
-        <v>41</v>
-      </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1">
-        <v>50</v>
-      </c>
-      <c r="C52" s="1">
-        <v>18</v>
-      </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1">
-        <v>10</v>
-      </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1">
-        <v>143</v>
-      </c>
-      <c r="C54" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1">
-        <v>87</v>
-      </c>
-      <c r="C55" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1">
-        <v>10</v>
-      </c>
-      <c r="C56" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1">
-        <v>245</v>
-      </c>
-      <c r="C57" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1">
-        <v>112</v>
-      </c>
-      <c r="C58" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1">
-        <v>60</v>
-      </c>
-      <c r="C59" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1">
-        <v>116</v>
-      </c>
-      <c r="C60" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1">
-        <v>68</v>
-      </c>
-      <c r="C61" s="1">
-        <v>15</v>
-      </c>
+      <c r="H15" s="31">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16" t="str">
+        <f>IF(H14&lt;H15, "ACCEPT", "REJECT")</f>
+        <v>ACCEPT</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="N4:N13">
-    <sortCondition ref="N4"/>
-  </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="K1:K1048576"/>
-    <mergeCell ref="H1:H1048576"/>
-    <mergeCell ref="D1:D1048576"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,15 @@
     <sheet name="Arrival Rate Analysis" sheetId="4" r:id="rId3"/>
     <sheet name="Goodness Fit Tests" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'QST &amp; CST Analysis'!$G$15</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Customer ID</t>
   </si>
@@ -209,10 +218,44 @@
     <t>P(X), λ = 3.5</t>
   </si>
   <si>
-    <t>(O - E)2 / E</t>
+    <t>Arrival Rate: Chi-Squared Test for a Poisson Distribution</t>
   </si>
   <si>
-    <t>Arrival Rate: Chi-Squared Test for a Poisson Distribution</t>
+    <r>
+      <t>(O - E)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> / E</t>
+    </r>
+  </si>
+  <si>
+    <t>10 Width</t>
+  </si>
+  <si>
+    <t>5 Width</t>
+  </si>
+  <si>
+    <t>30 Width</t>
   </si>
 </sst>
 </file>
@@ -223,7 +266,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +333,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -386,7 +438,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -403,9 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +540,10 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -535,7 +591,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Queue Service Time (QZ)</a:t>
+              <a:t>Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -559,64 +615,55 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'QST &amp; CST Analysis'!$L$4:$L$22</c:f>
+              <c:f>'QST &amp; CST Analysis'!$M$4:$M$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -624,66 +671,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QST &amp; CST Analysis'!$M$4:$M$22</c:f>
+              <c:f>'QST &amp; CST Analysis'!$N$4:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="349274520"/>
-        <c:axId val="349273736"/>
+        <c:axId val="484421016"/>
+        <c:axId val="484422192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349274520"/>
+        <c:axId val="484421016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +757,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>30 Width</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -731,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349273736"/>
+        <c:crossAx val="484422192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349273736"/>
+        <c:axId val="484422192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349274520"/>
+        <c:crossAx val="484421016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -810,7 +848,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Casier Service Time</a:t>
+              <a:t>Histogram</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -834,28 +872,109 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'QST &amp; CST Analysis'!$N$4:$N$10</c:f>
+              <c:f>'QST &amp; CST Analysis'!$O$4:$O$37</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -863,30 +982,111 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'QST &amp; CST Analysis'!$O$4:$O$10</c:f>
+              <c:f>'QST &amp; CST Analysis'!$P$4:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344877128"/>
-        <c:axId val="344876736"/>
+        <c:axId val="484419840"/>
+        <c:axId val="484422976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344877128"/>
+        <c:axId val="484419840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +1122,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Seconds</a:t>
+                  <a:t>10 Width</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -934,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344876736"/>
+        <c:crossAx val="484422976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +1142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344876736"/>
+        <c:axId val="484422976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +1171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344877128"/>
+        <c:crossAx val="484419840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -989,6 +1189,263 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Histogram</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'QST &amp; CST Analysis'!$Q$4:$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'QST &amp; CST Analysis'!$R$4:$R$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="485802064"/>
+        <c:axId val="485802456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485802064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>5 Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="485802456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485802456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="485802064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1515,7 +1972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1754,7 +2211,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1961,20 +2418,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1991,20 +2448,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2014,6 +2471,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2441,7 +2928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -2493,7 +2980,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="K2" s="21" t="s">
         <v>19</v>
       </c>
@@ -2511,26 +2998,26 @@
       <c r="U2" s="21"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2560,7 +3047,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2581,7 +3068,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="K4">
@@ -2612,7 +3099,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2633,7 +3120,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>1</v>
       </c>
       <c r="K5">
@@ -2665,7 +3152,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2686,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="K6">
@@ -2711,7 +3198,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2732,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="K7">
@@ -2757,7 +3244,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2778,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>2</v>
       </c>
       <c r="K8">
@@ -2803,7 +3290,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2824,7 +3311,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="22"/>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3</v>
       </c>
       <c r="K9">
@@ -2849,7 +3336,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10">
@@ -2870,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1</v>
       </c>
       <c r="K10">
@@ -2895,7 +3382,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2916,7 +3403,7 @@
         <v>5</v>
       </c>
       <c r="G11" s="22"/>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>2</v>
       </c>
       <c r="K11">
@@ -2941,7 +3428,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
       <c r="B12">
@@ -2962,7 +3449,7 @@
         <v>19</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>2</v>
       </c>
       <c r="K12">
@@ -2987,7 +3474,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>10</v>
       </c>
       <c r="B13">
@@ -3008,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>1</v>
       </c>
       <c r="K13">
@@ -3033,7 +3520,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3054,7 +3541,7 @@
         <v>55</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>5</v>
       </c>
       <c r="K14">
@@ -3079,7 +3566,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="12">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3100,7 +3587,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="22"/>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>2</v>
       </c>
       <c r="K15">
@@ -3125,7 +3612,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3146,7 +3633,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>5</v>
       </c>
       <c r="K16">
@@ -3171,7 +3658,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17">
@@ -3192,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="22"/>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>3</v>
       </c>
       <c r="K17">
@@ -3217,7 +3704,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>15</v>
       </c>
       <c r="B18">
@@ -3238,7 +3725,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>2</v>
       </c>
       <c r="K18">
@@ -3263,7 +3750,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>16</v>
       </c>
       <c r="B19">
@@ -3284,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>1</v>
       </c>
       <c r="K19">
@@ -3309,7 +3796,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3330,7 +3817,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>2</v>
       </c>
       <c r="K20">
@@ -3355,7 +3842,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
       <c r="B21">
@@ -3376,7 +3863,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="22"/>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>1</v>
       </c>
       <c r="K21">
@@ -3401,7 +3888,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>19</v>
       </c>
       <c r="B22">
@@ -3422,7 +3909,7 @@
         <v>8</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>1</v>
       </c>
       <c r="K22">
@@ -3447,7 +3934,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>20</v>
       </c>
       <c r="B23">
@@ -3468,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="G23" s="22"/>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>3</v>
       </c>
       <c r="K23">
@@ -3493,7 +3980,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <v>21</v>
       </c>
       <c r="B24">
@@ -3514,7 +4001,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>1</v>
       </c>
       <c r="K24">
@@ -3539,7 +4026,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <v>22</v>
       </c>
       <c r="B25">
@@ -3560,7 +4047,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>2</v>
       </c>
       <c r="K25">
@@ -3585,7 +4072,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <v>23</v>
       </c>
       <c r="B26">
@@ -3606,7 +4093,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>4</v>
       </c>
       <c r="K26">
@@ -3631,7 +4118,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <v>24</v>
       </c>
       <c r="B27">
@@ -3652,7 +4139,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="22"/>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
       <c r="K27">
@@ -3677,7 +4164,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <v>25</v>
       </c>
       <c r="B28">
@@ -3698,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
       <c r="K28">
@@ -3723,7 +4210,7 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <v>26</v>
       </c>
       <c r="B29">
@@ -3744,7 +4231,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>2</v>
       </c>
       <c r="K29">
@@ -3769,7 +4256,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <v>27</v>
       </c>
       <c r="B30">
@@ -3790,7 +4277,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>4</v>
       </c>
       <c r="O30" s="23"/>
@@ -3802,7 +4289,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>28</v>
       </c>
       <c r="B31">
@@ -3823,7 +4310,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>7</v>
       </c>
       <c r="O31" s="23"/>
@@ -3835,7 +4322,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <v>29</v>
       </c>
       <c r="B32">
@@ -3856,7 +4343,7 @@
         <v>6</v>
       </c>
       <c r="G32" s="22"/>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>2</v>
       </c>
       <c r="O32" s="23"/>
@@ -3868,7 +4355,7 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <v>30</v>
       </c>
       <c r="B33">
@@ -3889,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="G33" s="22"/>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>1</v>
       </c>
       <c r="O33" s="23"/>
@@ -3901,7 +4388,7 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <v>31</v>
       </c>
       <c r="B34">
@@ -3922,7 +4409,7 @@
         <v>9</v>
       </c>
       <c r="G34" s="22"/>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>1</v>
       </c>
       <c r="O34" s="23"/>
@@ -3934,7 +4421,7 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <v>32</v>
       </c>
       <c r="B35">
@@ -3955,7 +4442,7 @@
         <v>22</v>
       </c>
       <c r="G35" s="22"/>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>2</v>
       </c>
       <c r="O35" s="23"/>
@@ -3967,7 +4454,7 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <v>33</v>
       </c>
       <c r="B36">
@@ -3988,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="G36" s="22"/>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>2</v>
       </c>
       <c r="O36" s="23"/>
@@ -4000,7 +4487,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>34</v>
       </c>
       <c r="B37">
@@ -4021,7 +4508,7 @@
         <v>10</v>
       </c>
       <c r="G37" s="22"/>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>3</v>
       </c>
       <c r="O37" s="23"/>
@@ -4034,7 +4521,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G38" s="22"/>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>1</v>
       </c>
       <c r="O38" s="23"/>
@@ -4046,9 +4533,9 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
       <c r="G39" s="22"/>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>1</v>
       </c>
       <c r="O39" s="23"/>
@@ -4060,7 +4547,7 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="11"/>
       <c r="G40" s="22"/>
       <c r="O40" s="23"/>
       <c r="P40">
@@ -4071,7 +4558,7 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="11"/>
       <c r="G41" s="22"/>
       <c r="O41" s="23"/>
       <c r="P41">
@@ -4082,7 +4569,7 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="11"/>
       <c r="G42" s="22"/>
       <c r="O42" s="23"/>
       <c r="P42">
@@ -4093,7 +4580,7 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="11"/>
       <c r="G43" s="22"/>
       <c r="O43" s="23"/>
       <c r="P43">
@@ -4104,7 +4591,7 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="G44" s="22"/>
       <c r="O44" s="23"/>
       <c r="P44">
@@ -4115,7 +4602,7 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="G45" s="22"/>
       <c r="O45" s="23"/>
       <c r="P45">
@@ -4126,7 +4613,7 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="11"/>
       <c r="G46" s="22"/>
       <c r="O46" s="23"/>
       <c r="P46">
@@ -4137,7 +4624,7 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="11"/>
       <c r="G47" s="22"/>
       <c r="O47" s="23"/>
       <c r="P47">
@@ -4148,7 +4635,7 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="G48" s="22"/>
       <c r="O48" s="23"/>
       <c r="P48">
@@ -4159,7 +4646,7 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="11"/>
       <c r="G49" s="22"/>
       <c r="O49" s="23"/>
       <c r="P49">
@@ -4170,7 +4657,7 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="11"/>
       <c r="G50" s="22"/>
       <c r="O50" s="23"/>
       <c r="P50">
@@ -4181,7 +4668,7 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="11"/>
       <c r="G51" s="22"/>
       <c r="O51" s="23"/>
       <c r="P51">
@@ -4192,7 +4679,7 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="11"/>
       <c r="G52" s="22"/>
       <c r="O52" s="23"/>
       <c r="P52">
@@ -4203,7 +4690,7 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="11"/>
       <c r="G53" s="22"/>
       <c r="O53" s="23"/>
       <c r="P53">
@@ -4214,7 +4701,7 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="11"/>
       <c r="G54" s="22"/>
       <c r="O54" s="23"/>
       <c r="P54">
@@ -4225,7 +4712,7 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
       <c r="G55" s="22"/>
       <c r="O55" s="23"/>
       <c r="P55">
@@ -4236,7 +4723,7 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="11"/>
       <c r="G56" s="22"/>
       <c r="O56" s="23"/>
       <c r="P56">
@@ -4247,7 +4734,7 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="11"/>
       <c r="G57" s="22"/>
       <c r="O57" s="23"/>
       <c r="P57">
@@ -4258,7 +4745,7 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="11"/>
       <c r="G58" s="22"/>
       <c r="O58" s="23"/>
       <c r="P58">
@@ -4269,7 +4756,7 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="G59" s="22"/>
       <c r="O59" s="23"/>
       <c r="P59">
@@ -4280,7 +4767,7 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="11"/>
       <c r="G60" s="22"/>
       <c r="O60" s="23"/>
       <c r="P60">
@@ -4291,7 +4778,7 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="11"/>
       <c r="G61" s="22"/>
       <c r="O61" s="23"/>
       <c r="P61">
@@ -4302,7 +4789,7 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="11"/>
       <c r="G62" s="22"/>
       <c r="O62" s="23"/>
       <c r="P62">
@@ -4313,7 +4800,7 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
       <c r="G63" s="22"/>
       <c r="O63" s="23"/>
       <c r="P63">
@@ -4324,7 +4811,7 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="11"/>
       <c r="G64" s="22"/>
       <c r="O64" s="23"/>
       <c r="P64">
@@ -4335,7 +4822,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="11"/>
       <c r="G65" s="22"/>
       <c r="O65" s="23"/>
       <c r="P65">
@@ -4346,7 +4833,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="11"/>
       <c r="G66" s="22"/>
       <c r="O66" s="23"/>
       <c r="P66">
@@ -4357,7 +4844,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="11"/>
       <c r="G67" s="22"/>
       <c r="O67" s="23"/>
       <c r="P67">
@@ -4368,7 +4855,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="11"/>
       <c r="G68" s="22"/>
       <c r="O68" s="23"/>
       <c r="P68">
@@ -4379,7 +4866,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="11"/>
       <c r="G69" s="22"/>
       <c r="O69" s="23"/>
       <c r="P69">
@@ -4390,7 +4877,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="11"/>
       <c r="G70" s="22"/>
       <c r="O70" s="23"/>
       <c r="P70">
@@ -4401,7 +4888,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="11"/>
       <c r="G71" s="22"/>
       <c r="O71" s="23"/>
       <c r="P71">
@@ -4412,7 +4899,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="11"/>
       <c r="G72" s="22"/>
       <c r="O72" s="23"/>
       <c r="P72">
@@ -4423,7 +4910,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="11"/>
       <c r="G73" s="22"/>
       <c r="O73" s="23"/>
       <c r="P73">
@@ -4434,7 +4921,7 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="11"/>
       <c r="G74" s="22"/>
       <c r="O74" s="23"/>
       <c r="P74">
@@ -4445,7 +4932,7 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+      <c r="A75" s="11"/>
       <c r="G75" s="22"/>
       <c r="O75" s="23"/>
       <c r="P75">
@@ -5146,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5160,12 +5647,13 @@
     <col min="4" max="4" width="9" style="23"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="9" style="23"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="23"/>
+    <col min="9" max="9" width="9" style="17"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
@@ -5184,14 +5672,17 @@
         <v>16</v>
       </c>
       <c r="J1" s="28"/>
-      <c r="L1" s="28" t="s">
+      <c r="K1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="28"/>
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5207,22 +5698,25 @@
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="27"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5232,37 +5726,46 @@
       <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <f>AVERAGE(B2:B61)</f>
         <v>97.783333333333331</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>5</v>
+      <c r="I3" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>51</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>6</v>
-      </c>
       <c r="O3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5272,7 +5775,7 @@
       <c r="C4" s="1">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1">
@@ -5283,26 +5786,35 @@
         <f>MIN(C2:C61)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>20</v>
+      <c r="I4" s="17">
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>10</v>
       </c>
-      <c r="L4" s="4">
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="M4" s="4">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5">
         <v>10</v>
       </c>
-      <c r="M4" s="5">
+      <c r="O4" s="4">
+        <v>10</v>
+      </c>
+      <c r="P4" s="5">
         <v>2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="Q4" s="4">
         <v>5</v>
       </c>
-      <c r="O4" s="5">
+      <c r="R4" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5312,7 +5824,7 @@
       <c r="C5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1">
@@ -5323,26 +5835,35 @@
         <f>MAX(C2:C61)</f>
         <v>76</v>
       </c>
-      <c r="I5" s="1">
-        <v>30</v>
+      <c r="I5" s="17">
+        <v>60</v>
       </c>
       <c r="J5" s="1">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4">
         <v>20</v>
       </c>
-      <c r="M5" s="5">
+      <c r="K5" s="1">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4">
+        <v>60</v>
+      </c>
+      <c r="N5" s="5">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4">
+        <v>20</v>
+      </c>
+      <c r="P5" s="5">
         <v>2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="Q5" s="4">
         <v>10</v>
       </c>
-      <c r="O5" s="5">
+      <c r="R5" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5352,26 +5873,35 @@
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1">
-        <v>40</v>
+      <c r="I6" s="17">
+        <v>90</v>
       </c>
       <c r="J6" s="1">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4">
         <v>30</v>
       </c>
-      <c r="M6" s="5">
+      <c r="K6" s="1">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4">
+        <v>90</v>
+      </c>
+      <c r="N6" s="5">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>30</v>
+      </c>
+      <c r="P6" s="5">
         <v>6</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="4">
         <v>15</v>
       </c>
-      <c r="O6" s="5">
+      <c r="R6" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5381,26 +5911,35 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="I7" s="1">
-        <v>50</v>
+      <c r="I7" s="17">
+        <v>120</v>
       </c>
       <c r="J7" s="1">
-        <v>25</v>
-      </c>
-      <c r="L7" s="4">
         <v>40</v>
       </c>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4">
+      <c r="K7" s="1">
         <v>20</v>
       </c>
-      <c r="O7" s="5">
+      <c r="M7" s="4">
+        <v>120</v>
+      </c>
+      <c r="N7" s="5">
+        <v>14</v>
+      </c>
+      <c r="O7" s="4">
+        <v>40</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5410,26 +5949,35 @@
       <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="1">
-        <v>60</v>
+      <c r="I8" s="17">
+        <v>150</v>
       </c>
       <c r="J8" s="1">
-        <v>30</v>
-      </c>
-      <c r="L8" s="4">
         <v>50</v>
       </c>
-      <c r="M8" s="5">
+      <c r="K8" s="1">
+        <v>25</v>
+      </c>
+      <c r="M8" s="4">
+        <v>150</v>
+      </c>
+      <c r="N8" s="5">
         <v>6</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
+        <v>50</v>
+      </c>
+      <c r="P8" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="4">
         <v>25</v>
       </c>
-      <c r="O8" s="5">
+      <c r="R8" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5439,24 +5987,35 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="1">
-        <v>70</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="L9" s="4">
+      <c r="I9" s="17">
+        <v>180</v>
+      </c>
+      <c r="J9" s="1">
         <v>60</v>
       </c>
-      <c r="M9" s="5">
+      <c r="K9" s="1">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4">
+        <v>180</v>
+      </c>
+      <c r="N9" s="5">
+        <v>4</v>
+      </c>
+      <c r="O9" s="4">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5">
         <v>7</v>
       </c>
-      <c r="N9" s="4">
+      <c r="Q9" s="4">
         <v>30</v>
       </c>
-      <c r="O9" s="5">
+      <c r="R9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5466,24 +6025,35 @@
       <c r="C10" s="1">
         <v>19</v>
       </c>
-      <c r="I10" s="1">
-        <v>80</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="4">
+      <c r="I10" s="17">
+        <v>210</v>
+      </c>
+      <c r="J10" s="1">
         <v>70</v>
       </c>
-      <c r="M10" s="5">
+      <c r="K10" s="16">
+        <v>35</v>
+      </c>
+      <c r="M10" s="4">
+        <v>210</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>70</v>
+      </c>
+      <c r="P10" s="5">
         <v>2</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="4">
+        <v>35</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5493,18 +6063,35 @@
       <c r="C11" s="1">
         <v>13</v>
       </c>
-      <c r="I11" s="1">
-        <v>90</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="L11" s="4">
+      <c r="I11" s="17">
+        <v>240</v>
+      </c>
+      <c r="J11" s="1">
         <v>80</v>
       </c>
-      <c r="M11" s="5">
+      <c r="K11" s="16">
+        <v>40</v>
+      </c>
+      <c r="M11" s="4">
+        <v>240</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4">
+        <v>80</v>
+      </c>
+      <c r="P11" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>40</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5514,18 +6101,35 @@
       <c r="C12" s="1">
         <v>55</v>
       </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="L12" s="4">
+      <c r="I12" s="17">
+        <v>270</v>
+      </c>
+      <c r="J12" s="1">
         <v>90</v>
       </c>
-      <c r="M12" s="5">
+      <c r="K12" s="16">
+        <v>45</v>
+      </c>
+      <c r="M12" s="4">
+        <v>270</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>90</v>
+      </c>
+      <c r="P12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q12" s="4">
+        <v>45</v>
+      </c>
+      <c r="R12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5535,18 +6139,35 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="1">
-        <v>110</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="L13" s="4">
+      <c r="I13" s="17">
+        <v>300</v>
+      </c>
+      <c r="J13" s="1">
         <v>100</v>
       </c>
-      <c r="M13" s="5">
+      <c r="K13" s="16">
+        <v>50</v>
+      </c>
+      <c r="M13" s="4">
+        <v>300</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="4">
+        <v>50</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5556,18 +6177,35 @@
       <c r="C14" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="1">
-        <v>120</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="4">
+      <c r="I14" s="17">
+        <v>330</v>
+      </c>
+      <c r="J14" s="1">
         <v>110</v>
       </c>
-      <c r="M14" s="5">
+      <c r="K14" s="16">
+        <v>55</v>
+      </c>
+      <c r="M14" s="4">
+        <v>330</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>110</v>
+      </c>
+      <c r="P14" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="4">
+        <v>55</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5577,18 +6215,35 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1">
-        <v>130</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="4">
+      <c r="I15" s="17">
+        <v>360</v>
+      </c>
+      <c r="J15" s="1">
         <v>120</v>
       </c>
-      <c r="M15" s="5">
+      <c r="K15" s="16">
+        <v>60</v>
+      </c>
+      <c r="M15" s="4">
+        <v>360</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>120</v>
+      </c>
+      <c r="P15" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="4">
+        <v>60</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5598,18 +6253,35 @@
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="I16" s="1">
-        <v>140</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="4">
+      <c r="I16" s="17">
+        <v>390</v>
+      </c>
+      <c r="J16" s="1">
         <v>130</v>
       </c>
-      <c r="M16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="16">
+        <v>65</v>
+      </c>
+      <c r="M16" s="4">
+        <v>390</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>130</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>65</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5619,18 +6291,35 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="I17" s="1">
-        <v>150</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="L17" s="4">
+      <c r="I17" s="17">
+        <v>420</v>
+      </c>
+      <c r="J17" s="1">
         <v>140</v>
       </c>
-      <c r="M17" s="5">
+      <c r="K17" s="16">
+        <v>70</v>
+      </c>
+      <c r="M17" s="4">
+        <v>420</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>140</v>
+      </c>
+      <c r="P17" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q17" s="4">
+        <v>70</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5640,18 +6329,35 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="I18" s="1">
-        <v>160</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="L18" s="4">
+      <c r="I18" s="17">
+        <v>450</v>
+      </c>
+      <c r="J18" s="1">
         <v>150</v>
       </c>
-      <c r="M18" s="5">
+      <c r="K18" s="16">
+        <v>75</v>
+      </c>
+      <c r="M18" s="4">
+        <v>450</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>150</v>
+      </c>
+      <c r="P18" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q18" s="4">
+        <v>75</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5661,18 +6367,30 @@
       <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1">
-        <v>170</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="L19" s="4">
+      <c r="J19" s="1">
         <v>160</v>
       </c>
-      <c r="M19" s="5">
+      <c r="K19" s="1"/>
+      <c r="M19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="6">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>160</v>
+      </c>
+      <c r="P19" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5682,18 +6400,18 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="I20" s="1">
-        <v>180</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="L20" s="4">
+      <c r="J20" s="1">
         <v>170</v>
       </c>
-      <c r="M20" s="5">
+      <c r="K20" s="1"/>
+      <c r="O20" s="4">
+        <v>170</v>
+      </c>
+      <c r="P20" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5703,16 +6421,18 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="L21" s="4">
+      <c r="J21" s="1">
         <v>180</v>
       </c>
-      <c r="M21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+      <c r="O21" s="4">
+        <v>180</v>
+      </c>
+      <c r="P21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5722,16 +6442,18 @@
       <c r="C22" s="1">
         <v>15</v>
       </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="L22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="1">
+        <v>200</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="O22" s="4">
+        <v>200</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5741,10 +6463,18 @@
       <c r="C23" s="1">
         <v>15</v>
       </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="16">
+        <v>220</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="O23" s="4">
+        <v>220</v>
+      </c>
+      <c r="P23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5754,10 +6484,18 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="16">
+        <v>240</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="O24" s="4">
+        <v>240</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5767,10 +6505,18 @@
       <c r="C25" s="1">
         <v>11</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="16">
+        <v>260</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="O25" s="4">
+        <v>260</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5780,10 +6526,18 @@
       <c r="C26" s="1">
         <v>10</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="16">
+        <v>280</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="O26" s="4">
+        <v>280</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5793,10 +6547,18 @@
       <c r="C27" s="1">
         <v>13</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J27" s="16">
+        <v>300</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="O27" s="4">
+        <v>300</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5806,10 +6568,18 @@
       <c r="C28" s="1">
         <v>11</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J28" s="16">
+        <v>320</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="O28" s="4">
+        <v>320</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5819,10 +6589,18 @@
       <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J29" s="16">
+        <v>340</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="O29" s="4">
+        <v>340</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5832,10 +6610,18 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J30" s="16">
+        <v>360</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="O30" s="4">
+        <v>360</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5845,10 +6631,18 @@
       <c r="C31" s="1">
         <v>8</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="16">
+        <v>380</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="O31" s="4">
+        <v>380</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5858,10 +6652,18 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J32" s="16">
+        <v>400</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="O32" s="4">
+        <v>400</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5871,8 +6673,18 @@
       <c r="C33" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J33" s="16">
+        <v>420</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="O33" s="4">
+        <v>420</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5882,8 +6694,17 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J34" s="16">
+        <v>440</v>
+      </c>
+      <c r="O34" s="4">
+        <v>440</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5893,10 +6714,19 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J35" s="16">
+        <v>460</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4">
+        <v>460</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5906,10 +6736,19 @@
       <c r="C36" s="1">
         <v>21</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J36" s="16">
+        <v>480</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4">
+        <v>480</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5919,10 +6758,16 @@
       <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="4"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5932,10 +6777,10 @@
       <c r="C38" s="1">
         <v>19</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="4"/>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5945,10 +6790,10 @@
       <c r="C39" s="1">
         <v>76</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="4"/>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5958,10 +6803,10 @@
       <c r="C40" s="1">
         <v>11</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="4"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5971,10 +6816,10 @@
       <c r="C41" s="1">
         <v>7</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="4"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5984,10 +6829,10 @@
       <c r="C42" s="1">
         <v>16</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="4"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5997,10 +6842,10 @@
       <c r="C43" s="1">
         <v>16</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="4"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6010,10 +6855,10 @@
       <c r="C44" s="1">
         <v>10</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="4"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6023,10 +6868,10 @@
       <c r="C45" s="1">
         <v>20</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="4"/>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6036,10 +6881,10 @@
       <c r="C46" s="1">
         <v>6</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="4"/>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6049,10 +6894,10 @@
       <c r="C47" s="1">
         <v>27</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="4"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6062,10 +6907,10 @@
       <c r="C48" s="1">
         <v>18</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="4"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6075,10 +6920,10 @@
       <c r="C49" s="1">
         <v>15</v>
       </c>
-      <c r="L49" s="4"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="4"/>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6088,10 +6933,10 @@
       <c r="C50" s="1">
         <v>37</v>
       </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="4"/>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6101,10 +6946,10 @@
       <c r="C51" s="1">
         <v>41</v>
       </c>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="4"/>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6114,10 +6959,10 @@
       <c r="C52" s="1">
         <v>18</v>
       </c>
-      <c r="L52" s="4"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="4"/>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6127,10 +6972,10 @@
       <c r="C53" s="1">
         <v>10</v>
       </c>
-      <c r="L53" s="4"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="4"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6141,7 +6986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6152,7 +6997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6163,7 +7008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6174,7 +7019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6185,7 +7030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6196,7 +7041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6207,7 +7052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6219,18 +7064,19 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="N4:N9">
-    <sortCondition ref="N4"/>
+  <sortState ref="Q4:Q18">
+    <sortCondition ref="Q4"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="K1:K1048576"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="L1:L1048576"/>
     <mergeCell ref="H1:H1048576"/>
     <mergeCell ref="D1:D1048576"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="M2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6243,7 +7089,7 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6284,10 +7130,10 @@
       <c r="A2" s="1">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f>AVERAGE(K4:K63)</f>
         <v>3.5166666666666666</v>
       </c>
@@ -6317,10 +7163,10 @@
       <c r="A3" s="1">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <f>AVERAGE(M4:M15)</f>
         <v>17.583333333333332</v>
       </c>
@@ -6356,10 +7202,10 @@
       <c r="A4" s="1">
         <v>63</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f>AVERAGE(O4:O9)</f>
         <v>35.166666666666664</v>
       </c>
@@ -8183,8 +9029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8201,7 +9047,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -8211,7 +9057,7 @@
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
@@ -8234,7 +9080,7 @@
         <v>42</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -8552,7 +9398,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="15" t="str">
         <f>IF(H14&lt;H15, "ACCEPT", "REJECT")</f>
         <v>ACCEPT</v>
       </c>

--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
     <sheet name="QST &amp; CST Analysis" sheetId="3" r:id="rId2"/>
     <sheet name="Arrival Rate Analysis" sheetId="4" r:id="rId3"/>
     <sheet name="Goodness Fit Tests" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
@@ -263,8 +264,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -438,7 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,40 +490,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,13 +511,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -736,11 +740,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484421016"/>
-        <c:axId val="484422192"/>
+        <c:axId val="362114896"/>
+        <c:axId val="362115288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="484421016"/>
+        <c:axId val="362114896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484422192"/>
+        <c:crossAx val="362115288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484422192"/>
+        <c:axId val="362115288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484421016"/>
+        <c:crossAx val="362114896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,11 +1105,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="484419840"/>
-        <c:axId val="484422976"/>
+        <c:axId val="362116856"/>
+        <c:axId val="362117248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="484419840"/>
+        <c:axId val="362116856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484422976"/>
+        <c:crossAx val="362117248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1142,7 +1146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="484422976"/>
+        <c:axId val="362117248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="484419840"/>
+        <c:crossAx val="362116856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,11 +1362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="485802064"/>
-        <c:axId val="485802456"/>
+        <c:axId val="363029304"/>
+        <c:axId val="363030088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="485802064"/>
+        <c:axId val="363029304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485802456"/>
+        <c:crossAx val="363030088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485802456"/>
+        <c:axId val="363030088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485802064"/>
+        <c:crossAx val="363029304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1885,11 +1889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344205008"/>
-        <c:axId val="344205400"/>
+        <c:axId val="363190824"/>
+        <c:axId val="363191216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344205008"/>
+        <c:axId val="363190824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1918,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344205400"/>
+        <c:crossAx val="363191216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1926,7 +1930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344205400"/>
+        <c:axId val="363191216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344205008"/>
+        <c:crossAx val="363190824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2124,11 +2128,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344206184"/>
-        <c:axId val="344206576"/>
+        <c:axId val="363193568"/>
+        <c:axId val="363193960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344206184"/>
+        <c:axId val="363193568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,7 +2161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344206576"/>
+        <c:crossAx val="363193960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2165,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344206576"/>
+        <c:axId val="363193960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344206184"/>
+        <c:crossAx val="363193568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2327,11 +2331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344207360"/>
-        <c:axId val="344207752"/>
+        <c:axId val="363194744"/>
+        <c:axId val="363195136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344207360"/>
+        <c:axId val="363194744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,7 +2364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344207752"/>
+        <c:crossAx val="363195136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2368,7 +2372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344207752"/>
+        <c:axId val="363195136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344207360"/>
+        <c:crossAx val="363194744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2928,7 +2932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U143"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -2936,66 +2940,66 @@
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="23"/>
+    <col min="9" max="10" width="9" style="33"/>
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="23" customWidth="1"/>
-    <col min="19" max="19" width="9" style="23"/>
+    <col min="18" max="18" width="11.25" style="33" customWidth="1"/>
+    <col min="19" max="19" width="9" style="33"/>
     <col min="20" max="20" width="10.375" customWidth="1"/>
     <col min="21" max="21" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="K1" s="20" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="K1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="T1" s="20" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="T1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="20"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="13"/>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="21" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="T2" s="21" t="s">
+      <c r="Q2" s="32"/>
+      <c r="T2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="21"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3016,7 +3020,7 @@
       <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3036,7 @@
       <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="33"/>
       <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3067,7 +3071,7 @@
         <f>D4-C4</f>
         <v>9</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="11">
         <v>2</v>
       </c>
@@ -3084,7 +3088,7 @@
         <f>M4-L4</f>
         <v>21</v>
       </c>
-      <c r="O4" s="23"/>
+      <c r="O4" s="33"/>
       <c r="P4">
         <v>1</v>
       </c>
@@ -3119,7 +3123,7 @@
         <f t="shared" ref="F5:F37" si="1">D5-C5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="11">
         <v>1</v>
       </c>
@@ -3136,7 +3140,7 @@
         <f t="shared" ref="N5:N29" si="2">M5-L5</f>
         <v>9</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="33"/>
       <c r="P5">
         <v>1</v>
       </c>
@@ -3172,7 +3176,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="11">
         <v>1</v>
       </c>
@@ -3189,7 +3193,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="33"/>
       <c r="P6">
         <v>1</v>
       </c>
@@ -3218,7 +3222,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="11">
         <v>1</v>
       </c>
@@ -3235,7 +3239,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="O7" s="23"/>
+      <c r="O7" s="33"/>
       <c r="P7">
         <v>1</v>
       </c>
@@ -3264,7 +3268,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="11">
         <v>2</v>
       </c>
@@ -3281,7 +3285,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O8" s="23"/>
+      <c r="O8" s="33"/>
       <c r="P8">
         <v>1</v>
       </c>
@@ -3310,7 +3314,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="11">
         <v>3</v>
       </c>
@@ -3327,7 +3331,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O9" s="23"/>
+      <c r="O9" s="33"/>
       <c r="P9">
         <v>3</v>
       </c>
@@ -3356,7 +3360,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="11">
         <v>1</v>
       </c>
@@ -3373,7 +3377,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O10" s="23"/>
+      <c r="O10" s="33"/>
       <c r="P10">
         <v>2</v>
       </c>
@@ -3402,7 +3406,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="11">
         <v>2</v>
       </c>
@@ -3419,7 +3423,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="33"/>
       <c r="P11">
         <v>2</v>
       </c>
@@ -3448,7 +3452,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="11">
         <v>2</v>
       </c>
@@ -3465,7 +3469,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O12" s="23"/>
+      <c r="O12" s="33"/>
       <c r="P12">
         <v>2</v>
       </c>
@@ -3494,7 +3498,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="11">
         <v>1</v>
       </c>
@@ -3511,7 +3515,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O13" s="23"/>
+      <c r="O13" s="33"/>
       <c r="P13" s="19">
         <v>1</v>
       </c>
@@ -3540,7 +3544,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="11">
         <v>5</v>
       </c>
@@ -3557,7 +3561,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O14" s="23"/>
+      <c r="O14" s="33"/>
       <c r="P14">
         <v>2</v>
       </c>
@@ -3586,7 +3590,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="11">
         <v>2</v>
       </c>
@@ -3603,7 +3607,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O15" s="23"/>
+      <c r="O15" s="33"/>
       <c r="P15">
         <v>6</v>
       </c>
@@ -3632,7 +3636,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="11">
         <v>5</v>
       </c>
@@ -3649,7 +3653,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O16" s="23"/>
+      <c r="O16" s="33"/>
       <c r="P16">
         <v>1</v>
       </c>
@@ -3678,7 +3682,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="11">
         <v>3</v>
       </c>
@@ -3695,7 +3699,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O17" s="23"/>
+      <c r="O17" s="33"/>
       <c r="P17">
         <v>1</v>
       </c>
@@ -3724,7 +3728,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="11">
         <v>2</v>
       </c>
@@ -3741,7 +3745,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="O18" s="23"/>
+      <c r="O18" s="33"/>
       <c r="P18">
         <v>2</v>
       </c>
@@ -3770,7 +3774,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="11">
         <v>1</v>
       </c>
@@ -3787,7 +3791,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="O19" s="23"/>
+      <c r="O19" s="33"/>
       <c r="P19">
         <v>1</v>
       </c>
@@ -3816,7 +3820,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="11">
         <v>2</v>
       </c>
@@ -3833,7 +3837,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O20" s="23"/>
+      <c r="O20" s="33"/>
       <c r="P20">
         <v>1</v>
       </c>
@@ -3862,7 +3866,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G21" s="22"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="11">
         <v>1</v>
       </c>
@@ -3879,7 +3883,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O21" s="23"/>
+      <c r="O21" s="33"/>
       <c r="P21">
         <v>5</v>
       </c>
@@ -3908,7 +3912,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="11">
         <v>1</v>
       </c>
@@ -3925,7 +3929,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O22" s="23"/>
+      <c r="O22" s="33"/>
       <c r="P22">
         <v>6</v>
       </c>
@@ -3954,7 +3958,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G23" s="22"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="11">
         <v>3</v>
       </c>
@@ -3971,7 +3975,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O23" s="23"/>
+      <c r="O23" s="33"/>
       <c r="P23">
         <v>2</v>
       </c>
@@ -4000,7 +4004,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="11">
         <v>1</v>
       </c>
@@ -4017,7 +4021,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O24" s="23"/>
+      <c r="O24" s="33"/>
       <c r="P24">
         <v>1</v>
       </c>
@@ -4046,7 +4050,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="11">
         <v>2</v>
       </c>
@@ -4063,7 +4067,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O25" s="23"/>
+      <c r="O25" s="33"/>
       <c r="P25">
         <v>1</v>
       </c>
@@ -4092,7 +4096,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="11">
         <v>4</v>
       </c>
@@ -4109,7 +4113,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O26" s="23"/>
+      <c r="O26" s="33"/>
       <c r="P26">
         <v>1</v>
       </c>
@@ -4138,7 +4142,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="11">
         <v>1</v>
       </c>
@@ -4155,7 +4159,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O27" s="23"/>
+      <c r="O27" s="33"/>
       <c r="P27">
         <v>1</v>
       </c>
@@ -4184,7 +4188,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="11">
         <v>1</v>
       </c>
@@ -4201,7 +4205,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O28" s="23"/>
+      <c r="O28" s="33"/>
       <c r="P28">
         <v>3</v>
       </c>
@@ -4230,7 +4234,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="11">
         <v>2</v>
       </c>
@@ -4247,7 +4251,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O29" s="23"/>
+      <c r="O29" s="33"/>
       <c r="P29">
         <v>2</v>
       </c>
@@ -4276,11 +4280,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="11">
         <v>4</v>
       </c>
-      <c r="O30" s="23"/>
+      <c r="O30" s="33"/>
       <c r="P30">
         <v>1</v>
       </c>
@@ -4309,11 +4313,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="11">
         <v>7</v>
       </c>
-      <c r="O31" s="23"/>
+      <c r="O31" s="33"/>
       <c r="P31">
         <v>3</v>
       </c>
@@ -4342,11 +4346,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="11">
         <v>2</v>
       </c>
-      <c r="O32" s="23"/>
+      <c r="O32" s="33"/>
       <c r="P32">
         <v>1</v>
       </c>
@@ -4375,11 +4379,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="O33" s="23"/>
+      <c r="O33" s="33"/>
       <c r="P33">
         <v>1</v>
       </c>
@@ -4408,11 +4412,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="30"/>
       <c r="H34" s="11">
         <v>1</v>
       </c>
-      <c r="O34" s="23"/>
+      <c r="O34" s="33"/>
       <c r="P34">
         <v>1</v>
       </c>
@@ -4441,11 +4445,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="30"/>
       <c r="H35" s="11">
         <v>2</v>
       </c>
-      <c r="O35" s="23"/>
+      <c r="O35" s="33"/>
       <c r="P35">
         <v>1</v>
       </c>
@@ -4474,11 +4478,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="30"/>
       <c r="H36" s="11">
         <v>2</v>
       </c>
-      <c r="O36" s="23"/>
+      <c r="O36" s="33"/>
       <c r="P36">
         <v>1</v>
       </c>
@@ -4507,11 +4511,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G37" s="22"/>
+      <c r="G37" s="30"/>
       <c r="H37" s="11">
         <v>3</v>
       </c>
-      <c r="O37" s="23"/>
+      <c r="O37" s="33"/>
       <c r="P37">
         <v>2</v>
       </c>
@@ -4520,11 +4524,11 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G38" s="22"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="11">
         <v>1</v>
       </c>
-      <c r="O38" s="23"/>
+      <c r="O38" s="33"/>
       <c r="P38">
         <v>2</v>
       </c>
@@ -4534,11 +4538,11 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="G39" s="22"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="11">
         <v>1</v>
       </c>
-      <c r="O39" s="23"/>
+      <c r="O39" s="33"/>
       <c r="P39">
         <v>3</v>
       </c>
@@ -4548,8 +4552,8 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="G40" s="22"/>
-      <c r="O40" s="23"/>
+      <c r="G40" s="30"/>
+      <c r="O40" s="33"/>
       <c r="P40">
         <v>1</v>
       </c>
@@ -4559,8 +4563,8 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="G41" s="22"/>
-      <c r="O41" s="23"/>
+      <c r="G41" s="30"/>
+      <c r="O41" s="33"/>
       <c r="P41">
         <v>2</v>
       </c>
@@ -4570,8 +4574,8 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="G42" s="22"/>
-      <c r="O42" s="23"/>
+      <c r="G42" s="30"/>
+      <c r="O42" s="33"/>
       <c r="P42">
         <v>2</v>
       </c>
@@ -4581,8 +4585,8 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="G43" s="22"/>
-      <c r="O43" s="23"/>
+      <c r="G43" s="30"/>
+      <c r="O43" s="33"/>
       <c r="P43">
         <v>1</v>
       </c>
@@ -4592,8 +4596,8 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="G44" s="22"/>
-      <c r="O44" s="23"/>
+      <c r="G44" s="30"/>
+      <c r="O44" s="33"/>
       <c r="P44">
         <v>1</v>
       </c>
@@ -4603,8 +4607,8 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="G45" s="22"/>
-      <c r="O45" s="23"/>
+      <c r="G45" s="30"/>
+      <c r="O45" s="33"/>
       <c r="P45">
         <v>2</v>
       </c>
@@ -4614,8 +4618,8 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="G46" s="22"/>
-      <c r="O46" s="23"/>
+      <c r="G46" s="30"/>
+      <c r="O46" s="33"/>
       <c r="P46">
         <v>1</v>
       </c>
@@ -4625,8 +4629,8 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="G47" s="22"/>
-      <c r="O47" s="23"/>
+      <c r="G47" s="30"/>
+      <c r="O47" s="33"/>
       <c r="P47">
         <v>1</v>
       </c>
@@ -4636,8 +4640,8 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="G48" s="22"/>
-      <c r="O48" s="23"/>
+      <c r="G48" s="30"/>
+      <c r="O48" s="33"/>
       <c r="P48">
         <v>1</v>
       </c>
@@ -4647,8 +4651,8 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="G49" s="22"/>
-      <c r="O49" s="23"/>
+      <c r="G49" s="30"/>
+      <c r="O49" s="33"/>
       <c r="P49">
         <v>1</v>
       </c>
@@ -4658,8 +4662,8 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="G50" s="22"/>
-      <c r="O50" s="23"/>
+      <c r="G50" s="30"/>
+      <c r="O50" s="33"/>
       <c r="P50">
         <v>1</v>
       </c>
@@ -4669,8 +4673,8 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="G51" s="22"/>
-      <c r="O51" s="23"/>
+      <c r="G51" s="30"/>
+      <c r="O51" s="33"/>
       <c r="P51">
         <v>1</v>
       </c>
@@ -4680,8 +4684,8 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="G52" s="22"/>
-      <c r="O52" s="23"/>
+      <c r="G52" s="30"/>
+      <c r="O52" s="33"/>
       <c r="P52">
         <v>1</v>
       </c>
@@ -4691,8 +4695,8 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="G53" s="22"/>
-      <c r="O53" s="23"/>
+      <c r="G53" s="30"/>
+      <c r="O53" s="33"/>
       <c r="P53">
         <v>3</v>
       </c>
@@ -4702,8 +4706,8 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="G54" s="22"/>
-      <c r="O54" s="23"/>
+      <c r="G54" s="30"/>
+      <c r="O54" s="33"/>
       <c r="P54">
         <v>1</v>
       </c>
@@ -4713,8 +4717,8 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="G55" s="22"/>
-      <c r="O55" s="23"/>
+      <c r="G55" s="30"/>
+      <c r="O55" s="33"/>
       <c r="P55">
         <v>2</v>
       </c>
@@ -4724,8 +4728,8 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="G56" s="22"/>
-      <c r="O56" s="23"/>
+      <c r="G56" s="30"/>
+      <c r="O56" s="33"/>
       <c r="P56">
         <v>1</v>
       </c>
@@ -4735,8 +4739,8 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="G57" s="22"/>
-      <c r="O57" s="23"/>
+      <c r="G57" s="30"/>
+      <c r="O57" s="33"/>
       <c r="P57">
         <v>1</v>
       </c>
@@ -4746,8 +4750,8 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="G58" s="22"/>
-      <c r="O58" s="23"/>
+      <c r="G58" s="30"/>
+      <c r="O58" s="33"/>
       <c r="P58">
         <v>1</v>
       </c>
@@ -4757,8 +4761,8 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="G59" s="22"/>
-      <c r="O59" s="23"/>
+      <c r="G59" s="30"/>
+      <c r="O59" s="33"/>
       <c r="P59">
         <v>1</v>
       </c>
@@ -4768,8 +4772,8 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="G60" s="22"/>
-      <c r="O60" s="23"/>
+      <c r="G60" s="30"/>
+      <c r="O60" s="33"/>
       <c r="P60">
         <v>1</v>
       </c>
@@ -4779,8 +4783,8 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="G61" s="22"/>
-      <c r="O61" s="23"/>
+      <c r="G61" s="30"/>
+      <c r="O61" s="33"/>
       <c r="P61">
         <v>1</v>
       </c>
@@ -4790,8 +4794,8 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="G62" s="22"/>
-      <c r="O62" s="23"/>
+      <c r="G62" s="30"/>
+      <c r="O62" s="33"/>
       <c r="P62">
         <v>1</v>
       </c>
@@ -4801,8 +4805,8 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="G63" s="22"/>
-      <c r="O63" s="23"/>
+      <c r="G63" s="30"/>
+      <c r="O63" s="33"/>
       <c r="P63">
         <v>1</v>
       </c>
@@ -4812,8 +4816,8 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="G64" s="22"/>
-      <c r="O64" s="23"/>
+      <c r="G64" s="30"/>
+      <c r="O64" s="33"/>
       <c r="P64">
         <v>1</v>
       </c>
@@ -4823,8 +4827,8 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="G65" s="22"/>
-      <c r="O65" s="23"/>
+      <c r="G65" s="30"/>
+      <c r="O65" s="33"/>
       <c r="P65">
         <v>1</v>
       </c>
@@ -4834,8 +4838,8 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="G66" s="22"/>
-      <c r="O66" s="23"/>
+      <c r="G66" s="30"/>
+      <c r="O66" s="33"/>
       <c r="P66">
         <v>2</v>
       </c>
@@ -4845,8 +4849,8 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="G67" s="22"/>
-      <c r="O67" s="23"/>
+      <c r="G67" s="30"/>
+      <c r="O67" s="33"/>
       <c r="P67">
         <v>1</v>
       </c>
@@ -4856,8 +4860,8 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="G68" s="22"/>
-      <c r="O68" s="23"/>
+      <c r="G68" s="30"/>
+      <c r="O68" s="33"/>
       <c r="P68">
         <v>3</v>
       </c>
@@ -4867,8 +4871,8 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="G69" s="22"/>
-      <c r="O69" s="23"/>
+      <c r="G69" s="30"/>
+      <c r="O69" s="33"/>
       <c r="P69">
         <v>1</v>
       </c>
@@ -4878,8 +4882,8 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="G70" s="22"/>
-      <c r="O70" s="23"/>
+      <c r="G70" s="30"/>
+      <c r="O70" s="33"/>
       <c r="P70">
         <v>2</v>
       </c>
@@ -4889,8 +4893,8 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="G71" s="22"/>
-      <c r="O71" s="23"/>
+      <c r="G71" s="30"/>
+      <c r="O71" s="33"/>
       <c r="P71">
         <v>2</v>
       </c>
@@ -4900,8 +4904,8 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="G72" s="22"/>
-      <c r="O72" s="23"/>
+      <c r="G72" s="30"/>
+      <c r="O72" s="33"/>
       <c r="P72">
         <v>7</v>
       </c>
@@ -4911,8 +4915,8 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
-      <c r="G73" s="22"/>
-      <c r="O73" s="23"/>
+      <c r="G73" s="30"/>
+      <c r="O73" s="33"/>
       <c r="P73">
         <v>1</v>
       </c>
@@ -4922,8 +4926,8 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="G74" s="22"/>
-      <c r="O74" s="23"/>
+      <c r="G74" s="30"/>
+      <c r="O74" s="33"/>
       <c r="P74">
         <v>1</v>
       </c>
@@ -4933,8 +4937,8 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="G75" s="22"/>
-      <c r="O75" s="23"/>
+      <c r="G75" s="30"/>
+      <c r="O75" s="33"/>
       <c r="P75">
         <v>1</v>
       </c>
@@ -4943,8 +4947,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G76" s="22"/>
-      <c r="O76" s="23"/>
+      <c r="G76" s="30"/>
+      <c r="O76" s="33"/>
       <c r="P76">
         <v>1</v>
       </c>
@@ -4953,8 +4957,8 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G77" s="22"/>
-      <c r="O77" s="23"/>
+      <c r="G77" s="30"/>
+      <c r="O77" s="33"/>
       <c r="P77">
         <v>3</v>
       </c>
@@ -4963,8 +4967,8 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G78" s="22"/>
-      <c r="O78" s="23"/>
+      <c r="G78" s="30"/>
+      <c r="O78" s="33"/>
       <c r="P78">
         <v>1</v>
       </c>
@@ -4973,8 +4977,8 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G79" s="22"/>
-      <c r="O79" s="23"/>
+      <c r="G79" s="30"/>
+      <c r="O79" s="33"/>
       <c r="P79">
         <v>1</v>
       </c>
@@ -4983,8 +4987,8 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G80" s="22"/>
-      <c r="O80" s="23"/>
+      <c r="G80" s="30"/>
+      <c r="O80" s="33"/>
       <c r="P80">
         <v>1</v>
       </c>
@@ -4993,8 +4997,8 @@
       </c>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G81" s="22"/>
-      <c r="O81" s="23"/>
+      <c r="G81" s="30"/>
+      <c r="O81" s="33"/>
       <c r="P81">
         <v>1</v>
       </c>
@@ -5003,8 +5007,8 @@
       </c>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G82" s="22"/>
-      <c r="O82" s="23"/>
+      <c r="G82" s="30"/>
+      <c r="O82" s="33"/>
       <c r="P82">
         <v>1</v>
       </c>
@@ -5013,8 +5017,8 @@
       </c>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G83" s="22"/>
-      <c r="O83" s="23"/>
+      <c r="G83" s="30"/>
+      <c r="O83" s="33"/>
       <c r="P83">
         <v>1</v>
       </c>
@@ -5023,8 +5027,8 @@
       </c>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G84" s="22"/>
-      <c r="O84" s="23"/>
+      <c r="G84" s="30"/>
+      <c r="O84" s="33"/>
       <c r="P84">
         <v>1</v>
       </c>
@@ -5033,8 +5037,8 @@
       </c>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G85" s="22"/>
-      <c r="O85" s="23"/>
+      <c r="G85" s="30"/>
+      <c r="O85" s="33"/>
       <c r="P85">
         <v>1</v>
       </c>
@@ -5043,8 +5047,8 @@
       </c>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G86" s="22"/>
-      <c r="O86" s="23"/>
+      <c r="G86" s="30"/>
+      <c r="O86" s="33"/>
       <c r="P86">
         <v>1</v>
       </c>
@@ -5053,8 +5057,8 @@
       </c>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G87" s="22"/>
-      <c r="O87" s="23"/>
+      <c r="G87" s="30"/>
+      <c r="O87" s="33"/>
       <c r="P87">
         <v>2</v>
       </c>
@@ -5063,8 +5067,8 @@
       </c>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G88" s="22"/>
-      <c r="O88" s="23"/>
+      <c r="G88" s="30"/>
+      <c r="O88" s="33"/>
       <c r="P88">
         <v>1</v>
       </c>
@@ -5073,8 +5077,8 @@
       </c>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G89" s="22"/>
-      <c r="O89" s="23"/>
+      <c r="G89" s="30"/>
+      <c r="O89" s="33"/>
       <c r="P89">
         <v>1</v>
       </c>
@@ -5083,8 +5087,8 @@
       </c>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G90" s="22"/>
-      <c r="O90" s="23"/>
+      <c r="G90" s="30"/>
+      <c r="O90" s="33"/>
       <c r="P90">
         <v>1</v>
       </c>
@@ -5093,8 +5097,8 @@
       </c>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G91" s="22"/>
-      <c r="O91" s="23"/>
+      <c r="G91" s="30"/>
+      <c r="O91" s="33"/>
       <c r="P91">
         <v>1</v>
       </c>
@@ -5103,8 +5107,8 @@
       </c>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G92" s="22"/>
-      <c r="O92" s="23"/>
+      <c r="G92" s="30"/>
+      <c r="O92" s="33"/>
       <c r="P92">
         <v>1</v>
       </c>
@@ -5113,8 +5117,8 @@
       </c>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G93" s="22"/>
-      <c r="O93" s="23"/>
+      <c r="G93" s="30"/>
+      <c r="O93" s="33"/>
       <c r="P93">
         <v>2</v>
       </c>
@@ -5123,8 +5127,8 @@
       </c>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G94" s="22"/>
-      <c r="O94" s="23"/>
+      <c r="G94" s="30"/>
+      <c r="O94" s="33"/>
       <c r="P94">
         <v>2</v>
       </c>
@@ -5133,8 +5137,8 @@
       </c>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G95" s="22"/>
-      <c r="O95" s="23"/>
+      <c r="G95" s="30"/>
+      <c r="O95" s="33"/>
       <c r="P95">
         <v>2</v>
       </c>
@@ -5143,8 +5147,8 @@
       </c>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G96" s="22"/>
-      <c r="O96" s="23"/>
+      <c r="G96" s="30"/>
+      <c r="O96" s="33"/>
       <c r="P96">
         <v>1</v>
       </c>
@@ -5153,8 +5157,8 @@
       </c>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G97" s="22"/>
-      <c r="O97" s="23"/>
+      <c r="G97" s="30"/>
+      <c r="O97" s="33"/>
       <c r="P97">
         <v>1</v>
       </c>
@@ -5163,8 +5167,8 @@
       </c>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G98" s="22"/>
-      <c r="O98" s="23"/>
+      <c r="G98" s="30"/>
+      <c r="O98" s="33"/>
       <c r="P98">
         <v>1</v>
       </c>
@@ -5173,8 +5177,8 @@
       </c>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G99" s="22"/>
-      <c r="O99" s="23"/>
+      <c r="G99" s="30"/>
+      <c r="O99" s="33"/>
       <c r="P99">
         <v>1</v>
       </c>
@@ -5183,8 +5187,8 @@
       </c>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G100" s="22"/>
-      <c r="O100" s="23"/>
+      <c r="G100" s="30"/>
+      <c r="O100" s="33"/>
       <c r="P100">
         <v>1</v>
       </c>
@@ -5193,8 +5197,8 @@
       </c>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G101" s="22"/>
-      <c r="O101" s="23"/>
+      <c r="G101" s="30"/>
+      <c r="O101" s="33"/>
       <c r="P101">
         <v>2</v>
       </c>
@@ -5203,8 +5207,8 @@
       </c>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G102" s="22"/>
-      <c r="O102" s="23"/>
+      <c r="G102" s="30"/>
+      <c r="O102" s="33"/>
       <c r="P102">
         <v>1</v>
       </c>
@@ -5213,8 +5217,8 @@
       </c>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G103" s="22"/>
-      <c r="O103" s="23"/>
+      <c r="G103" s="30"/>
+      <c r="O103" s="33"/>
       <c r="P103">
         <v>2</v>
       </c>
@@ -5223,8 +5227,8 @@
       </c>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G104" s="22"/>
-      <c r="O104" s="23"/>
+      <c r="G104" s="30"/>
+      <c r="O104" s="33"/>
       <c r="P104">
         <v>1</v>
       </c>
@@ -5233,8 +5237,8 @@
       </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G105" s="22"/>
-      <c r="O105" s="23"/>
+      <c r="G105" s="30"/>
+      <c r="O105" s="33"/>
       <c r="P105">
         <v>1</v>
       </c>
@@ -5243,8 +5247,8 @@
       </c>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G106" s="22"/>
-      <c r="O106" s="23"/>
+      <c r="G106" s="30"/>
+      <c r="O106" s="33"/>
       <c r="P106">
         <v>3</v>
       </c>
@@ -5253,8 +5257,8 @@
       </c>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G107" s="22"/>
-      <c r="O107" s="23"/>
+      <c r="G107" s="30"/>
+      <c r="O107" s="33"/>
       <c r="P107">
         <v>2</v>
       </c>
@@ -5263,8 +5267,8 @@
       </c>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G108" s="22"/>
-      <c r="O108" s="23"/>
+      <c r="G108" s="30"/>
+      <c r="O108" s="33"/>
       <c r="P108">
         <v>1</v>
       </c>
@@ -5273,8 +5277,8 @@
       </c>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G109" s="22"/>
-      <c r="O109" s="23"/>
+      <c r="G109" s="30"/>
+      <c r="O109" s="33"/>
       <c r="P109">
         <v>2</v>
       </c>
@@ -5283,8 +5287,8 @@
       </c>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G110" s="22"/>
-      <c r="O110" s="23"/>
+      <c r="G110" s="30"/>
+      <c r="O110" s="33"/>
       <c r="P110">
         <v>1</v>
       </c>
@@ -5293,8 +5297,8 @@
       </c>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G111" s="22"/>
-      <c r="O111" s="23"/>
+      <c r="G111" s="30"/>
+      <c r="O111" s="33"/>
       <c r="P111">
         <v>1</v>
       </c>
@@ -5303,8 +5307,8 @@
       </c>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G112" s="22"/>
-      <c r="O112" s="23"/>
+      <c r="G112" s="30"/>
+      <c r="O112" s="33"/>
       <c r="P112">
         <v>2</v>
       </c>
@@ -5313,8 +5317,8 @@
       </c>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G113" s="22"/>
-      <c r="O113" s="23"/>
+      <c r="G113" s="30"/>
+      <c r="O113" s="33"/>
       <c r="P113">
         <v>1</v>
       </c>
@@ -5323,8 +5327,8 @@
       </c>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G114" s="22"/>
-      <c r="O114" s="23"/>
+      <c r="G114" s="30"/>
+      <c r="O114" s="33"/>
       <c r="P114">
         <v>1</v>
       </c>
@@ -5333,8 +5337,8 @@
       </c>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G115" s="22"/>
-      <c r="O115" s="23"/>
+      <c r="G115" s="30"/>
+      <c r="O115" s="33"/>
       <c r="P115">
         <v>2</v>
       </c>
@@ -5343,8 +5347,8 @@
       </c>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G116" s="22"/>
-      <c r="O116" s="23"/>
+      <c r="G116" s="30"/>
+      <c r="O116" s="33"/>
       <c r="P116">
         <v>1</v>
       </c>
@@ -5353,8 +5357,8 @@
       </c>
     </row>
     <row r="117" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G117" s="22"/>
-      <c r="O117" s="23"/>
+      <c r="G117" s="30"/>
+      <c r="O117" s="33"/>
       <c r="P117">
         <v>1</v>
       </c>
@@ -5363,8 +5367,8 @@
       </c>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G118" s="22"/>
-      <c r="O118" s="23"/>
+      <c r="G118" s="30"/>
+      <c r="O118" s="33"/>
       <c r="P118">
         <v>1</v>
       </c>
@@ -5373,8 +5377,8 @@
       </c>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G119" s="22"/>
-      <c r="O119" s="23"/>
+      <c r="G119" s="30"/>
+      <c r="O119" s="33"/>
       <c r="P119">
         <v>1</v>
       </c>
@@ -5383,8 +5387,8 @@
       </c>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G120" s="22"/>
-      <c r="O120" s="23"/>
+      <c r="G120" s="30"/>
+      <c r="O120" s="33"/>
       <c r="P120">
         <v>2</v>
       </c>
@@ -5393,8 +5397,8 @@
       </c>
     </row>
     <row r="121" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G121" s="22"/>
-      <c r="O121" s="23"/>
+      <c r="G121" s="30"/>
+      <c r="O121" s="33"/>
       <c r="P121">
         <v>1</v>
       </c>
@@ -5403,8 +5407,8 @@
       </c>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G122" s="22"/>
-      <c r="O122" s="23"/>
+      <c r="G122" s="30"/>
+      <c r="O122" s="33"/>
       <c r="P122">
         <v>1</v>
       </c>
@@ -5413,8 +5417,8 @@
       </c>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G123" s="22"/>
-      <c r="O123" s="23"/>
+      <c r="G123" s="30"/>
+      <c r="O123" s="33"/>
       <c r="P123">
         <v>1</v>
       </c>
@@ -5423,8 +5427,8 @@
       </c>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G124" s="22"/>
-      <c r="O124" s="23"/>
+      <c r="G124" s="30"/>
+      <c r="O124" s="33"/>
       <c r="P124">
         <v>1</v>
       </c>
@@ -5433,8 +5437,8 @@
       </c>
     </row>
     <row r="125" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G125" s="22"/>
-      <c r="O125" s="23"/>
+      <c r="G125" s="30"/>
+      <c r="O125" s="33"/>
       <c r="P125">
         <v>1</v>
       </c>
@@ -5443,8 +5447,8 @@
       </c>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G126" s="22"/>
-      <c r="O126" s="23"/>
+      <c r="G126" s="30"/>
+      <c r="O126" s="33"/>
       <c r="P126">
         <v>2</v>
       </c>
@@ -5453,8 +5457,8 @@
       </c>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G127" s="22"/>
-      <c r="O127" s="23"/>
+      <c r="G127" s="30"/>
+      <c r="O127" s="33"/>
       <c r="P127">
         <v>2</v>
       </c>
@@ -5463,8 +5467,8 @@
       </c>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G128" s="22"/>
-      <c r="O128" s="23"/>
+      <c r="G128" s="30"/>
+      <c r="O128" s="33"/>
       <c r="P128">
         <v>2</v>
       </c>
@@ -5473,8 +5477,8 @@
       </c>
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G129" s="22"/>
-      <c r="O129" s="23"/>
+      <c r="G129" s="30"/>
+      <c r="O129" s="33"/>
       <c r="P129">
         <v>1</v>
       </c>
@@ -5483,8 +5487,8 @@
       </c>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G130" s="22"/>
-      <c r="O130" s="23"/>
+      <c r="G130" s="30"/>
+      <c r="O130" s="33"/>
       <c r="P130">
         <v>1</v>
       </c>
@@ -5493,8 +5497,8 @@
       </c>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G131" s="22"/>
-      <c r="O131" s="23"/>
+      <c r="G131" s="30"/>
+      <c r="O131" s="33"/>
       <c r="P131">
         <v>1</v>
       </c>
@@ -5503,8 +5507,8 @@
       </c>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G132" s="22"/>
-      <c r="O132" s="23"/>
+      <c r="G132" s="30"/>
+      <c r="O132" s="33"/>
       <c r="P132">
         <v>2</v>
       </c>
@@ -5513,8 +5517,8 @@
       </c>
     </row>
     <row r="133" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G133" s="22"/>
-      <c r="O133" s="23"/>
+      <c r="G133" s="30"/>
+      <c r="O133" s="33"/>
       <c r="P133">
         <v>1</v>
       </c>
@@ -5523,8 +5527,8 @@
       </c>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G134" s="22"/>
-      <c r="O134" s="23"/>
+      <c r="G134" s="30"/>
+      <c r="O134" s="33"/>
       <c r="P134">
         <v>1</v>
       </c>
@@ -5533,8 +5537,8 @@
       </c>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G135" s="22"/>
-      <c r="O135" s="23"/>
+      <c r="G135" s="30"/>
+      <c r="O135" s="33"/>
       <c r="P135">
         <v>1</v>
       </c>
@@ -5543,8 +5547,8 @@
       </c>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G136" s="22"/>
-      <c r="O136" s="23"/>
+      <c r="G136" s="30"/>
+      <c r="O136" s="33"/>
       <c r="P136">
         <v>2</v>
       </c>
@@ -5553,8 +5557,8 @@
       </c>
     </row>
     <row r="137" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G137" s="22"/>
-      <c r="O137" s="23"/>
+      <c r="G137" s="30"/>
+      <c r="O137" s="33"/>
       <c r="P137">
         <v>2</v>
       </c>
@@ -5563,8 +5567,8 @@
       </c>
     </row>
     <row r="138" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G138" s="22"/>
-      <c r="O138" s="23"/>
+      <c r="G138" s="30"/>
+      <c r="O138" s="33"/>
       <c r="P138">
         <v>4</v>
       </c>
@@ -5573,8 +5577,8 @@
       </c>
     </row>
     <row r="139" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G139" s="22"/>
-      <c r="O139" s="23"/>
+      <c r="G139" s="30"/>
+      <c r="O139" s="33"/>
       <c r="P139">
         <v>1</v>
       </c>
@@ -5583,8 +5587,8 @@
       </c>
     </row>
     <row r="140" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G140" s="22"/>
-      <c r="O140" s="23"/>
+      <c r="G140" s="30"/>
+      <c r="O140" s="33"/>
       <c r="P140">
         <v>2</v>
       </c>
@@ -5593,8 +5597,8 @@
       </c>
     </row>
     <row r="141" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G141" s="22"/>
-      <c r="O141" s="23"/>
+      <c r="G141" s="30"/>
+      <c r="O141" s="33"/>
       <c r="P141">
         <v>1</v>
       </c>
@@ -5603,12 +5607,12 @@
       </c>
     </row>
     <row r="142" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G142" s="22"/>
-      <c r="O142" s="23"/>
+      <c r="G142" s="30"/>
+      <c r="O142" s="33"/>
     </row>
     <row r="143" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G143" s="22"/>
-      <c r="O143" s="23"/>
+      <c r="G143" s="30"/>
+      <c r="O143" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5635,8 +5639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5644,13 +5648,13 @@
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="23"/>
+    <col min="4" max="4" width="9" style="33"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="23"/>
+    <col min="8" max="8" width="9" style="33"/>
     <col min="9" max="9" width="9" style="17"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="23"/>
+    <col min="12" max="12" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5663,24 +5667,24 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="28" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="I1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="M1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -5698,23 +5702,23 @@
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27" t="s">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="27"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -5737,13 +5741,13 @@
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="29" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -5910,6 +5914,10 @@
       </c>
       <c r="C7" s="1">
         <v>9</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.STDEV.S(B2:B61)</f>
+        <v>79.799768842676684</v>
       </c>
       <c r="I7" s="17">
         <v>120</v>
@@ -7089,18 +7097,18 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="37" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="37" customWidth="1"/>
     <col min="6" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="33" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7108,23 +7116,23 @@
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="F1" s="26" t="s">
+      <c r="D1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="J1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -7146,18 +7154,18 @@
       <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="27"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -9030,7 +9038,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9046,16 +9054,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -9084,16 +9092,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="24">
         <v>0</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="23">
         <v>6</v>
       </c>
       <c r="C3" s="17">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="22">
         <f>$B$14*C3</f>
         <v>1.8120000000000001</v>
       </c>
@@ -9103,16 +9111,16 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
-        <v>1</v>
-      </c>
-      <c r="B4" s="32">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
         <v>6</v>
       </c>
       <c r="C4" s="17">
         <v>0.1057</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="22">
         <f t="shared" ref="D4:D13" si="0">$B$14*C4</f>
         <v>6.3420000000000005</v>
       </c>
@@ -9123,26 +9131,26 @@
         <f>SUM(B3:B4)</f>
         <v>12</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="22">
         <f>SUM(D3:D4)</f>
         <v>8.1539999999999999</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="22">
         <f t="shared" ref="H4:H9" si="1">((F4-G4)^2) / G4</f>
         <v>1.8140441501103755</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="23">
         <v>12</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="21">
         <v>0.185</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
@@ -9153,26 +9161,26 @@
         <f>B5</f>
         <v>12</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="22">
         <f>D5</f>
         <v>11.1</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="22">
         <f t="shared" si="1"/>
         <v>7.2972972972973033E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="23">
         <v>10</v>
       </c>
       <c r="C6" s="17">
         <v>0.21579999999999999</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>12.948</v>
       </c>
@@ -9183,26 +9191,26 @@
         <f t="shared" ref="F6:F8" si="2">B6</f>
         <v>10</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="22">
         <f t="shared" ref="G6:G8" si="3">D6</f>
         <v>12.948</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="22">
         <f t="shared" si="1"/>
         <v>0.67120049428483175</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="23">
         <v>9</v>
       </c>
       <c r="C7" s="17">
         <v>0.1888</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>11.327999999999999</v>
       </c>
@@ -9213,26 +9221,26 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="22">
         <f t="shared" si="3"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="22">
         <f t="shared" si="1"/>
         <v>0.47842372881355905</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
       <c r="C8" s="17">
         <v>0.13220000000000001</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>7.9320000000000004</v>
       </c>
@@ -9243,56 +9251,56 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="22">
         <f t="shared" si="3"/>
         <v>7.9320000000000004</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>0.47057791225416051</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="23">
         <v>4</v>
       </c>
       <c r="C9" s="17">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="22">
         <f t="shared" si="0"/>
         <v>4.6260000000000003</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="25" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="17">
         <f>SUM(B9:B13)</f>
         <v>11</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="22">
         <f>SUM(D9:D13)</f>
         <v>8.484</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
         <v>0.74614049976426222</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="23">
         <v>1</v>
       </c>
       <c r="C10" s="17">
         <v>3.85E-2</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>2.31</v>
       </c>
@@ -9302,16 +9310,16 @@
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="23">
         <v>2</v>
       </c>
       <c r="C11" s="17">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="22">
         <f t="shared" si="0"/>
         <v>1.0139999999999998</v>
       </c>
@@ -9321,16 +9329,16 @@
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="23">
         <v>2</v>
       </c>
       <c r="C12" s="17">
         <v>6.6E-3</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="22">
         <f t="shared" si="0"/>
         <v>0.39600000000000002</v>
       </c>
@@ -9340,16 +9348,16 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="23">
         <v>2</v>
       </c>
       <c r="C13" s="17">
         <v>2.3E-3</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
@@ -9359,8 +9367,8 @@
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26">
         <f>SUM(B3:B13)</f>
         <v>60</v>
       </c>
@@ -9371,28 +9379,28 @@
       <c r="G14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="27">
         <f>SUM(H4:H13)</f>
         <v>4.2533597582001628</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="22">
         <v>11.07</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -9641,4 +9649,831 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="20"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="20"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="20"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="20"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="20"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="20"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="20"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="20"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="20"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="20"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="20"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="20"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="20"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="20"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="20"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="20"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="20"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="20"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="20"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="20"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="20"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="20"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="20"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="20"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="20"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="20"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="20"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="20"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="20"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="20"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="20"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="20"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="20"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="20"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="20"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="20"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="20"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="20"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="20"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="20"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="20"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="20"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="20"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="20"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="20"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="20"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="20"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="20"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="20"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="20"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="20"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="20"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="20"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="20"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="20"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="20"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="20"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="20"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="20"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="20"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="20"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="20"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="20"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="20"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="20"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="20"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="20"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="20"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="20"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="20"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="20"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="20"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="20"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="20"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="20"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="20"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="20"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="20"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="20"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="20"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="20"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="20"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="20"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="20"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="20"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="20"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="20"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="20"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="20"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="20"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="20"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="20"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="20"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="20"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="20"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="20"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="20"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="20"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="20"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="20"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="20"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="20"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="20"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="20"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="20"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="20"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="20"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="20"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="20"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="20"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="20"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="20"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="20"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="20"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="20"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="20"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A212">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/RAW-DATA.xlsx
+++ b/data/RAW-DATA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11805" windowHeight="23535" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="2" r:id="rId1"/>
@@ -439,7 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,9 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,31 +490,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +531,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,11 +746,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="362114896"/>
-        <c:axId val="362115288"/>
+        <c:axId val="330291272"/>
+        <c:axId val="330294408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362114896"/>
+        <c:axId val="330291272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362115288"/>
+        <c:crossAx val="330294408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362115288"/>
+        <c:axId val="330294408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362114896"/>
+        <c:crossAx val="330291272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -852,7 +858,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram</a:t>
+              <a:t>10 second interval</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1105,11 +1111,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="362116856"/>
-        <c:axId val="362117248"/>
+        <c:axId val="330304208"/>
+        <c:axId val="330290488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="362116856"/>
+        <c:axId val="330304208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1126,7 +1132,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>10 Width</a:t>
+                  <a:t>Seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1138,7 +1144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362117248"/>
+        <c:crossAx val="330290488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="362117248"/>
+        <c:axId val="330290488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="362116856"/>
+        <c:crossAx val="330304208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1217,8 +1223,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram</a:t>
+              <a:t>5 second</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Interval</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1362,11 +1373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="363029304"/>
-        <c:axId val="363030088"/>
+        <c:axId val="330303816"/>
+        <c:axId val="330297936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363029304"/>
+        <c:axId val="330303816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363030088"/>
+        <c:crossAx val="330297936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1403,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363030088"/>
+        <c:axId val="330297936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363029304"/>
+        <c:crossAx val="330303816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,11 +1900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="363190824"/>
-        <c:axId val="363191216"/>
+        <c:axId val="330293624"/>
+        <c:axId val="330290880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363190824"/>
+        <c:axId val="330293624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,7 +1933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363191216"/>
+        <c:crossAx val="330290880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1930,7 +1941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363191216"/>
+        <c:axId val="330290880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1959,7 +1970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363190824"/>
+        <c:crossAx val="330293624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2128,11 +2139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="363193568"/>
-        <c:axId val="363193960"/>
+        <c:axId val="330292448"/>
+        <c:axId val="330294800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363193568"/>
+        <c:axId val="330292448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2161,7 +2172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363193960"/>
+        <c:crossAx val="330294800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2169,7 +2180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363193960"/>
+        <c:axId val="330294800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,7 +2209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363193568"/>
+        <c:crossAx val="330292448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,11 +2342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="363194744"/>
-        <c:axId val="363195136"/>
+        <c:axId val="330303424"/>
+        <c:axId val="330299112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363194744"/>
+        <c:axId val="330303424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363195136"/>
+        <c:crossAx val="330299112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2372,7 +2383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363195136"/>
+        <c:axId val="330299112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="363194744"/>
+        <c:crossAx val="330303424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2933,73 +2944,73 @@
   <dimension ref="A1:U143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="9" max="10" width="9" style="33"/>
+    <col min="9" max="10" width="9" style="28"/>
     <col min="16" max="16" width="11.625" customWidth="1"/>
     <col min="17" max="17" width="11.25" customWidth="1"/>
-    <col min="18" max="18" width="11.25" style="33" customWidth="1"/>
-    <col min="19" max="19" width="9" style="33"/>
+    <col min="18" max="18" width="11.25" style="28" customWidth="1"/>
+    <col min="19" max="19" width="9" style="28"/>
     <col min="20" max="20" width="10.375" customWidth="1"/>
     <col min="21" max="21" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="T1" s="31" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="T1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="31"/>
+      <c r="U1" s="26"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="13"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="32" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="T2" s="32" t="s">
+      <c r="Q2" s="27"/>
+      <c r="T2" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="32"/>
+      <c r="U2" s="27"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -3020,7 +3031,7 @@
       <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="30"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3047,7 @@
       <c r="N3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="33"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2" t="s">
         <v>22</v>
       </c>
@@ -3071,7 +3082,7 @@
         <f>D4-C4</f>
         <v>9</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="11">
         <v>2</v>
       </c>
@@ -3088,7 +3099,7 @@
         <f>M4-L4</f>
         <v>21</v>
       </c>
-      <c r="O4" s="33"/>
+      <c r="O4" s="28"/>
       <c r="P4">
         <v>1</v>
       </c>
@@ -3123,7 +3134,7 @@
         <f t="shared" ref="F5:F37" si="1">D5-C5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="11">
         <v>1</v>
       </c>
@@ -3140,7 +3151,7 @@
         <f t="shared" ref="N5:N29" si="2">M5-L5</f>
         <v>9</v>
       </c>
-      <c r="O5" s="33"/>
+      <c r="O5" s="28"/>
       <c r="P5">
         <v>1</v>
       </c>
@@ -3176,7 +3187,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="11">
         <v>1</v>
       </c>
@@ -3193,7 +3204,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O6" s="33"/>
+      <c r="O6" s="28"/>
       <c r="P6">
         <v>1</v>
       </c>
@@ -3222,7 +3233,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G7" s="30"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="11">
         <v>1</v>
       </c>
@@ -3239,7 +3250,7 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="O7" s="33"/>
+      <c r="O7" s="28"/>
       <c r="P7">
         <v>1</v>
       </c>
@@ -3268,7 +3279,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="11">
         <v>2</v>
       </c>
@@ -3285,7 +3296,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O8" s="33"/>
+      <c r="O8" s="28"/>
       <c r="P8">
         <v>1</v>
       </c>
@@ -3314,7 +3325,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="11">
         <v>3</v>
       </c>
@@ -3331,7 +3342,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O9" s="33"/>
+      <c r="O9" s="28"/>
       <c r="P9">
         <v>3</v>
       </c>
@@ -3360,7 +3371,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="11">
         <v>1</v>
       </c>
@@ -3377,7 +3388,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O10" s="33"/>
+      <c r="O10" s="28"/>
       <c r="P10">
         <v>2</v>
       </c>
@@ -3406,7 +3417,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="11">
         <v>2</v>
       </c>
@@ -3423,7 +3434,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O11" s="33"/>
+      <c r="O11" s="28"/>
       <c r="P11">
         <v>2</v>
       </c>
@@ -3452,7 +3463,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G12" s="30"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="11">
         <v>2</v>
       </c>
@@ -3469,7 +3480,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O12" s="33"/>
+      <c r="O12" s="28"/>
       <c r="P12">
         <v>2</v>
       </c>
@@ -3498,7 +3509,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="11">
         <v>1</v>
       </c>
@@ -3515,8 +3526,8 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="19">
+      <c r="O13" s="28"/>
+      <c r="P13" s="18">
         <v>1</v>
       </c>
       <c r="Q13">
@@ -3544,7 +3555,7 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="11">
         <v>5</v>
       </c>
@@ -3561,7 +3572,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O14" s="33"/>
+      <c r="O14" s="28"/>
       <c r="P14">
         <v>2</v>
       </c>
@@ -3590,7 +3601,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="11">
         <v>2</v>
       </c>
@@ -3607,7 +3618,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O15" s="33"/>
+      <c r="O15" s="28"/>
       <c r="P15">
         <v>6</v>
       </c>
@@ -3636,7 +3647,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="11">
         <v>5</v>
       </c>
@@ -3653,7 +3664,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O16" s="33"/>
+      <c r="O16" s="28"/>
       <c r="P16">
         <v>1</v>
       </c>
@@ -3682,7 +3693,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="11">
         <v>3</v>
       </c>
@@ -3699,7 +3710,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O17" s="33"/>
+      <c r="O17" s="28"/>
       <c r="P17">
         <v>1</v>
       </c>
@@ -3728,7 +3739,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="11">
         <v>2</v>
       </c>
@@ -3745,7 +3756,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="28"/>
       <c r="P18">
         <v>2</v>
       </c>
@@ -3774,7 +3785,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="11">
         <v>1</v>
       </c>
@@ -3791,7 +3802,7 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="O19" s="33"/>
+      <c r="O19" s="28"/>
       <c r="P19">
         <v>1</v>
       </c>
@@ -3820,7 +3831,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="11">
         <v>2</v>
       </c>
@@ -3837,7 +3848,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O20" s="33"/>
+      <c r="O20" s="28"/>
       <c r="P20">
         <v>1</v>
       </c>
@@ -3866,7 +3877,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="11">
         <v>1</v>
       </c>
@@ -3883,7 +3894,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O21" s="33"/>
+      <c r="O21" s="28"/>
       <c r="P21">
         <v>5</v>
       </c>
@@ -3912,7 +3923,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G22" s="30"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="11">
         <v>1</v>
       </c>
@@ -3929,7 +3940,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O22" s="33"/>
+      <c r="O22" s="28"/>
       <c r="P22">
         <v>6</v>
       </c>
@@ -3958,7 +3969,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="11">
         <v>3</v>
       </c>
@@ -3975,7 +3986,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O23" s="33"/>
+      <c r="O23" s="28"/>
       <c r="P23">
         <v>2</v>
       </c>
@@ -4004,7 +4015,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="11">
         <v>1</v>
       </c>
@@ -4021,7 +4032,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O24" s="33"/>
+      <c r="O24" s="28"/>
       <c r="P24">
         <v>1</v>
       </c>
@@ -4050,7 +4061,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G25" s="30"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="11">
         <v>2</v>
       </c>
@@ -4067,7 +4078,7 @@
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="O25" s="33"/>
+      <c r="O25" s="28"/>
       <c r="P25">
         <v>1</v>
       </c>
@@ -4096,7 +4107,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="11">
         <v>4</v>
       </c>
@@ -4113,7 +4124,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="O26" s="33"/>
+      <c r="O26" s="28"/>
       <c r="P26">
         <v>1</v>
       </c>
@@ -4142,7 +4153,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="11">
         <v>1</v>
       </c>
@@ -4159,7 +4170,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="O27" s="33"/>
+      <c r="O27" s="28"/>
       <c r="P27">
         <v>1</v>
       </c>
@@ -4188,7 +4199,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="11">
         <v>1</v>
       </c>
@@ -4205,7 +4216,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O28" s="33"/>
+      <c r="O28" s="28"/>
       <c r="P28">
         <v>3</v>
       </c>
@@ -4234,7 +4245,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="11">
         <v>2</v>
       </c>
@@ -4251,7 +4262,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O29" s="33"/>
+      <c r="O29" s="28"/>
       <c r="P29">
         <v>2</v>
       </c>
@@ -4280,11 +4291,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="11">
         <v>4</v>
       </c>
-      <c r="O30" s="33"/>
+      <c r="O30" s="28"/>
       <c r="P30">
         <v>1</v>
       </c>
@@ -4313,11 +4324,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="11">
         <v>7</v>
       </c>
-      <c r="O31" s="33"/>
+      <c r="O31" s="28"/>
       <c r="P31">
         <v>3</v>
       </c>
@@ -4346,11 +4357,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="11">
         <v>2</v>
       </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="28"/>
       <c r="P32">
         <v>1</v>
       </c>
@@ -4379,11 +4390,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="11">
         <v>1</v>
       </c>
-      <c r="O33" s="33"/>
+      <c r="O33" s="28"/>
       <c r="P33">
         <v>1</v>
       </c>
@@ -4412,11 +4423,11 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="11">
         <v>1</v>
       </c>
-      <c r="O34" s="33"/>
+      <c r="O34" s="28"/>
       <c r="P34">
         <v>1</v>
       </c>
@@ -4445,11 +4456,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="11">
         <v>2</v>
       </c>
-      <c r="O35" s="33"/>
+      <c r="O35" s="28"/>
       <c r="P35">
         <v>1</v>
       </c>
@@ -4478,11 +4489,11 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="11">
         <v>2</v>
       </c>
-      <c r="O36" s="33"/>
+      <c r="O36" s="28"/>
       <c r="P36">
         <v>1</v>
       </c>
@@ -4511,11 +4522,11 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="11">
         <v>3</v>
       </c>
-      <c r="O37" s="33"/>
+      <c r="O37" s="28"/>
       <c r="P37">
         <v>2</v>
       </c>
@@ -4524,11 +4535,11 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G38" s="30"/>
+      <c r="G38" s="25"/>
       <c r="H38" s="11">
         <v>1</v>
       </c>
-      <c r="O38" s="33"/>
+      <c r="O38" s="28"/>
       <c r="P38">
         <v>2</v>
       </c>
@@ -4538,11 +4549,11 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="11">
         <v>1</v>
       </c>
-      <c r="O39" s="33"/>
+      <c r="O39" s="28"/>
       <c r="P39">
         <v>3</v>
       </c>
@@ -4552,8 +4563,12 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="G40" s="30"/>
-      <c r="O40" s="33"/>
+      <c r="G40" s="25"/>
+      <c r="H40">
+        <f>COUNT(H4:H39)</f>
+        <v>36</v>
+      </c>
+      <c r="O40" s="28"/>
       <c r="P40">
         <v>1</v>
       </c>
@@ -4563,8 +4578,8 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="G41" s="30"/>
-      <c r="O41" s="33"/>
+      <c r="G41" s="25"/>
+      <c r="O41" s="28"/>
       <c r="P41">
         <v>2</v>
       </c>
@@ -4574,8 +4589,8 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="G42" s="30"/>
-      <c r="O42" s="33"/>
+      <c r="G42" s="25"/>
+      <c r="O42" s="28"/>
       <c r="P42">
         <v>2</v>
       </c>
@@ -4585,8 +4600,8 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="G43" s="30"/>
-      <c r="O43" s="33"/>
+      <c r="G43" s="25"/>
+      <c r="O43" s="28"/>
       <c r="P43">
         <v>1</v>
       </c>
@@ -4596,8 +4611,8 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="G44" s="30"/>
-      <c r="O44" s="33"/>
+      <c r="G44" s="25"/>
+      <c r="O44" s="28"/>
       <c r="P44">
         <v>1</v>
       </c>
@@ -4607,8 +4622,8 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="G45" s="30"/>
-      <c r="O45" s="33"/>
+      <c r="G45" s="25"/>
+      <c r="O45" s="28"/>
       <c r="P45">
         <v>2</v>
       </c>
@@ -4618,8 +4633,8 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
-      <c r="G46" s="30"/>
-      <c r="O46" s="33"/>
+      <c r="G46" s="25"/>
+      <c r="O46" s="28"/>
       <c r="P46">
         <v>1</v>
       </c>
@@ -4629,8 +4644,8 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
-      <c r="G47" s="30"/>
-      <c r="O47" s="33"/>
+      <c r="G47" s="25"/>
+      <c r="O47" s="28"/>
       <c r="P47">
         <v>1</v>
       </c>
@@ -4640,8 +4655,8 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
-      <c r="G48" s="30"/>
-      <c r="O48" s="33"/>
+      <c r="G48" s="25"/>
+      <c r="O48" s="28"/>
       <c r="P48">
         <v>1</v>
       </c>
@@ -4651,8 +4666,8 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
-      <c r="G49" s="30"/>
-      <c r="O49" s="33"/>
+      <c r="G49" s="25"/>
+      <c r="O49" s="28"/>
       <c r="P49">
         <v>1</v>
       </c>
@@ -4662,8 +4677,8 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
-      <c r="G50" s="30"/>
-      <c r="O50" s="33"/>
+      <c r="G50" s="25"/>
+      <c r="O50" s="28"/>
       <c r="P50">
         <v>1</v>
       </c>
@@ -4673,8 +4688,8 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
-      <c r="G51" s="30"/>
-      <c r="O51" s="33"/>
+      <c r="G51" s="25"/>
+      <c r="O51" s="28"/>
       <c r="P51">
         <v>1</v>
       </c>
@@ -4684,8 +4699,8 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
-      <c r="G52" s="30"/>
-      <c r="O52" s="33"/>
+      <c r="G52" s="25"/>
+      <c r="O52" s="28"/>
       <c r="P52">
         <v>1</v>
       </c>
@@ -4695,8 +4710,8 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
-      <c r="G53" s="30"/>
-      <c r="O53" s="33"/>
+      <c r="G53" s="25"/>
+      <c r="O53" s="28"/>
       <c r="P53">
         <v>3</v>
       </c>
@@ -4706,8 +4721,8 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
-      <c r="G54" s="30"/>
-      <c r="O54" s="33"/>
+      <c r="G54" s="25"/>
+      <c r="O54" s="28"/>
       <c r="P54">
         <v>1</v>
       </c>
@@ -4717,8 +4732,8 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
-      <c r="G55" s="30"/>
-      <c r="O55" s="33"/>
+      <c r="G55" s="25"/>
+      <c r="O55" s="28"/>
       <c r="P55">
         <v>2</v>
       </c>
@@ -4728,8 +4743,8 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="G56" s="30"/>
-      <c r="O56" s="33"/>
+      <c r="G56" s="25"/>
+      <c r="O56" s="28"/>
       <c r="P56">
         <v>1</v>
       </c>
@@ -4739,8 +4754,8 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
-      <c r="G57" s="30"/>
-      <c r="O57" s="33"/>
+      <c r="G57" s="25"/>
+      <c r="O57" s="28"/>
       <c r="P57">
         <v>1</v>
       </c>
@@ -4750,8 +4765,8 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
-      <c r="G58" s="30"/>
-      <c r="O58" s="33"/>
+      <c r="G58" s="25"/>
+      <c r="O58" s="28"/>
       <c r="P58">
         <v>1</v>
       </c>
@@ -4761,8 +4776,8 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
-      <c r="G59" s="30"/>
-      <c r="O59" s="33"/>
+      <c r="G59" s="25"/>
+      <c r="O59" s="28"/>
       <c r="P59">
         <v>1</v>
       </c>
@@ -4772,8 +4787,8 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
-      <c r="G60" s="30"/>
-      <c r="O60" s="33"/>
+      <c r="G60" s="25"/>
+      <c r="O60" s="28"/>
       <c r="P60">
         <v>1</v>
       </c>
@@ -4783,8 +4798,8 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
-      <c r="G61" s="30"/>
-      <c r="O61" s="33"/>
+      <c r="G61" s="25"/>
+      <c r="O61" s="28"/>
       <c r="P61">
         <v>1</v>
       </c>
@@ -4794,8 +4809,8 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
-      <c r="G62" s="30"/>
-      <c r="O62" s="33"/>
+      <c r="G62" s="25"/>
+      <c r="O62" s="28"/>
       <c r="P62">
         <v>1</v>
       </c>
@@ -4805,8 +4820,8 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
-      <c r="G63" s="30"/>
-      <c r="O63" s="33"/>
+      <c r="G63" s="25"/>
+      <c r="O63" s="28"/>
       <c r="P63">
         <v>1</v>
       </c>
@@ -4816,8 +4831,8 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
-      <c r="G64" s="30"/>
-      <c r="O64" s="33"/>
+      <c r="G64" s="25"/>
+      <c r="O64" s="28"/>
       <c r="P64">
         <v>1</v>
       </c>
@@ -4827,8 +4842,8 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
-      <c r="G65" s="30"/>
-      <c r="O65" s="33"/>
+      <c r="G65" s="25"/>
+      <c r="O65" s="28"/>
       <c r="P65">
         <v>1</v>
       </c>
@@ -4838,8 +4853,8 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
-      <c r="G66" s="30"/>
-      <c r="O66" s="33"/>
+      <c r="G66" s="25"/>
+      <c r="O66" s="28"/>
       <c r="P66">
         <v>2</v>
       </c>
@@ -4849,8 +4864,8 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
-      <c r="G67" s="30"/>
-      <c r="O67" s="33"/>
+      <c r="G67" s="25"/>
+      <c r="O67" s="28"/>
       <c r="P67">
         <v>1</v>
       </c>
@@ -4860,8 +4875,8 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
-      <c r="G68" s="30"/>
-      <c r="O68" s="33"/>
+      <c r="G68" s="25"/>
+      <c r="O68" s="28"/>
       <c r="P68">
         <v>3</v>
       </c>
@@ -4871,8 +4886,8 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
-      <c r="G69" s="30"/>
-      <c r="O69" s="33"/>
+      <c r="G69" s="25"/>
+      <c r="O69" s="28"/>
       <c r="P69">
         <v>1</v>
       </c>
@@ -4882,8 +4897,8 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
-      <c r="G70" s="30"/>
-      <c r="O70" s="33"/>
+      <c r="G70" s="25"/>
+      <c r="O70" s="28"/>
       <c r="P70">
         <v>2</v>
       </c>
@@ -4893,8 +4908,8 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
-      <c r="G71" s="30"/>
-      <c r="O71" s="33"/>
+      <c r="G71" s="25"/>
+      <c r="O71" s="28"/>
       <c r="P71">
         <v>2</v>
       </c>
@@ -4904,8 +4919,8 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
-      <c r="G72" s="30"/>
-      <c r="O72" s="33"/>
+      <c r="G72" s="25"/>
+      <c r="O72" s="28"/>
       <c r="P72">
         <v>7</v>
       </c>
@@ -4915,8 +4930,8 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
-      <c r="G73" s="30"/>
-      <c r="O73" s="33"/>
+      <c r="G73" s="25"/>
+      <c r="O73" s="28"/>
       <c r="P73">
         <v>1</v>
       </c>
@@ -4926,8 +4941,8 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
-      <c r="G74" s="30"/>
-      <c r="O74" s="33"/>
+      <c r="G74" s="25"/>
+      <c r="O74" s="28"/>
       <c r="P74">
         <v>1</v>
       </c>
@@ -4937,8 +4952,8 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
-      <c r="G75" s="30"/>
-      <c r="O75" s="33"/>
+      <c r="G75" s="25"/>
+      <c r="O75" s="28"/>
       <c r="P75">
         <v>1</v>
       </c>
@@ -4947,8 +4962,8 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G76" s="30"/>
-      <c r="O76" s="33"/>
+      <c r="G76" s="25"/>
+      <c r="O76" s="28"/>
       <c r="P76">
         <v>1</v>
       </c>
@@ -4957,8 +4972,8 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G77" s="30"/>
-      <c r="O77" s="33"/>
+      <c r="G77" s="25"/>
+      <c r="O77" s="28"/>
       <c r="P77">
         <v>3</v>
       </c>
@@ -4967,8 +4982,8 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G78" s="30"/>
-      <c r="O78" s="33"/>
+      <c r="G78" s="25"/>
+      <c r="O78" s="28"/>
       <c r="P78">
         <v>1</v>
       </c>
@@ -4977,8 +4992,8 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G79" s="30"/>
-      <c r="O79" s="33"/>
+      <c r="G79" s="25"/>
+      <c r="O79" s="28"/>
       <c r="P79">
         <v>1</v>
       </c>
@@ -4987,8 +5002,8 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G80" s="30"/>
-      <c r="O80" s="33"/>
+      <c r="G80" s="25"/>
+      <c r="O80" s="28"/>
       <c r="P80">
         <v>1</v>
       </c>
@@ -4997,8 +5012,8 @@
       </c>
     </row>
     <row r="81" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G81" s="30"/>
-      <c r="O81" s="33"/>
+      <c r="G81" s="25"/>
+      <c r="O81" s="28"/>
       <c r="P81">
         <v>1</v>
       </c>
@@ -5007,8 +5022,8 @@
       </c>
     </row>
     <row r="82" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G82" s="30"/>
-      <c r="O82" s="33"/>
+      <c r="G82" s="25"/>
+      <c r="O82" s="28"/>
       <c r="P82">
         <v>1</v>
       </c>
@@ -5017,8 +5032,8 @@
       </c>
     </row>
     <row r="83" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G83" s="30"/>
-      <c r="O83" s="33"/>
+      <c r="G83" s="25"/>
+      <c r="O83" s="28"/>
       <c r="P83">
         <v>1</v>
       </c>
@@ -5027,8 +5042,8 @@
       </c>
     </row>
     <row r="84" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G84" s="30"/>
-      <c r="O84" s="33"/>
+      <c r="G84" s="25"/>
+      <c r="O84" s="28"/>
       <c r="P84">
         <v>1</v>
       </c>
@@ -5037,8 +5052,8 @@
       </c>
     </row>
     <row r="85" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G85" s="30"/>
-      <c r="O85" s="33"/>
+      <c r="G85" s="25"/>
+      <c r="O85" s="28"/>
       <c r="P85">
         <v>1</v>
       </c>
@@ -5047,8 +5062,8 @@
       </c>
     </row>
     <row r="86" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G86" s="30"/>
-      <c r="O86" s="33"/>
+      <c r="G86" s="25"/>
+      <c r="O86" s="28"/>
       <c r="P86">
         <v>1</v>
       </c>
@@ -5057,8 +5072,8 @@
       </c>
     </row>
     <row r="87" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G87" s="30"/>
-      <c r="O87" s="33"/>
+      <c r="G87" s="25"/>
+      <c r="O87" s="28"/>
       <c r="P87">
         <v>2</v>
       </c>
@@ -5067,8 +5082,8 @@
       </c>
     </row>
     <row r="88" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G88" s="30"/>
-      <c r="O88" s="33"/>
+      <c r="G88" s="25"/>
+      <c r="O88" s="28"/>
       <c r="P88">
         <v>1</v>
       </c>
@@ -5077,8 +5092,8 @@
       </c>
     </row>
     <row r="89" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G89" s="30"/>
-      <c r="O89" s="33"/>
+      <c r="G89" s="25"/>
+      <c r="O89" s="28"/>
       <c r="P89">
         <v>1</v>
       </c>
@@ -5087,8 +5102,8 @@
       </c>
     </row>
     <row r="90" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G90" s="30"/>
-      <c r="O90" s="33"/>
+      <c r="G90" s="25"/>
+      <c r="O90" s="28"/>
       <c r="P90">
         <v>1</v>
       </c>
@@ -5097,8 +5112,8 @@
       </c>
     </row>
     <row r="91" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G91" s="30"/>
-      <c r="O91" s="33"/>
+      <c r="G91" s="25"/>
+      <c r="O91" s="28"/>
       <c r="P91">
         <v>1</v>
       </c>
@@ -5107,8 +5122,8 @@
       </c>
     </row>
     <row r="92" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G92" s="30"/>
-      <c r="O92" s="33"/>
+      <c r="G92" s="25"/>
+      <c r="O92" s="28"/>
       <c r="P92">
         <v>1</v>
       </c>
@@ -5117,8 +5132,8 @@
       </c>
     </row>
     <row r="93" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G93" s="30"/>
-      <c r="O93" s="33"/>
+      <c r="G93" s="25"/>
+      <c r="O93" s="28"/>
       <c r="P93">
         <v>2</v>
       </c>
@@ -5127,8 +5142,8 @@
       </c>
     </row>
     <row r="94" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G94" s="30"/>
-      <c r="O94" s="33"/>
+      <c r="G94" s="25"/>
+      <c r="O94" s="28"/>
       <c r="P94">
         <v>2</v>
       </c>
@@ -5137,8 +5152,8 @@
       </c>
     </row>
     <row r="95" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G95" s="30"/>
-      <c r="O95" s="33"/>
+      <c r="G95" s="25"/>
+      <c r="O95" s="28"/>
       <c r="P95">
         <v>2</v>
       </c>
@@ -5147,8 +5162,8 @@
       </c>
     </row>
     <row r="96" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G96" s="30"/>
-      <c r="O96" s="33"/>
+      <c r="G96" s="25"/>
+      <c r="O96" s="28"/>
       <c r="P96">
         <v>1</v>
       </c>
@@ -5157,8 +5172,8 @@
       </c>
     </row>
     <row r="97" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G97" s="30"/>
-      <c r="O97" s="33"/>
+      <c r="G97" s="25"/>
+      <c r="O97" s="28"/>
       <c r="P97">
         <v>1</v>
       </c>
@@ -5167,8 +5182,8 @@
       </c>
     </row>
     <row r="98" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G98" s="30"/>
-      <c r="O98" s="33"/>
+      <c r="G98" s="25"/>
+      <c r="O98" s="28"/>
       <c r="P98">
         <v>1</v>
       </c>
@@ -5177,8 +5192,8 @@
       </c>
     </row>
     <row r="99" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G99" s="30"/>
-      <c r="O99" s="33"/>
+      <c r="G99" s="25"/>
+      <c r="O99" s="28"/>
       <c r="P99">
         <v>1</v>
       </c>
@@ -5187,8 +5202,8 @@
       </c>
     </row>
     <row r="100" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G100" s="30"/>
-      <c r="O100" s="33"/>
+      <c r="G100" s="25"/>
+      <c r="O100" s="28"/>
       <c r="P100">
         <v>1</v>
       </c>
@@ -5197,8 +5212,8 @@
       </c>
     </row>
     <row r="101" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G101" s="30"/>
-      <c r="O101" s="33"/>
+      <c r="G101" s="25"/>
+      <c r="O101" s="28"/>
       <c r="P101">
         <v>2</v>
       </c>
@@ -5207,8 +5222,8 @@
       </c>
     </row>
     <row r="102" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G102" s="30"/>
-      <c r="O102" s="33"/>
+      <c r="G102" s="25"/>
+      <c r="O102" s="28"/>
       <c r="P102">
         <v>1</v>
       </c>
@@ -5217,8 +5232,8 @@
       </c>
     </row>
     <row r="103" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G103" s="30"/>
-      <c r="O103" s="33"/>
+      <c r="G103" s="25"/>
+      <c r="O103" s="28"/>
       <c r="P103">
         <v>2</v>
       </c>
@@ -5227,8 +5242,8 @@
       </c>
     </row>
     <row r="104" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G104" s="30"/>
-      <c r="O104" s="33"/>
+      <c r="G104" s="25"/>
+      <c r="O104" s="28"/>
       <c r="P104">
         <v>1</v>
       </c>
@@ -5237,8 +5252,8 @@
       </c>
     </row>
     <row r="105" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G105" s="30"/>
-      <c r="O105" s="33"/>
+      <c r="G105" s="25"/>
+      <c r="O105" s="28"/>
       <c r="P105">
         <v>1</v>
       </c>
@@ -5247,8 +5262,8 @@
       </c>
     </row>
     <row r="106" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G106" s="30"/>
-      <c r="O106" s="33"/>
+      <c r="G106" s="25"/>
+      <c r="O106" s="28"/>
       <c r="P106">
         <v>3</v>
       </c>
@@ -5257,8 +5272,8 @@
       </c>
     </row>
     <row r="107" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G107" s="30"/>
-      <c r="O107" s="33"/>
+      <c r="G107" s="25"/>
+      <c r="O107" s="28"/>
       <c r="P107">
         <v>2</v>
       </c>
@@ -5267,8 +5282,8 @@
       </c>
     </row>
     <row r="108" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G108" s="30"/>
-      <c r="O108" s="33"/>
+      <c r="G108" s="25"/>
+      <c r="O108" s="28"/>
       <c r="P108">
         <v>1</v>
       </c>
@@ -5277,8 +5292,8 @@
       </c>
     </row>
     <row r="109" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G109" s="30"/>
-      <c r="O109" s="33"/>
+      <c r="G109" s="25"/>
+      <c r="O109" s="28"/>
       <c r="P109">
         <v>2</v>
       </c>
@@ -5287,8 +5302,8 @@
       </c>
     </row>
     <row r="110" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G110" s="30"/>
-      <c r="O110" s="33"/>
+      <c r="G110" s="25"/>
+      <c r="O110" s="28"/>
       <c r="P110">
         <v>1</v>
       </c>
@@ -5297,8 +5312,8 @@
       </c>
     </row>
     <row r="111" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G111" s="30"/>
-      <c r="O111" s="33"/>
+      <c r="G111" s="25"/>
+      <c r="O111" s="28"/>
       <c r="P111">
         <v>1</v>
       </c>
@@ -5307,8 +5322,8 @@
       </c>
     </row>
     <row r="112" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G112" s="30"/>
-      <c r="O112" s="33"/>
+      <c r="G112" s="25"/>
+      <c r="O112" s="28"/>
       <c r="P112">
         <v>2</v>
       </c>
@@ -5317,8 +5332,8 @@
       </c>
     </row>
     <row r="113" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G113" s="30"/>
-      <c r="O113" s="33"/>
+      <c r="G113" s="25"/>
+      <c r="O113" s="28"/>
       <c r="P113">
         <v>1</v>
       </c>
@@ -5327,8 +5342,8 @@
       </c>
     </row>
     <row r="114" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G114" s="30"/>
-      <c r="O114" s="33"/>
+      <c r="G114" s="25"/>
+      <c r="O114" s="28"/>
       <c r="P114">
         <v>1</v>
       </c>
@@ -5337,8 +5352,8 @@
       </c>
     </row>
     <row r="115" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G115" s="30"/>
-      <c r="O115" s="33"/>
+      <c r="G115" s="25"/>
+      <c r="O115" s="28"/>
       <c r="P115">
         <v>2</v>
       </c>
@@ -5347,8 +5362,8 @@
       </c>
     </row>
     <row r="116" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G116" s="30"/>
-      <c r="O116" s="33"/>
+      <c r="G116" s="25"/>
+      <c r="O116" s="28"/>
       <c r="P116">
         <v>1</v>
       </c>
@@ -5357,8 +5372,8 @@
       </c>
     </row>
     <row r="117" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G117" s="30"/>
-      <c r="O117" s="33"/>
+      <c r="G117" s="25"/>
+      <c r="O117" s="28"/>
       <c r="P117">
         <v>1</v>
       </c>
@@ -5367,8 +5382,8 @@
       </c>
     </row>
     <row r="118" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G118" s="30"/>
-      <c r="O118" s="33"/>
+      <c r="G118" s="25"/>
+      <c r="O118" s="28"/>
       <c r="P118">
         <v>1</v>
       </c>
@@ -5377,8 +5392,8 @@
       </c>
     </row>
     <row r="119" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G119" s="30"/>
-      <c r="O119" s="33"/>
+      <c r="G119" s="25"/>
+      <c r="O119" s="28"/>
       <c r="P119">
         <v>1</v>
       </c>
@@ -5387,8 +5402,8 @@
       </c>
     </row>
     <row r="120" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G120" s="30"/>
-      <c r="O120" s="33"/>
+      <c r="G120" s="25"/>
+      <c r="O120" s="28"/>
       <c r="P120">
         <v>2</v>
       </c>
@@ -5397,8 +5412,8 @@
       </c>
     </row>
     <row r="121" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G121" s="30"/>
-      <c r="O121" s="33"/>
+      <c r="G121" s="25"/>
+      <c r="O121" s="28"/>
       <c r="P121">
         <v>1</v>
       </c>
@@ -5407,8 +5422,8 @@
       </c>
     </row>
     <row r="122" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G122" s="30"/>
-      <c r="O122" s="33"/>
+      <c r="G122" s="25"/>
+      <c r="O122" s="28"/>
       <c r="P122">
         <v>1</v>
       </c>
@@ -5417,8 +5432,8 @@
       </c>
     </row>
     <row r="123" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G123" s="30"/>
-      <c r="O123" s="33"/>
+      <c r="G123" s="25"/>
+      <c r="O123" s="28"/>
       <c r="P123">
         <v>1</v>
       </c>
@@ -5427,8 +5442,8 @@
       </c>
     </row>
     <row r="124" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G124" s="30"/>
-      <c r="O124" s="33"/>
+      <c r="G124" s="25"/>
+      <c r="O124" s="28"/>
       <c r="P124">
         <v>1</v>
       </c>
@@ -5437,8 +5452,8 @@
       </c>
     </row>
     <row r="125" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G125" s="30"/>
-      <c r="O125" s="33"/>
+      <c r="G125" s="25"/>
+      <c r="O125" s="28"/>
       <c r="P125">
         <v>1</v>
       </c>
@@ -5447,8 +5462,8 @@
       </c>
     </row>
     <row r="126" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G126" s="30"/>
-      <c r="O126" s="33"/>
+      <c r="G126" s="25"/>
+      <c r="O126" s="28"/>
       <c r="P126">
         <v>2</v>
       </c>
@@ -5457,8 +5472,8 @@
       </c>
     </row>
     <row r="127" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G127" s="30"/>
-      <c r="O127" s="33"/>
+      <c r="G127" s="25"/>
+      <c r="O127" s="28"/>
       <c r="P127">
         <v>2</v>
       </c>
@@ -5467,8 +5482,8 @@
       </c>
     </row>
     <row r="128" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G128" s="30"/>
-      <c r="O128" s="33"/>
+      <c r="G128" s="25"/>
+      <c r="O128" s="28"/>
       <c r="P128">
         <v>2</v>
       </c>
@@ -5477,8 +5492,8 @@
       </c>
     </row>
     <row r="129" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G129" s="30"/>
-      <c r="O129" s="33"/>
+      <c r="G129" s="25"/>
+      <c r="O129" s="28"/>
       <c r="P129">
         <v>1</v>
       </c>
@@ -5487,8 +5502,8 @@
       </c>
     </row>
     <row r="130" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G130" s="30"/>
-      <c r="O130" s="33"/>
+      <c r="G130" s="25"/>
+      <c r="O130" s="28"/>
       <c r="P130">
         <v>1</v>
       </c>
@@ -5497,8 +5512,8 @@
       </c>
     </row>
     <row r="131" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G131" s="30"/>
-      <c r="O131" s="33"/>
+      <c r="G131" s="25"/>
+      <c r="O131" s="28"/>
       <c r="P131">
         <v>1</v>
       </c>
@@ -5507,8 +5522,8 @@
       </c>
     </row>
     <row r="132" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G132" s="30"/>
-      <c r="O132" s="33"/>
+      <c r="G132" s="25"/>
+      <c r="O132" s="28"/>
       <c r="P132">
         <v>2</v>
       </c>
@@ -5517,8 +5532,8 @@
       </c>
     </row>
     <row r="133" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G133" s="30"/>
-      <c r="O133" s="33"/>
+      <c r="G133" s="25"/>
+      <c r="O133" s="28"/>
       <c r="P133">
         <v>1</v>
       </c>
@@ -5527,8 +5542,8 @@
       </c>
     </row>
     <row r="134" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G134" s="30"/>
-      <c r="O134" s="33"/>
+      <c r="G134" s="25"/>
+      <c r="O134" s="28"/>
       <c r="P134">
         <v>1</v>
       </c>
@@ -5537,8 +5552,8 @@
       </c>
     </row>
     <row r="135" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G135" s="30"/>
-      <c r="O135" s="33"/>
+      <c r="G135" s="25"/>
+      <c r="O135" s="28"/>
       <c r="P135">
         <v>1</v>
       </c>
@@ -5547,8 +5562,8 @@
       </c>
     </row>
     <row r="136" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G136" s="30"/>
-      <c r="O136" s="33"/>
+      <c r="G136" s="25"/>
+      <c r="O136" s="28"/>
       <c r="P136">
         <v>2</v>
       </c>
@@ -5557,8 +5572,8 @@
       </c>
     </row>
     <row r="137" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G137" s="30"/>
-      <c r="O137" s="33"/>
+      <c r="G137" s="25"/>
+      <c r="O137" s="28"/>
       <c r="P137">
         <v>2</v>
       </c>
@@ -5567,8 +5582,8 @@
       </c>
     </row>
     <row r="138" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G138" s="30"/>
-      <c r="O138" s="33"/>
+      <c r="G138" s="25"/>
+      <c r="O138" s="28"/>
       <c r="P138">
         <v>4</v>
       </c>
@@ -5577,8 +5592,8 @@
       </c>
     </row>
     <row r="139" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G139" s="30"/>
-      <c r="O139" s="33"/>
+      <c r="G139" s="25"/>
+      <c r="O139" s="28"/>
       <c r="P139">
         <v>1</v>
       </c>
@@ -5587,8 +5602,8 @@
       </c>
     </row>
     <row r="140" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G140" s="30"/>
-      <c r="O140" s="33"/>
+      <c r="G140" s="25"/>
+      <c r="O140" s="28"/>
       <c r="P140">
         <v>2</v>
       </c>
@@ -5597,8 +5612,8 @@
       </c>
     </row>
     <row r="141" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G141" s="30"/>
-      <c r="O141" s="33"/>
+      <c r="G141" s="25"/>
+      <c r="O141" s="28"/>
       <c r="P141">
         <v>1</v>
       </c>
@@ -5607,12 +5622,12 @@
       </c>
     </row>
     <row r="142" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G142" s="30"/>
-      <c r="O142" s="33"/>
+      <c r="G142" s="25"/>
+      <c r="O142" s="28"/>
     </row>
     <row r="143" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G143" s="30"/>
-      <c r="O143" s="33"/>
+      <c r="G143" s="25"/>
+      <c r="O143" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5639,8 +5654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5648,13 +5663,13 @@
     <col min="1" max="1" width="6.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9" style="33"/>
+    <col min="4" max="4" width="9" style="28"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
-    <col min="8" max="8" width="9" style="33"/>
-    <col min="9" max="9" width="9" style="17"/>
+    <col min="8" max="8" width="9" style="28"/>
+    <col min="9" max="9" width="9" style="16"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9" style="33"/>
+    <col min="12" max="12" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -5667,24 +5682,24 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="M1" s="35" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -5702,23 +5717,23 @@
       <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="18" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="34"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -5741,13 +5756,13 @@
         <f>AVERAGE(C2:C61)</f>
         <v>15.35</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="21" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="7" t="s">
@@ -5790,7 +5805,7 @@
         <f>MIN(C2:C61)</f>
         <v>1</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>30</v>
       </c>
       <c r="J4" s="1">
@@ -5839,7 +5854,7 @@
         <f>MAX(C2:C61)</f>
         <v>76</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>60</v>
       </c>
       <c r="J5" s="1">
@@ -5877,7 +5892,7 @@
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>90</v>
       </c>
       <c r="J6" s="1">
@@ -5915,11 +5930,7 @@
       <c r="C7" s="1">
         <v>9</v>
       </c>
-      <c r="F7">
-        <f>_xlfn.STDEV.S(B2:B61)</f>
-        <v>79.799768842676684</v>
-      </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>120</v>
       </c>
       <c r="J7" s="1">
@@ -5957,7 +5968,7 @@
       <c r="C8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>150</v>
       </c>
       <c r="J8" s="1">
@@ -5995,7 +6006,7 @@
       <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>180</v>
       </c>
       <c r="J9" s="1">
@@ -6033,13 +6044,13 @@
       <c r="C10" s="1">
         <v>19</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>210</v>
       </c>
       <c r="J10" s="1">
         <v>70</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>35</v>
       </c>
       <c r="M10" s="4">
@@ -6071,13 +6082,13 @@
       <c r="C11" s="1">
         <v>13</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>240</v>
       </c>
       <c r="J11" s="1">
         <v>80</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>40</v>
       </c>
       <c r="M11" s="4">
@@ -6109,13 +6120,13 @@
       <c r="C12" s="1">
         <v>55</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>270</v>
       </c>
       <c r="J12" s="1">
         <v>90</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>45</v>
       </c>
       <c r="M12" s="4">
@@ -6147,13 +6158,13 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>300</v>
       </c>
       <c r="J13" s="1">
         <v>100</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>50</v>
       </c>
       <c r="M13" s="4">
@@ -6185,13 +6196,13 @@
       <c r="C14" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>330</v>
       </c>
       <c r="J14" s="1">
         <v>110</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>55</v>
       </c>
       <c r="M14" s="4">
@@ -6223,13 +6234,13 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>360</v>
       </c>
       <c r="J15" s="1">
         <v>120</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>60</v>
       </c>
       <c r="M15" s="4">
@@ -6261,13 +6272,13 @@
       <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>390</v>
       </c>
       <c r="J16" s="1">
         <v>130</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>65</v>
       </c>
       <c r="M16" s="4">
@@ -6299,13 +6310,13 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>420</v>
       </c>
       <c r="J17" s="1">
         <v>140</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>70</v>
       </c>
       <c r="M17" s="4">
@@ -6337,13 +6348,13 @@
       <c r="C18" s="1">
         <v>5</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>450</v>
       </c>
       <c r="J18" s="1">
         <v>150</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>75</v>
       </c>
       <c r="M18" s="4">
@@ -6471,7 +6482,7 @@
       <c r="C23" s="1">
         <v>15</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>220</v>
       </c>
       <c r="K23" s="1"/>
@@ -6492,7 +6503,7 @@
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>240</v>
       </c>
       <c r="K24" s="1"/>
@@ -6513,7 +6524,7 @@
       <c r="C25" s="1">
         <v>11</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>260</v>
       </c>
       <c r="K25" s="1"/>
@@ -6534,7 +6545,7 @@
       <c r="C26" s="1">
         <v>10</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>280</v>
       </c>
       <c r="K26" s="1"/>
@@ -6555,7 +6566,7 @@
       <c r="C27" s="1">
         <v>13</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>300</v>
       </c>
       <c r="K27" s="1"/>
@@ -6576,7 +6587,7 @@
       <c r="C28" s="1">
         <v>11</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>320</v>
       </c>
       <c r="K28" s="1"/>
@@ -6597,7 +6608,7 @@
       <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>340</v>
       </c>
       <c r="K29" s="1"/>
@@ -6618,7 +6629,7 @@
       <c r="C30" s="1">
         <v>6</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>360</v>
       </c>
       <c r="K30" s="1"/>
@@ -6639,7 +6650,7 @@
       <c r="C31" s="1">
         <v>8</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>380</v>
       </c>
       <c r="K31" s="1"/>
@@ -6660,7 +6671,7 @@
       <c r="C32" s="1">
         <v>9</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>400</v>
       </c>
       <c r="K32" s="1"/>
@@ -6681,7 +6692,7 @@
       <c r="C33" s="1">
         <v>22</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="15">
         <v>420</v>
       </c>
       <c r="K33" s="1"/>
@@ -6702,7 +6713,7 @@
       <c r="C34" s="1">
         <v>6</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>440</v>
       </c>
       <c r="O34" s="4">
@@ -6722,7 +6733,7 @@
       <c r="C35" s="1">
         <v>10</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="15">
         <v>460</v>
       </c>
       <c r="M35" s="4"/>
@@ -6744,7 +6755,7 @@
       <c r="C36" s="1">
         <v>21</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="15">
         <v>480</v>
       </c>
       <c r="M36" s="4"/>
@@ -7097,18 +7108,18 @@
   <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="37" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="32" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="37" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="32" customWidth="1"/>
     <col min="6" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="28" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7116,23 +7127,23 @@
       <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="F1" s="39" t="s">
+      <c r="D1" s="33"/>
+      <c r="F1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="J1" s="39" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -7154,18 +7165,18 @@
       <c r="H2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="34"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -9038,7 +9049,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9053,360 +9064,360 @@
     <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="35">
         <v>0</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="36">
         <v>6</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="23">
         <v>3.0200000000000001E-2</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="37">
         <f>$B$14*C3</f>
         <v>1.8120000000000001</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36">
         <v>6</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="23">
         <v>0.1057</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="37">
         <f t="shared" ref="D4:D13" si="0">$B$14*C4</f>
         <v>6.3420000000000005</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="23">
         <f>SUM(B3:B4)</f>
         <v>12</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="37">
         <f>SUM(D3:D4)</f>
         <v>8.1539999999999999</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="37">
         <f t="shared" ref="H4:H9" si="1">((F4-G4)^2) / G4</f>
         <v>1.8140441501103755</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="36">
         <v>12</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="38">
         <v>0.185</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="37">
         <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="23">
         <v>2</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="23">
         <f>B5</f>
         <v>12</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="37">
         <f>D5</f>
         <v>11.1</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="37">
         <f t="shared" si="1"/>
         <v>7.2972972972973033E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="36">
         <v>10</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="23">
         <v>0.21579999999999999</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>12.948</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="23">
         <v>3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="23">
         <f t="shared" ref="F6:F8" si="2">B6</f>
         <v>10</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="37">
         <f t="shared" ref="G6:G8" si="3">D6</f>
         <v>12.948</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="37">
         <f t="shared" si="1"/>
         <v>0.67120049428483175</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="35">
         <v>4</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="36">
         <v>9</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="23">
         <v>0.1888</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="37">
         <f t="shared" si="0"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="23">
         <v>4</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="23">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="37">
         <f t="shared" si="3"/>
         <v>11.327999999999999</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="37">
         <f t="shared" si="1"/>
         <v>0.47842372881355905</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="36">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="23">
         <v>0.13220000000000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="37">
         <f t="shared" si="0"/>
         <v>7.9320000000000004</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="23">
         <v>5</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="23">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="37">
         <f t="shared" si="3"/>
         <v>7.9320000000000004</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="37">
         <f t="shared" si="1"/>
         <v>0.47057791225416051</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="35">
         <v>6</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="36">
         <v>4</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="23">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="37">
         <f t="shared" si="0"/>
         <v>4.6260000000000003</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="23">
         <f>SUM(B9:B13)</f>
         <v>11</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="37">
         <f>SUM(D9:D13)</f>
         <v>8.484</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="37">
         <f t="shared" si="1"/>
         <v>0.74614049976426222</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="23">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="36">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23">
         <v>3.85E-2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="37">
         <f t="shared" si="0"/>
         <v>2.31</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="36">
         <v>2</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="23">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="37">
         <f t="shared" si="0"/>
         <v>1.0139999999999998</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="36">
         <v>2</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="23">
         <v>6.6E-3</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="37">
         <f t="shared" si="0"/>
         <v>0.39600000000000002</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="36">
         <v>2</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="23">
         <v>2.3E-3</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="37">
         <f t="shared" si="0"/>
         <v>0.13800000000000001</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26">
+      <c r="A14" s="35"/>
+      <c r="B14" s="40">
         <f>SUM(B3:B13)</f>
         <v>60</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="41">
         <f>SUM(H4:H13)</f>
         <v>4.2533597582001628</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="25" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="37">
         <v>11.07</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15" t="str">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22" t="str">
         <f>IF(H14&lt;H15, "ACCEPT", "REJECT")</f>
         <v>ACCEPT</v>
       </c>
@@ -9655,7 +9666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -9666,809 +9677,809 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20">
+      <c r="A1" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
+      <c r="A32" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
+      <c r="A33" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
+      <c r="A34" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
+      <c r="A35" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+      <c r="A36" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
+      <c r="A37" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
+      <c r="A38" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
+      <c r="A39" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
+      <c r="A40" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
+      <c r="A44" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
+      <c r="A45" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
+      <c r="A46" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
+      <c r="A47" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
+      <c r="A48" s="19">
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
+      <c r="A49" s="19">
         <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
+      <c r="A50" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+      <c r="A51" s="19">
         <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
+      <c r="A52" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
+      <c r="A53" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="19"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="19"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="19"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="19"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="19"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+      <c r="A60" s="19"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="19"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="19"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20"/>
+      <c r="A64" s="19"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20"/>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
+      <c r="A73" s="19"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
+      <c r="A75" s="19"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20"/>
+      <c r="A76" s="19"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
+      <c r="A77" s="19"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
+      <c r="A78" s="19"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="19"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20"/>
+      <c r="A100" s="19"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
+      <c r="A101" s="19"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
+      <c r="A102" s="19"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
+      <c r="A103" s="19"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20"/>
+      <c r="A104" s="19"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20"/>
+      <c r="A105" s="19"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20"/>
+      <c r="A106" s="19"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
+      <c r="A107" s="19"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20"/>
+      <c r="A110" s="19"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20"/>
+      <c r="A111" s="19"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20"/>
+      <c r="A112" s="19"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
+      <c r="A115" s="19"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
+      <c r="A116" s="19"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
+      <c r="A117" s="19"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
+      <c r="A118" s="19"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20"/>
+      <c r="A119" s="19"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20"/>
+      <c r="A120" s="19"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20"/>
+      <c r="A121" s="19"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20"/>
+      <c r="A122" s="19"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20"/>
+      <c r="A123" s="19"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20"/>
+      <c r="A124" s="19"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20"/>
+      <c r="A125" s="19"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20"/>
+      <c r="A126" s="19"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20"/>
+      <c r="A127" s="19"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20"/>
+      <c r="A128" s="19"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20"/>
+      <c r="A129" s="19"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20"/>
+      <c r="A130" s="19"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20"/>
+      <c r="A131" s="19"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20"/>
+      <c r="A132" s="19"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20"/>
+      <c r="A133" s="19"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20"/>
+      <c r="A134" s="19"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20"/>
+      <c r="A135" s="19"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="20"/>
+      <c r="A136" s="19"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="20"/>
+      <c r="A137" s="19"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="20"/>
+      <c r="A138" s="19"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="20"/>
+      <c r="A139" s="19"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="20"/>
+      <c r="A140" s="19"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="20"/>
+      <c r="A141" s="19"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="19"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="19"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="19"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="19"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+      <c r="A146" s="19"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
+      <c r="A147" s="19"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
+      <c r="A148" s="19"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
+      <c r="A149" s="19"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="19"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="19"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+      <c r="A152" s="19"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
+      <c r="A153" s="19"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A154" s="19"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+      <c r="A155" s="19"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+      <c r="A156" s="19"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+      <c r="A157" s="19"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+      <c r="A158" s="19"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+      <c r="A159" s="19"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="19"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+      <c r="A161" s="19"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+      <c r="A162" s="19"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="19"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="19"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="19"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="19"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="19"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="19"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="19"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="19"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="19"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+      <c r="A172" s="19"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+      <c r="A173" s="19"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
+      <c r="A174" s="19"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+      <c r="A175" s="19"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="19"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
+      <c r="A177" s="19"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
+      <c r="A178" s="19"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
+      <c r="A179" s="19"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
+      <c r="A180" s="19"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
+      <c r="A181" s="19"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
+      <c r="A182" s="19"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
+      <c r="A183" s="19"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
+      <c r="A184" s="19"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="20"/>
+      <c r="A185" s="19"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="20"/>
+      <c r="A186" s="19"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="20"/>
+      <c r="A187" s="19"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
+      <c r="A188" s="19"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="20"/>
+      <c r="A189" s="19"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="20"/>
+      <c r="A190" s="19"/>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="20"/>
+      <c r="A191" s="19"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
+      <c r="A192" s="19"/>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
+      <c r="A193" s="19"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
+      <c r="A194" s="19"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
+      <c r="A195" s="19"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
+      <c r="A196" s="19"/>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
+      <c r="A197" s="19"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
+      <c r="A198" s="19"/>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
+      <c r="A199" s="19"/>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
+      <c r="A200" s="19"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
+      <c r="A201" s="19"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
+      <c r="A202" s="19"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
+      <c r="A203" s="19"/>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
+      <c r="A204" s="19"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+      <c r="A205" s="19"/>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+      <c r="A206" s="19"/>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+      <c r="A207" s="19"/>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+      <c r="A208" s="19"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="A209" s="19"/>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+      <c r="A210" s="19"/>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+      <c r="A211" s="19"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+      <c r="A212" s="19"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+      <c r="A213" s="19"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
+      <c r="A214" s="19"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+      <c r="A215" s="19"/>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+      <c r="A216" s="19"/>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+      <c r="A217" s="19"/>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+      <c r="A218" s="19"/>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+      <c r="A219" s="19"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+      <c r="A220" s="19"/>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+      <c r="A221" s="19"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+      <c r="A222" s="19"/>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+      <c r="A223" s="19"/>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+      <c r="A224" s="19"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+      <c r="A225" s="19"/>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+      <c r="A226" s="19"/>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+      <c r="A227" s="19"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
+      <c r="A228" s="19"/>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+      <c r="A229" s="19"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+      <c r="A230" s="19"/>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+      <c r="A231" s="19"/>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+      <c r="A232" s="19"/>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+      <c r="A233" s="19"/>
     </row>
   </sheetData>
   <sortState ref="A2:A212">
